--- a/Digitala/Digitala/File/Template.xlsx
+++ b/Digitala/Digitala/File/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabin\Documents\לימודים\Digitala\Digitala\Digitala\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCAA67E-FA1E-4039-ABB4-9E444050BDC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49F2BA-DD73-4892-8A97-1F062436AC94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="252" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>תעודת_זהות</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>לקות_משנית</t>
+  </si>
+  <si>
+    <t>שם_האופוטרופוס</t>
+  </si>
+  <si>
+    <t>אימייל_האופוטרופוס</t>
+  </si>
+  <si>
+    <t>פלאפון_האופוטרופוס</t>
   </si>
 </sst>
 </file>
@@ -378,24 +387,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,6 +444,15 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Digitala/Digitala/File/Template.xlsx
+++ b/Digitala/Digitala/File/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabin\Documents\לימודים\Digitala\Digitala\Digitala\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49F2BA-DD73-4892-8A97-1F062436AC94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951BE606-3979-4308-8AF7-D179E7BC2D76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="252" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>תעודת_זהות</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>פלאפון_האופוטרופוס</t>
+  </si>
+  <si>
+    <t>אלרגיות_רגישויות</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,20 +401,21 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,6 +457,9 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Digitala/Digitala/File/Template.xlsx
+++ b/Digitala/Digitala/File/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabin\Documents\לימודים\Digitala\Digitala\Digitala\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951BE606-3979-4308-8AF7-D179E7BC2D76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0B8B9-9990-4DA9-AD35-423AACA8F518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +404,7 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -462,6 +463,256 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Digitala/Digitala/File/Template.xlsx
+++ b/Digitala/Digitala/File/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabin\Documents\לימודים\Digitala\Digitala\Digitala\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0B8B9-9990-4DA9-AD35-423AACA8F518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D744C775-3FCB-4269-BD7A-08C26DB60626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,10 +76,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,18 +110,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O1589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +417,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
@@ -465,10 +476,12 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H2" s="2"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -477,6 +490,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H5" s="2"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -489,6 +503,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -504,6 +519,7 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
       <c r="H12" s="2"/>
       <c r="N12" s="2"/>
     </row>
@@ -708,12 +724,5876 @@
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H63" s="2"/>
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
       <c r="N64" s="2"/>
     </row>
+    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H65" s="2"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H67" s="2"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H68" s="2"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H69" s="2"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H71" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H72" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H74" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H75" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H76" s="2"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H77" s="2"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H78" s="2"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H79" s="2"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H80" s="2"/>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H81" s="2"/>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H82" s="2"/>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H83" s="2"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H84" s="2"/>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H85" s="2"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H86" s="2"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H87" s="2"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H88" s="2"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H89" s="2"/>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H90" s="2"/>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H91" s="2"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H92" s="2"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H93" s="2"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H94" s="2"/>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H95" s="2"/>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H96" s="2"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H97" s="2"/>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H98" s="2"/>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H99" s="2"/>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H100" s="2"/>
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H101" s="2"/>
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H102" s="2"/>
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H103" s="2"/>
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H104" s="2"/>
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H105" s="2"/>
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H106" s="2"/>
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H107" s="2"/>
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H108" s="2"/>
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H109" s="2"/>
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H110" s="2"/>
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H111" s="2"/>
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H112" s="2"/>
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H113" s="2"/>
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H114" s="2"/>
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H115" s="2"/>
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H116" s="2"/>
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H117" s="2"/>
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H118" s="2"/>
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H119" s="2"/>
+      <c r="N119" s="2"/>
+    </row>
+    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H120" s="2"/>
+      <c r="N120" s="2"/>
+    </row>
+    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H121" s="2"/>
+      <c r="N121" s="2"/>
+    </row>
+    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H122" s="2"/>
+      <c r="N122" s="2"/>
+    </row>
+    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H123" s="2"/>
+      <c r="N123" s="2"/>
+    </row>
+    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H124" s="2"/>
+      <c r="N124" s="2"/>
+    </row>
+    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H125" s="2"/>
+      <c r="N125" s="2"/>
+    </row>
+    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H126" s="2"/>
+      <c r="N126" s="2"/>
+    </row>
+    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H127" s="2"/>
+      <c r="N127" s="2"/>
+    </row>
+    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H128" s="2"/>
+      <c r="N128" s="2"/>
+    </row>
+    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H129" s="2"/>
+      <c r="N129" s="2"/>
+    </row>
+    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H130" s="2"/>
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H131" s="2"/>
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H132" s="2"/>
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H133" s="2"/>
+      <c r="N133" s="2"/>
+    </row>
+    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H134" s="2"/>
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H135" s="2"/>
+      <c r="N135" s="2"/>
+    </row>
+    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H136" s="2"/>
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H137" s="2"/>
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H138" s="2"/>
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H139" s="2"/>
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H140" s="2"/>
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H141" s="2"/>
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H142" s="2"/>
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H143" s="2"/>
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H144" s="2"/>
+      <c r="N144" s="2"/>
+    </row>
+    <row r="145" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H145" s="2"/>
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H146" s="2"/>
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H147" s="2"/>
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H148" s="2"/>
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H149" s="2"/>
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H150" s="2"/>
+      <c r="N150" s="2"/>
+    </row>
+    <row r="151" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H151" s="2"/>
+      <c r="N151" s="2"/>
+    </row>
+    <row r="152" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H152" s="2"/>
+      <c r="N152" s="2"/>
+    </row>
+    <row r="153" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H153" s="2"/>
+      <c r="N153" s="2"/>
+    </row>
+    <row r="154" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H154" s="2"/>
+      <c r="N154" s="2"/>
+    </row>
+    <row r="155" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H155" s="2"/>
+      <c r="N155" s="2"/>
+    </row>
+    <row r="156" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H156" s="2"/>
+      <c r="N156" s="2"/>
+    </row>
+    <row r="157" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H157" s="2"/>
+      <c r="N157" s="2"/>
+    </row>
+    <row r="158" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H158" s="2"/>
+      <c r="N158" s="2"/>
+    </row>
+    <row r="159" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H159" s="2"/>
+      <c r="N159" s="2"/>
+    </row>
+    <row r="160" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H160" s="2"/>
+      <c r="N160" s="2"/>
+    </row>
+    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H161" s="2"/>
+      <c r="N161" s="2"/>
+    </row>
+    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H162" s="2"/>
+      <c r="N162" s="2"/>
+    </row>
+    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H163" s="2"/>
+      <c r="N163" s="2"/>
+    </row>
+    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H164" s="2"/>
+      <c r="N164" s="2"/>
+    </row>
+    <row r="165" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H165" s="2"/>
+      <c r="N165" s="2"/>
+    </row>
+    <row r="166" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H166" s="2"/>
+      <c r="N166" s="2"/>
+    </row>
+    <row r="167" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H167" s="2"/>
+      <c r="N167" s="2"/>
+    </row>
+    <row r="168" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H168" s="2"/>
+      <c r="N168" s="2"/>
+    </row>
+    <row r="169" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H169" s="2"/>
+      <c r="N169" s="2"/>
+    </row>
+    <row r="170" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H170" s="2"/>
+      <c r="N170" s="2"/>
+    </row>
+    <row r="171" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H171" s="2"/>
+      <c r="N171" s="2"/>
+    </row>
+    <row r="172" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H172" s="2"/>
+      <c r="N172" s="2"/>
+    </row>
+    <row r="173" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H173" s="2"/>
+      <c r="N173" s="2"/>
+    </row>
+    <row r="174" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H174" s="2"/>
+      <c r="N174" s="2"/>
+    </row>
+    <row r="175" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H175" s="2"/>
+      <c r="N175" s="2"/>
+    </row>
+    <row r="176" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H176" s="2"/>
+      <c r="N176" s="2"/>
+    </row>
+    <row r="177" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H177" s="2"/>
+      <c r="N177" s="2"/>
+    </row>
+    <row r="178" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H178" s="2"/>
+      <c r="N178" s="2"/>
+    </row>
+    <row r="179" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H179" s="2"/>
+      <c r="N179" s="2"/>
+    </row>
+    <row r="180" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H180" s="2"/>
+      <c r="N180" s="2"/>
+    </row>
+    <row r="181" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H181" s="2"/>
+      <c r="N181" s="2"/>
+    </row>
+    <row r="182" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H182" s="2"/>
+      <c r="N182" s="2"/>
+    </row>
+    <row r="183" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H183" s="2"/>
+      <c r="N183" s="2"/>
+    </row>
+    <row r="184" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H184" s="2"/>
+      <c r="N184" s="2"/>
+    </row>
+    <row r="185" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H185" s="2"/>
+      <c r="N185" s="2"/>
+    </row>
+    <row r="186" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H186" s="2"/>
+      <c r="N186" s="2"/>
+    </row>
+    <row r="187" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H187" s="2"/>
+      <c r="N187" s="2"/>
+    </row>
+    <row r="188" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H188" s="2"/>
+      <c r="N188" s="2"/>
+    </row>
+    <row r="189" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H189" s="2"/>
+      <c r="N189" s="2"/>
+    </row>
+    <row r="190" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H190" s="2"/>
+      <c r="N190" s="2"/>
+    </row>
+    <row r="191" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H191" s="2"/>
+      <c r="N191" s="2"/>
+    </row>
+    <row r="192" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H192" s="2"/>
+      <c r="N192" s="2"/>
+    </row>
+    <row r="193" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H193" s="2"/>
+      <c r="N193" s="2"/>
+    </row>
+    <row r="194" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H194" s="2"/>
+      <c r="N194" s="2"/>
+    </row>
+    <row r="195" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H195" s="2"/>
+      <c r="N195" s="2"/>
+    </row>
+    <row r="196" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H196" s="2"/>
+      <c r="N196" s="2"/>
+    </row>
+    <row r="197" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H197" s="2"/>
+      <c r="N197" s="2"/>
+    </row>
+    <row r="198" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H198" s="2"/>
+      <c r="N198" s="2"/>
+    </row>
+    <row r="199" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H199" s="2"/>
+      <c r="N199" s="2"/>
+    </row>
+    <row r="200" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H200" s="2"/>
+      <c r="N200" s="2"/>
+    </row>
+    <row r="201" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H201" s="2"/>
+      <c r="N201" s="2"/>
+    </row>
+    <row r="202" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H202" s="2"/>
+      <c r="N202" s="2"/>
+    </row>
+    <row r="203" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H203" s="2"/>
+      <c r="N203" s="2"/>
+    </row>
+    <row r="204" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H204" s="2"/>
+      <c r="N204" s="2"/>
+    </row>
+    <row r="205" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H205" s="2"/>
+      <c r="N205" s="2"/>
+    </row>
+    <row r="206" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H206" s="2"/>
+      <c r="N206" s="2"/>
+    </row>
+    <row r="207" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H207" s="2"/>
+      <c r="N207" s="2"/>
+    </row>
+    <row r="208" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H208" s="2"/>
+      <c r="N208" s="2"/>
+    </row>
+    <row r="209" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H209" s="2"/>
+      <c r="N209" s="2"/>
+    </row>
+    <row r="210" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H210" s="2"/>
+      <c r="N210" s="2"/>
+    </row>
+    <row r="211" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H211" s="2"/>
+      <c r="N211" s="2"/>
+    </row>
+    <row r="212" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H212" s="2"/>
+      <c r="N212" s="2"/>
+    </row>
+    <row r="213" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H213" s="2"/>
+      <c r="N213" s="2"/>
+    </row>
+    <row r="214" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H214" s="2"/>
+      <c r="N214" s="2"/>
+    </row>
+    <row r="215" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H215" s="2"/>
+      <c r="N215" s="2"/>
+    </row>
+    <row r="216" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H216" s="2"/>
+      <c r="N216" s="2"/>
+    </row>
+    <row r="217" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H217" s="2"/>
+      <c r="N217" s="2"/>
+    </row>
+    <row r="218" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H218" s="2"/>
+      <c r="N218" s="2"/>
+    </row>
+    <row r="219" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H219" s="2"/>
+      <c r="N219" s="2"/>
+    </row>
+    <row r="220" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H220" s="2"/>
+      <c r="N220" s="2"/>
+    </row>
+    <row r="221" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H221" s="2"/>
+      <c r="N221" s="2"/>
+    </row>
+    <row r="222" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H222" s="2"/>
+      <c r="N222" s="2"/>
+    </row>
+    <row r="223" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H223" s="2"/>
+      <c r="N223" s="2"/>
+    </row>
+    <row r="224" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H224" s="2"/>
+      <c r="N224" s="2"/>
+    </row>
+    <row r="225" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H225" s="2"/>
+      <c r="N225" s="2"/>
+    </row>
+    <row r="226" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H226" s="2"/>
+      <c r="N226" s="2"/>
+    </row>
+    <row r="227" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H227" s="2"/>
+      <c r="N227" s="2"/>
+    </row>
+    <row r="228" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H228" s="2"/>
+      <c r="N228" s="2"/>
+    </row>
+    <row r="229" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H229" s="2"/>
+      <c r="N229" s="2"/>
+    </row>
+    <row r="230" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H230" s="2"/>
+      <c r="N230" s="2"/>
+    </row>
+    <row r="231" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H231" s="2"/>
+      <c r="N231" s="2"/>
+    </row>
+    <row r="232" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H232" s="2"/>
+      <c r="N232" s="2"/>
+    </row>
+    <row r="233" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H233" s="2"/>
+      <c r="N233" s="2"/>
+    </row>
+    <row r="234" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H234" s="2"/>
+      <c r="N234" s="2"/>
+    </row>
+    <row r="235" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H235" s="2"/>
+      <c r="N235" s="2"/>
+    </row>
+    <row r="236" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H236" s="2"/>
+      <c r="N236" s="2"/>
+    </row>
+    <row r="237" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H237" s="2"/>
+      <c r="N237" s="2"/>
+    </row>
+    <row r="238" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H238" s="2"/>
+      <c r="N238" s="2"/>
+    </row>
+    <row r="239" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H239" s="2"/>
+      <c r="N239" s="2"/>
+    </row>
+    <row r="240" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H240" s="2"/>
+      <c r="N240" s="2"/>
+    </row>
+    <row r="241" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H241" s="2"/>
+      <c r="N241" s="2"/>
+    </row>
+    <row r="242" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H242" s="2"/>
+      <c r="N242" s="2"/>
+    </row>
+    <row r="243" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H243" s="2"/>
+      <c r="N243" s="2"/>
+    </row>
+    <row r="244" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H244" s="2"/>
+      <c r="N244" s="2"/>
+    </row>
+    <row r="245" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H245" s="2"/>
+      <c r="N245" s="2"/>
+    </row>
+    <row r="246" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H246" s="2"/>
+      <c r="N246" s="2"/>
+    </row>
+    <row r="247" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H247" s="2"/>
+      <c r="N247" s="2"/>
+    </row>
+    <row r="248" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H248" s="2"/>
+      <c r="N248" s="2"/>
+    </row>
+    <row r="249" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H249" s="2"/>
+      <c r="N249" s="2"/>
+    </row>
+    <row r="250" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H250" s="2"/>
+      <c r="N250" s="2"/>
+    </row>
+    <row r="251" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H251" s="2"/>
+      <c r="N251" s="2"/>
+    </row>
+    <row r="252" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H252" s="2"/>
+      <c r="N252" s="2"/>
+    </row>
+    <row r="253" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H253" s="2"/>
+      <c r="N253" s="2"/>
+    </row>
+    <row r="254" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H254" s="2"/>
+      <c r="N254" s="2"/>
+    </row>
+    <row r="255" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H255" s="2"/>
+      <c r="N255" s="2"/>
+    </row>
+    <row r="256" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H256" s="2"/>
+      <c r="N256" s="2"/>
+    </row>
+    <row r="257" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H257" s="2"/>
+      <c r="N257" s="2"/>
+    </row>
+    <row r="258" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H258" s="2"/>
+      <c r="N258" s="2"/>
+    </row>
+    <row r="259" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H259" s="2"/>
+      <c r="N259" s="2"/>
+    </row>
+    <row r="260" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H260" s="2"/>
+      <c r="N260" s="2"/>
+    </row>
+    <row r="261" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H261" s="2"/>
+      <c r="N261" s="2"/>
+    </row>
+    <row r="262" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H262" s="2"/>
+      <c r="N262" s="2"/>
+    </row>
+    <row r="263" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H263" s="2"/>
+      <c r="N263" s="2"/>
+    </row>
+    <row r="264" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H264" s="2"/>
+      <c r="N264" s="2"/>
+    </row>
+    <row r="265" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H265" s="2"/>
+      <c r="N265" s="2"/>
+    </row>
+    <row r="266" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H266" s="2"/>
+      <c r="N266" s="2"/>
+    </row>
+    <row r="267" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H267" s="2"/>
+      <c r="N267" s="2"/>
+    </row>
+    <row r="268" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H268" s="2"/>
+      <c r="N268" s="2"/>
+    </row>
+    <row r="269" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H269" s="2"/>
+      <c r="N269" s="2"/>
+    </row>
+    <row r="270" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H270" s="2"/>
+      <c r="N270" s="2"/>
+    </row>
+    <row r="271" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H271" s="2"/>
+      <c r="N271" s="2"/>
+    </row>
+    <row r="272" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H272" s="2"/>
+      <c r="N272" s="2"/>
+    </row>
+    <row r="273" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H273" s="2"/>
+      <c r="N273" s="2"/>
+    </row>
+    <row r="274" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H274" s="2"/>
+      <c r="N274" s="2"/>
+    </row>
+    <row r="275" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H275" s="2"/>
+      <c r="N275" s="2"/>
+    </row>
+    <row r="276" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H276" s="2"/>
+      <c r="N276" s="2"/>
+    </row>
+    <row r="277" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H277" s="2"/>
+      <c r="N277" s="2"/>
+    </row>
+    <row r="278" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H278" s="2"/>
+      <c r="N278" s="2"/>
+    </row>
+    <row r="279" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H279" s="2"/>
+      <c r="N279" s="2"/>
+    </row>
+    <row r="280" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H280" s="2"/>
+      <c r="N280" s="2"/>
+    </row>
+    <row r="281" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H281" s="2"/>
+      <c r="N281" s="2"/>
+    </row>
+    <row r="282" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H282" s="2"/>
+      <c r="N282" s="2"/>
+    </row>
+    <row r="283" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H283" s="2"/>
+      <c r="N283" s="2"/>
+    </row>
+    <row r="284" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H284" s="2"/>
+      <c r="N284" s="2"/>
+    </row>
+    <row r="285" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H285" s="2"/>
+      <c r="N285" s="2"/>
+    </row>
+    <row r="286" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H286" s="2"/>
+      <c r="N286" s="2"/>
+    </row>
+    <row r="287" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H287" s="2"/>
+      <c r="N287" s="2"/>
+    </row>
+    <row r="288" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H288" s="2"/>
+      <c r="N288" s="2"/>
+    </row>
+    <row r="289" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H289" s="2"/>
+      <c r="N289" s="2"/>
+    </row>
+    <row r="290" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H290" s="2"/>
+      <c r="N290" s="2"/>
+    </row>
+    <row r="291" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H291" s="2"/>
+      <c r="N291" s="2"/>
+    </row>
+    <row r="292" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H292" s="2"/>
+      <c r="N292" s="2"/>
+    </row>
+    <row r="293" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H293" s="2"/>
+      <c r="N293" s="2"/>
+    </row>
+    <row r="294" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H294" s="2"/>
+      <c r="N294" s="2"/>
+    </row>
+    <row r="295" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H295" s="2"/>
+      <c r="N295" s="2"/>
+    </row>
+    <row r="296" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H296" s="2"/>
+      <c r="N296" s="2"/>
+    </row>
+    <row r="297" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H297" s="2"/>
+      <c r="N297" s="2"/>
+    </row>
+    <row r="298" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H298" s="2"/>
+      <c r="N298" s="2"/>
+    </row>
+    <row r="299" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H299" s="2"/>
+      <c r="N299" s="2"/>
+    </row>
+    <row r="300" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H300" s="2"/>
+      <c r="N300" s="2"/>
+    </row>
+    <row r="301" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H301" s="2"/>
+      <c r="N301" s="2"/>
+    </row>
+    <row r="302" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H302" s="2"/>
+      <c r="N302" s="2"/>
+    </row>
+    <row r="303" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H303" s="2"/>
+      <c r="N303" s="2"/>
+    </row>
+    <row r="304" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H304" s="2"/>
+      <c r="N304" s="2"/>
+    </row>
+    <row r="305" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H305" s="2"/>
+      <c r="N305" s="2"/>
+    </row>
+    <row r="306" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H306" s="2"/>
+      <c r="N306" s="2"/>
+    </row>
+    <row r="307" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H307" s="2"/>
+      <c r="N307" s="2"/>
+    </row>
+    <row r="308" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H308" s="2"/>
+      <c r="N308" s="2"/>
+    </row>
+    <row r="309" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H309" s="2"/>
+      <c r="N309" s="2"/>
+    </row>
+    <row r="310" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H310" s="2"/>
+      <c r="N310" s="2"/>
+    </row>
+    <row r="311" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H311" s="2"/>
+      <c r="N311" s="2"/>
+    </row>
+    <row r="312" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H312" s="2"/>
+      <c r="N312" s="2"/>
+    </row>
+    <row r="313" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H313" s="2"/>
+      <c r="N313" s="2"/>
+    </row>
+    <row r="314" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H314" s="2"/>
+      <c r="N314" s="2"/>
+    </row>
+    <row r="315" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H315" s="2"/>
+      <c r="N315" s="2"/>
+    </row>
+    <row r="316" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H316" s="2"/>
+      <c r="N316" s="2"/>
+    </row>
+    <row r="317" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H317" s="2"/>
+      <c r="N317" s="2"/>
+    </row>
+    <row r="318" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H318" s="2"/>
+      <c r="N318" s="2"/>
+    </row>
+    <row r="319" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H319" s="2"/>
+      <c r="N319" s="2"/>
+    </row>
+    <row r="320" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H320" s="2"/>
+      <c r="N320" s="2"/>
+    </row>
+    <row r="321" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H321" s="2"/>
+      <c r="N321" s="2"/>
+    </row>
+    <row r="322" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H322" s="2"/>
+      <c r="N322" s="2"/>
+    </row>
+    <row r="323" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H323" s="2"/>
+      <c r="N323" s="2"/>
+    </row>
+    <row r="324" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H324" s="2"/>
+      <c r="N324" s="2"/>
+    </row>
+    <row r="325" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H325" s="2"/>
+      <c r="N325" s="2"/>
+    </row>
+    <row r="326" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H326" s="2"/>
+      <c r="N326" s="2"/>
+    </row>
+    <row r="327" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H327" s="2"/>
+      <c r="N327" s="2"/>
+    </row>
+    <row r="328" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H328" s="2"/>
+      <c r="N328" s="2"/>
+    </row>
+    <row r="329" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H329" s="2"/>
+      <c r="N329" s="2"/>
+    </row>
+    <row r="330" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H330" s="2"/>
+      <c r="N330" s="2"/>
+    </row>
+    <row r="331" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H331" s="2"/>
+      <c r="N331" s="2"/>
+    </row>
+    <row r="332" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H332" s="2"/>
+      <c r="N332" s="2"/>
+    </row>
+    <row r="333" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H333" s="2"/>
+      <c r="N333" s="2"/>
+    </row>
+    <row r="334" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H334" s="2"/>
+      <c r="N334" s="2"/>
+    </row>
+    <row r="335" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H335" s="2"/>
+      <c r="N335" s="2"/>
+    </row>
+    <row r="336" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H336" s="2"/>
+      <c r="N336" s="2"/>
+    </row>
+    <row r="337" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H337" s="2"/>
+      <c r="N337" s="2"/>
+    </row>
+    <row r="338" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H338" s="2"/>
+      <c r="N338" s="2"/>
+    </row>
+    <row r="339" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H339" s="2"/>
+      <c r="N339" s="2"/>
+    </row>
+    <row r="340" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H340" s="2"/>
+      <c r="N340" s="2"/>
+    </row>
+    <row r="341" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H341" s="2"/>
+      <c r="N341" s="2"/>
+    </row>
+    <row r="342" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H342" s="2"/>
+      <c r="N342" s="2"/>
+    </row>
+    <row r="343" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H343" s="2"/>
+      <c r="N343" s="2"/>
+    </row>
+    <row r="344" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H344" s="2"/>
+      <c r="N344" s="2"/>
+    </row>
+    <row r="345" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H345" s="2"/>
+      <c r="N345" s="2"/>
+    </row>
+    <row r="346" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H346" s="2"/>
+      <c r="N346" s="2"/>
+    </row>
+    <row r="347" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H347" s="2"/>
+      <c r="N347" s="2"/>
+    </row>
+    <row r="348" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H348" s="2"/>
+      <c r="N348" s="2"/>
+    </row>
+    <row r="349" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H349" s="2"/>
+      <c r="N349" s="2"/>
+    </row>
+    <row r="350" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H350" s="2"/>
+      <c r="N350" s="2"/>
+    </row>
+    <row r="351" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H351" s="2"/>
+      <c r="N351" s="2"/>
+    </row>
+    <row r="352" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H352" s="2"/>
+      <c r="N352" s="2"/>
+    </row>
+    <row r="353" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H353" s="2"/>
+      <c r="N353" s="2"/>
+    </row>
+    <row r="354" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H354" s="2"/>
+      <c r="N354" s="2"/>
+    </row>
+    <row r="355" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H355" s="2"/>
+      <c r="N355" s="2"/>
+    </row>
+    <row r="356" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H356" s="2"/>
+      <c r="N356" s="2"/>
+    </row>
+    <row r="357" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H357" s="2"/>
+      <c r="N357" s="2"/>
+    </row>
+    <row r="358" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H358" s="2"/>
+      <c r="N358" s="2"/>
+    </row>
+    <row r="359" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H359" s="2"/>
+      <c r="N359" s="2"/>
+    </row>
+    <row r="360" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H360" s="2"/>
+      <c r="N360" s="2"/>
+    </row>
+    <row r="361" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H361" s="2"/>
+      <c r="N361" s="2"/>
+    </row>
+    <row r="362" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H362" s="2"/>
+      <c r="N362" s="2"/>
+    </row>
+    <row r="363" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H363" s="2"/>
+      <c r="N363" s="2"/>
+    </row>
+    <row r="364" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H364" s="2"/>
+      <c r="N364" s="2"/>
+    </row>
+    <row r="365" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H365" s="2"/>
+      <c r="N365" s="2"/>
+    </row>
+    <row r="366" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H366" s="2"/>
+      <c r="N366" s="2"/>
+    </row>
+    <row r="367" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H367" s="2"/>
+      <c r="N367" s="2"/>
+    </row>
+    <row r="368" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H368" s="2"/>
+      <c r="N368" s="2"/>
+    </row>
+    <row r="369" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H369" s="2"/>
+      <c r="N369" s="2"/>
+    </row>
+    <row r="370" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H370" s="2"/>
+      <c r="N370" s="2"/>
+    </row>
+    <row r="371" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H371" s="2"/>
+      <c r="N371" s="2"/>
+    </row>
+    <row r="372" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H372" s="2"/>
+      <c r="N372" s="2"/>
+    </row>
+    <row r="373" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H373" s="2"/>
+      <c r="N373" s="2"/>
+    </row>
+    <row r="374" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H374" s="2"/>
+      <c r="N374" s="2"/>
+    </row>
+    <row r="375" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H375" s="2"/>
+      <c r="N375" s="2"/>
+    </row>
+    <row r="376" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H376" s="2"/>
+      <c r="N376" s="2"/>
+    </row>
+    <row r="377" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H377" s="2"/>
+      <c r="N377" s="2"/>
+    </row>
+    <row r="378" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H378" s="2"/>
+      <c r="N378" s="2"/>
+    </row>
+    <row r="379" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H379" s="2"/>
+      <c r="N379" s="2"/>
+    </row>
+    <row r="380" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H380" s="2"/>
+      <c r="N380" s="2"/>
+    </row>
+    <row r="381" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H381" s="2"/>
+      <c r="N381" s="2"/>
+    </row>
+    <row r="382" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H382" s="2"/>
+      <c r="N382" s="2"/>
+    </row>
+    <row r="383" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H383" s="2"/>
+      <c r="N383" s="2"/>
+    </row>
+    <row r="384" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H384" s="2"/>
+      <c r="N384" s="2"/>
+    </row>
+    <row r="385" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H385" s="2"/>
+      <c r="N385" s="2"/>
+    </row>
+    <row r="386" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H386" s="2"/>
+      <c r="N386" s="2"/>
+    </row>
+    <row r="387" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H387" s="2"/>
+      <c r="N387" s="2"/>
+    </row>
+    <row r="388" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H388" s="2"/>
+      <c r="N388" s="2"/>
+    </row>
+    <row r="389" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H389" s="2"/>
+      <c r="N389" s="2"/>
+    </row>
+    <row r="390" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H390" s="2"/>
+      <c r="N390" s="2"/>
+    </row>
+    <row r="391" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H391" s="2"/>
+      <c r="N391" s="2"/>
+    </row>
+    <row r="392" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H392" s="2"/>
+      <c r="N392" s="2"/>
+    </row>
+    <row r="393" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H393" s="2"/>
+      <c r="N393" s="2"/>
+    </row>
+    <row r="394" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H394" s="2"/>
+      <c r="N394" s="2"/>
+    </row>
+    <row r="395" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H395" s="2"/>
+      <c r="N395" s="2"/>
+    </row>
+    <row r="396" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H396" s="2"/>
+      <c r="N396" s="2"/>
+    </row>
+    <row r="397" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H397" s="2"/>
+      <c r="N397" s="2"/>
+    </row>
+    <row r="398" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H398" s="2"/>
+      <c r="N398" s="2"/>
+    </row>
+    <row r="399" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H399" s="2"/>
+      <c r="N399" s="2"/>
+    </row>
+    <row r="400" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H400" s="2"/>
+      <c r="N400" s="2"/>
+    </row>
+    <row r="401" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H401" s="2"/>
+      <c r="N401" s="2"/>
+    </row>
+    <row r="402" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H402" s="2"/>
+      <c r="N402" s="2"/>
+    </row>
+    <row r="403" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H403" s="2"/>
+      <c r="N403" s="2"/>
+    </row>
+    <row r="404" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H404" s="2"/>
+      <c r="N404" s="2"/>
+    </row>
+    <row r="405" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H405" s="2"/>
+      <c r="N405" s="2"/>
+    </row>
+    <row r="406" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H406" s="2"/>
+      <c r="N406" s="2"/>
+    </row>
+    <row r="407" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H407" s="2"/>
+      <c r="N407" s="2"/>
+    </row>
+    <row r="408" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H408" s="2"/>
+      <c r="N408" s="2"/>
+    </row>
+    <row r="409" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H409" s="2"/>
+      <c r="N409" s="2"/>
+    </row>
+    <row r="410" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H410" s="2"/>
+      <c r="N410" s="2"/>
+    </row>
+    <row r="411" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H411" s="2"/>
+      <c r="N411" s="2"/>
+    </row>
+    <row r="412" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H412" s="2"/>
+      <c r="N412" s="2"/>
+    </row>
+    <row r="413" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H413" s="2"/>
+      <c r="N413" s="2"/>
+    </row>
+    <row r="414" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H414" s="2"/>
+      <c r="N414" s="2"/>
+    </row>
+    <row r="415" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H415" s="2"/>
+      <c r="N415" s="2"/>
+    </row>
+    <row r="416" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H416" s="2"/>
+      <c r="N416" s="2"/>
+    </row>
+    <row r="417" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H417" s="2"/>
+      <c r="N417" s="2"/>
+    </row>
+    <row r="418" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H418" s="2"/>
+      <c r="N418" s="2"/>
+    </row>
+    <row r="419" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H419" s="2"/>
+      <c r="N419" s="2"/>
+    </row>
+    <row r="420" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H420" s="2"/>
+      <c r="N420" s="2"/>
+    </row>
+    <row r="421" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H421" s="2"/>
+      <c r="N421" s="2"/>
+    </row>
+    <row r="422" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H422" s="2"/>
+      <c r="N422" s="2"/>
+    </row>
+    <row r="423" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H423" s="2"/>
+      <c r="N423" s="2"/>
+    </row>
+    <row r="424" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H424" s="2"/>
+      <c r="N424" s="2"/>
+    </row>
+    <row r="425" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H425" s="2"/>
+      <c r="N425" s="2"/>
+    </row>
+    <row r="426" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H426" s="2"/>
+      <c r="N426" s="2"/>
+    </row>
+    <row r="427" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H427" s="2"/>
+      <c r="N427" s="2"/>
+    </row>
+    <row r="428" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H428" s="2"/>
+      <c r="N428" s="2"/>
+    </row>
+    <row r="429" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H429" s="2"/>
+      <c r="N429" s="2"/>
+    </row>
+    <row r="430" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H430" s="2"/>
+      <c r="N430" s="2"/>
+    </row>
+    <row r="431" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H431" s="2"/>
+      <c r="N431" s="2"/>
+    </row>
+    <row r="432" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H432" s="2"/>
+      <c r="N432" s="2"/>
+    </row>
+    <row r="433" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H433" s="2"/>
+      <c r="N433" s="2"/>
+    </row>
+    <row r="434" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H434" s="2"/>
+      <c r="N434" s="2"/>
+    </row>
+    <row r="435" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H435" s="2"/>
+      <c r="N435" s="2"/>
+    </row>
+    <row r="436" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H436" s="2"/>
+      <c r="N436" s="2"/>
+    </row>
+    <row r="437" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H437" s="2"/>
+      <c r="N437" s="2"/>
+    </row>
+    <row r="438" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H438" s="2"/>
+      <c r="N438" s="2"/>
+    </row>
+    <row r="439" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H439" s="2"/>
+      <c r="N439" s="2"/>
+    </row>
+    <row r="440" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H440" s="2"/>
+      <c r="N440" s="2"/>
+    </row>
+    <row r="441" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H441" s="2"/>
+      <c r="N441" s="2"/>
+    </row>
+    <row r="442" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H442" s="2"/>
+      <c r="N442" s="2"/>
+    </row>
+    <row r="443" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H443" s="2"/>
+      <c r="N443" s="2"/>
+    </row>
+    <row r="444" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H444" s="2"/>
+      <c r="N444" s="2"/>
+    </row>
+    <row r="445" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H445" s="2"/>
+      <c r="N445" s="2"/>
+    </row>
+    <row r="446" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H446" s="2"/>
+      <c r="N446" s="2"/>
+    </row>
+    <row r="447" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H447" s="2"/>
+      <c r="N447" s="2"/>
+    </row>
+    <row r="448" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H448" s="2"/>
+      <c r="N448" s="2"/>
+    </row>
+    <row r="449" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H449" s="2"/>
+      <c r="N449" s="2"/>
+    </row>
+    <row r="450" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H450" s="2"/>
+      <c r="N450" s="2"/>
+    </row>
+    <row r="451" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H451" s="2"/>
+      <c r="N451" s="2"/>
+    </row>
+    <row r="452" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H452" s="2"/>
+      <c r="N452" s="2"/>
+    </row>
+    <row r="453" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H453" s="2"/>
+      <c r="N453" s="2"/>
+    </row>
+    <row r="454" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H454" s="2"/>
+      <c r="N454" s="2"/>
+    </row>
+    <row r="455" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H455" s="2"/>
+      <c r="N455" s="2"/>
+    </row>
+    <row r="456" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H456" s="2"/>
+      <c r="N456" s="2"/>
+    </row>
+    <row r="457" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H457" s="2"/>
+      <c r="N457" s="2"/>
+    </row>
+    <row r="458" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H458" s="2"/>
+      <c r="N458" s="2"/>
+    </row>
+    <row r="459" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H459" s="2"/>
+      <c r="N459" s="2"/>
+    </row>
+    <row r="460" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H460" s="2"/>
+      <c r="N460" s="2"/>
+    </row>
+    <row r="461" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H461" s="2"/>
+      <c r="N461" s="2"/>
+    </row>
+    <row r="462" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H462" s="2"/>
+      <c r="N462" s="2"/>
+    </row>
+    <row r="463" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H463" s="2"/>
+      <c r="N463" s="2"/>
+    </row>
+    <row r="464" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H464" s="2"/>
+      <c r="N464" s="2"/>
+    </row>
+    <row r="465" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H465" s="2"/>
+      <c r="N465" s="2"/>
+    </row>
+    <row r="466" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H466" s="2"/>
+      <c r="N466" s="2"/>
+    </row>
+    <row r="467" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H467" s="2"/>
+      <c r="N467" s="2"/>
+    </row>
+    <row r="468" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H468" s="2"/>
+      <c r="N468" s="2"/>
+    </row>
+    <row r="469" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H469" s="2"/>
+      <c r="N469" s="2"/>
+    </row>
+    <row r="470" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H470" s="2"/>
+      <c r="N470" s="2"/>
+    </row>
+    <row r="471" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H471" s="2"/>
+      <c r="N471" s="2"/>
+    </row>
+    <row r="472" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H472" s="2"/>
+      <c r="N472" s="2"/>
+    </row>
+    <row r="473" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H473" s="2"/>
+      <c r="N473" s="2"/>
+    </row>
+    <row r="474" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H474" s="2"/>
+      <c r="N474" s="2"/>
+    </row>
+    <row r="475" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H475" s="2"/>
+      <c r="N475" s="2"/>
+    </row>
+    <row r="476" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H476" s="2"/>
+      <c r="N476" s="2"/>
+    </row>
+    <row r="477" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H477" s="2"/>
+      <c r="N477" s="2"/>
+    </row>
+    <row r="478" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H478" s="2"/>
+      <c r="N478" s="2"/>
+    </row>
+    <row r="479" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H479" s="2"/>
+      <c r="N479" s="2"/>
+    </row>
+    <row r="480" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H480" s="2"/>
+      <c r="N480" s="2"/>
+    </row>
+    <row r="481" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H481" s="2"/>
+      <c r="N481" s="2"/>
+    </row>
+    <row r="482" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H482" s="2"/>
+      <c r="N482" s="2"/>
+    </row>
+    <row r="483" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H483" s="2"/>
+      <c r="N483" s="2"/>
+    </row>
+    <row r="484" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H484" s="2"/>
+      <c r="N484" s="2"/>
+    </row>
+    <row r="485" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H485" s="2"/>
+      <c r="N485" s="2"/>
+    </row>
+    <row r="486" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H486" s="2"/>
+      <c r="N486" s="2"/>
+    </row>
+    <row r="487" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H487" s="2"/>
+      <c r="N487" s="2"/>
+    </row>
+    <row r="488" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H488" s="2"/>
+      <c r="N488" s="2"/>
+    </row>
+    <row r="489" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H489" s="2"/>
+      <c r="N489" s="2"/>
+    </row>
+    <row r="490" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H490" s="2"/>
+      <c r="N490" s="2"/>
+    </row>
+    <row r="491" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H491" s="2"/>
+      <c r="N491" s="2"/>
+    </row>
+    <row r="492" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H492" s="2"/>
+      <c r="N492" s="2"/>
+    </row>
+    <row r="493" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H493" s="2"/>
+      <c r="N493" s="2"/>
+    </row>
+    <row r="494" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H494" s="2"/>
+      <c r="N494" s="2"/>
+    </row>
+    <row r="495" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H495" s="2"/>
+      <c r="N495" s="2"/>
+    </row>
+    <row r="496" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H496" s="2"/>
+      <c r="N496" s="2"/>
+    </row>
+    <row r="497" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H497" s="2"/>
+      <c r="N497" s="2"/>
+    </row>
+    <row r="498" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H498" s="2"/>
+      <c r="N498" s="2"/>
+    </row>
+    <row r="499" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H499" s="2"/>
+      <c r="N499" s="2"/>
+    </row>
+    <row r="500" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H500" s="2"/>
+      <c r="N500" s="2"/>
+    </row>
+    <row r="501" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H501" s="2"/>
+      <c r="N501" s="2"/>
+    </row>
+    <row r="502" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H502" s="2"/>
+      <c r="N502" s="2"/>
+    </row>
+    <row r="503" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H503" s="2"/>
+      <c r="N503" s="2"/>
+    </row>
+    <row r="504" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H504" s="2"/>
+      <c r="N504" s="2"/>
+    </row>
+    <row r="505" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H505" s="2"/>
+      <c r="N505" s="2"/>
+    </row>
+    <row r="506" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H506" s="2"/>
+      <c r="N506" s="2"/>
+    </row>
+    <row r="507" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H507" s="2"/>
+      <c r="N507" s="2"/>
+    </row>
+    <row r="508" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H508" s="2"/>
+      <c r="N508" s="2"/>
+    </row>
+    <row r="509" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H509" s="2"/>
+      <c r="N509" s="2"/>
+    </row>
+    <row r="510" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H510" s="2"/>
+      <c r="N510" s="2"/>
+    </row>
+    <row r="511" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H511" s="2"/>
+      <c r="N511" s="2"/>
+    </row>
+    <row r="512" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H512" s="2"/>
+      <c r="N512" s="2"/>
+    </row>
+    <row r="513" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H513" s="2"/>
+      <c r="N513" s="2"/>
+    </row>
+    <row r="514" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H514" s="2"/>
+      <c r="N514" s="2"/>
+    </row>
+    <row r="515" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H515" s="2"/>
+      <c r="N515" s="2"/>
+    </row>
+    <row r="516" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H516" s="2"/>
+      <c r="N516" s="2"/>
+    </row>
+    <row r="517" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H517" s="2"/>
+      <c r="N517" s="2"/>
+    </row>
+    <row r="518" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H518" s="2"/>
+      <c r="N518" s="2"/>
+    </row>
+    <row r="519" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H519" s="2"/>
+      <c r="N519" s="2"/>
+    </row>
+    <row r="520" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H520" s="2"/>
+      <c r="N520" s="2"/>
+    </row>
+    <row r="521" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H521" s="2"/>
+      <c r="N521" s="2"/>
+    </row>
+    <row r="522" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H522" s="2"/>
+      <c r="N522" s="2"/>
+    </row>
+    <row r="523" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H523" s="2"/>
+      <c r="N523" s="2"/>
+    </row>
+    <row r="524" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H524" s="2"/>
+      <c r="N524" s="2"/>
+    </row>
+    <row r="525" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H525" s="2"/>
+      <c r="N525" s="2"/>
+    </row>
+    <row r="526" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H526" s="2"/>
+      <c r="N526" s="2"/>
+    </row>
+    <row r="527" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H527" s="2"/>
+      <c r="N527" s="2"/>
+    </row>
+    <row r="528" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H528" s="2"/>
+      <c r="N528" s="2"/>
+    </row>
+    <row r="529" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H529" s="2"/>
+      <c r="N529" s="2"/>
+    </row>
+    <row r="530" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H530" s="2"/>
+      <c r="N530" s="2"/>
+    </row>
+    <row r="531" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H531" s="2"/>
+      <c r="N531" s="2"/>
+    </row>
+    <row r="532" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H532" s="2"/>
+      <c r="N532" s="2"/>
+    </row>
+    <row r="533" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H533" s="2"/>
+      <c r="N533" s="2"/>
+    </row>
+    <row r="534" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H534" s="2"/>
+      <c r="N534" s="2"/>
+    </row>
+    <row r="535" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H535" s="2"/>
+      <c r="N535" s="2"/>
+    </row>
+    <row r="536" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H536" s="2"/>
+      <c r="N536" s="2"/>
+    </row>
+    <row r="537" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H537" s="2"/>
+      <c r="N537" s="2"/>
+    </row>
+    <row r="538" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H538" s="2"/>
+      <c r="N538" s="2"/>
+    </row>
+    <row r="539" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H539" s="2"/>
+      <c r="N539" s="2"/>
+    </row>
+    <row r="540" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H540" s="2"/>
+      <c r="N540" s="2"/>
+    </row>
+    <row r="541" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H541" s="2"/>
+      <c r="N541" s="2"/>
+    </row>
+    <row r="542" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H542" s="2"/>
+      <c r="N542" s="2"/>
+    </row>
+    <row r="543" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H543" s="2"/>
+      <c r="N543" s="2"/>
+    </row>
+    <row r="544" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H544" s="2"/>
+      <c r="N544" s="2"/>
+    </row>
+    <row r="545" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H545" s="2"/>
+      <c r="N545" s="2"/>
+    </row>
+    <row r="546" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H546" s="2"/>
+      <c r="N546" s="2"/>
+    </row>
+    <row r="547" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H547" s="2"/>
+      <c r="N547" s="2"/>
+    </row>
+    <row r="548" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H548" s="2"/>
+      <c r="N548" s="2"/>
+    </row>
+    <row r="549" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H549" s="2"/>
+      <c r="N549" s="2"/>
+    </row>
+    <row r="550" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H550" s="2"/>
+      <c r="N550" s="2"/>
+    </row>
+    <row r="551" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H551" s="2"/>
+      <c r="N551" s="2"/>
+    </row>
+    <row r="552" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H552" s="2"/>
+      <c r="N552" s="2"/>
+    </row>
+    <row r="553" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H553" s="2"/>
+      <c r="N553" s="2"/>
+    </row>
+    <row r="554" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H554" s="2"/>
+      <c r="N554" s="2"/>
+    </row>
+    <row r="555" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H555" s="2"/>
+      <c r="N555" s="2"/>
+    </row>
+    <row r="556" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H556" s="2"/>
+      <c r="N556" s="2"/>
+    </row>
+    <row r="557" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H557" s="2"/>
+      <c r="N557" s="2"/>
+    </row>
+    <row r="558" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H558" s="2"/>
+      <c r="N558" s="2"/>
+    </row>
+    <row r="559" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H559" s="2"/>
+      <c r="N559" s="2"/>
+    </row>
+    <row r="560" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H560" s="2"/>
+      <c r="N560" s="2"/>
+    </row>
+    <row r="561" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H561" s="2"/>
+      <c r="N561" s="2"/>
+    </row>
+    <row r="562" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H562" s="2"/>
+      <c r="N562" s="2"/>
+    </row>
+    <row r="563" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H563" s="2"/>
+      <c r="N563" s="2"/>
+    </row>
+    <row r="564" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H564" s="2"/>
+      <c r="N564" s="2"/>
+    </row>
+    <row r="565" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H565" s="2"/>
+      <c r="N565" s="2"/>
+    </row>
+    <row r="566" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H566" s="2"/>
+      <c r="N566" s="2"/>
+    </row>
+    <row r="567" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H567" s="2"/>
+      <c r="N567" s="2"/>
+    </row>
+    <row r="568" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H568" s="2"/>
+      <c r="N568" s="2"/>
+    </row>
+    <row r="569" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H569" s="2"/>
+      <c r="N569" s="2"/>
+    </row>
+    <row r="570" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H570" s="2"/>
+      <c r="N570" s="2"/>
+    </row>
+    <row r="571" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H571" s="2"/>
+      <c r="N571" s="2"/>
+    </row>
+    <row r="572" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H572" s="2"/>
+      <c r="N572" s="2"/>
+    </row>
+    <row r="573" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H573" s="2"/>
+      <c r="N573" s="2"/>
+    </row>
+    <row r="574" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H574" s="2"/>
+      <c r="N574" s="2"/>
+    </row>
+    <row r="575" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H575" s="2"/>
+      <c r="N575" s="2"/>
+    </row>
+    <row r="576" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H576" s="2"/>
+      <c r="N576" s="2"/>
+    </row>
+    <row r="577" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H577" s="2"/>
+      <c r="N577" s="2"/>
+    </row>
+    <row r="578" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H578" s="2"/>
+      <c r="N578" s="2"/>
+    </row>
+    <row r="579" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H579" s="2"/>
+      <c r="N579" s="2"/>
+    </row>
+    <row r="580" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H580" s="2"/>
+      <c r="N580" s="2"/>
+    </row>
+    <row r="581" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H581" s="2"/>
+      <c r="N581" s="2"/>
+    </row>
+    <row r="582" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H582" s="2"/>
+      <c r="N582" s="2"/>
+    </row>
+    <row r="583" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H583" s="2"/>
+      <c r="N583" s="2"/>
+    </row>
+    <row r="584" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H584" s="2"/>
+      <c r="N584" s="2"/>
+    </row>
+    <row r="585" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H585" s="2"/>
+      <c r="N585" s="2"/>
+    </row>
+    <row r="586" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H586" s="2"/>
+      <c r="N586" s="2"/>
+    </row>
+    <row r="587" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H587" s="2"/>
+      <c r="N587" s="2"/>
+    </row>
+    <row r="588" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H588" s="2"/>
+      <c r="N588" s="2"/>
+    </row>
+    <row r="589" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H589" s="2"/>
+      <c r="N589" s="2"/>
+    </row>
+    <row r="590" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H590" s="2"/>
+      <c r="N590" s="2"/>
+    </row>
+    <row r="591" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H591" s="2"/>
+      <c r="N591" s="2"/>
+    </row>
+    <row r="592" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H592" s="2"/>
+      <c r="N592" s="2"/>
+    </row>
+    <row r="593" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H593" s="2"/>
+      <c r="N593" s="2"/>
+    </row>
+    <row r="594" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H594" s="2"/>
+      <c r="N594" s="2"/>
+    </row>
+    <row r="595" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H595" s="2"/>
+      <c r="N595" s="2"/>
+    </row>
+    <row r="596" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H596" s="2"/>
+      <c r="N596" s="2"/>
+    </row>
+    <row r="597" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H597" s="2"/>
+      <c r="N597" s="2"/>
+    </row>
+    <row r="598" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H598" s="2"/>
+      <c r="N598" s="2"/>
+    </row>
+    <row r="599" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H599" s="2"/>
+      <c r="N599" s="2"/>
+    </row>
+    <row r="600" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H600" s="2"/>
+      <c r="N600" s="2"/>
+    </row>
+    <row r="601" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H601" s="2"/>
+      <c r="N601" s="2"/>
+    </row>
+    <row r="602" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H602" s="2"/>
+      <c r="N602" s="2"/>
+    </row>
+    <row r="603" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H603" s="2"/>
+      <c r="N603" s="2"/>
+    </row>
+    <row r="604" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H604" s="2"/>
+      <c r="N604" s="2"/>
+    </row>
+    <row r="605" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H605" s="2"/>
+      <c r="N605" s="2"/>
+    </row>
+    <row r="606" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H606" s="2"/>
+      <c r="N606" s="2"/>
+    </row>
+    <row r="607" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H607" s="2"/>
+      <c r="N607" s="2"/>
+    </row>
+    <row r="608" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H608" s="2"/>
+      <c r="N608" s="2"/>
+    </row>
+    <row r="609" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H609" s="2"/>
+      <c r="N609" s="2"/>
+    </row>
+    <row r="610" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H610" s="2"/>
+      <c r="N610" s="2"/>
+    </row>
+    <row r="611" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H611" s="2"/>
+      <c r="N611" s="2"/>
+    </row>
+    <row r="612" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H612" s="2"/>
+      <c r="N612" s="2"/>
+    </row>
+    <row r="613" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H613" s="2"/>
+      <c r="N613" s="2"/>
+    </row>
+    <row r="614" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H614" s="2"/>
+      <c r="N614" s="2"/>
+    </row>
+    <row r="615" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H615" s="2"/>
+      <c r="N615" s="2"/>
+    </row>
+    <row r="616" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H616" s="2"/>
+      <c r="N616" s="2"/>
+    </row>
+    <row r="617" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H617" s="2"/>
+      <c r="N617" s="2"/>
+    </row>
+    <row r="618" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H618" s="2"/>
+      <c r="N618" s="2"/>
+    </row>
+    <row r="619" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H619" s="2"/>
+      <c r="N619" s="2"/>
+    </row>
+    <row r="620" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H620" s="2"/>
+      <c r="N620" s="2"/>
+    </row>
+    <row r="621" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H621" s="2"/>
+      <c r="N621" s="2"/>
+    </row>
+    <row r="622" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H622" s="2"/>
+      <c r="N622" s="2"/>
+    </row>
+    <row r="623" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H623" s="2"/>
+      <c r="N623" s="2"/>
+    </row>
+    <row r="624" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H624" s="2"/>
+      <c r="N624" s="2"/>
+    </row>
+    <row r="625" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H625" s="2"/>
+      <c r="N625" s="2"/>
+    </row>
+    <row r="626" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H626" s="2"/>
+      <c r="N626" s="2"/>
+    </row>
+    <row r="627" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H627" s="2"/>
+      <c r="N627" s="2"/>
+    </row>
+    <row r="628" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H628" s="2"/>
+      <c r="N628" s="2"/>
+    </row>
+    <row r="629" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H629" s="2"/>
+      <c r="N629" s="2"/>
+    </row>
+    <row r="630" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H630" s="2"/>
+      <c r="N630" s="2"/>
+    </row>
+    <row r="631" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H631" s="2"/>
+      <c r="N631" s="2"/>
+    </row>
+    <row r="632" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H632" s="2"/>
+      <c r="N632" s="2"/>
+    </row>
+    <row r="633" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H633" s="2"/>
+      <c r="N633" s="2"/>
+    </row>
+    <row r="634" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H634" s="2"/>
+      <c r="N634" s="2"/>
+    </row>
+    <row r="635" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H635" s="2"/>
+      <c r="N635" s="2"/>
+    </row>
+    <row r="636" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H636" s="2"/>
+      <c r="N636" s="2"/>
+    </row>
+    <row r="637" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H637" s="2"/>
+      <c r="N637" s="2"/>
+    </row>
+    <row r="638" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H638" s="2"/>
+      <c r="N638" s="2"/>
+    </row>
+    <row r="639" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H639" s="2"/>
+      <c r="N639" s="2"/>
+    </row>
+    <row r="640" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H640" s="2"/>
+      <c r="N640" s="2"/>
+    </row>
+    <row r="641" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H641" s="2"/>
+      <c r="N641" s="2"/>
+    </row>
+    <row r="642" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H642" s="2"/>
+      <c r="N642" s="2"/>
+    </row>
+    <row r="643" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H643" s="2"/>
+      <c r="N643" s="2"/>
+    </row>
+    <row r="644" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H644" s="2"/>
+      <c r="N644" s="2"/>
+    </row>
+    <row r="645" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H645" s="2"/>
+      <c r="N645" s="2"/>
+    </row>
+    <row r="646" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H646" s="2"/>
+      <c r="N646" s="2"/>
+    </row>
+    <row r="647" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H647" s="2"/>
+      <c r="N647" s="2"/>
+    </row>
+    <row r="648" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H648" s="2"/>
+      <c r="N648" s="2"/>
+    </row>
+    <row r="649" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H649" s="2"/>
+      <c r="N649" s="2"/>
+    </row>
+    <row r="650" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H650" s="2"/>
+      <c r="N650" s="2"/>
+    </row>
+    <row r="651" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H651" s="2"/>
+      <c r="N651" s="2"/>
+    </row>
+    <row r="652" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H652" s="2"/>
+      <c r="N652" s="2"/>
+    </row>
+    <row r="653" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H653" s="2"/>
+      <c r="N653" s="2"/>
+    </row>
+    <row r="654" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H654" s="2"/>
+      <c r="N654" s="2"/>
+    </row>
+    <row r="655" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H655" s="2"/>
+      <c r="N655" s="2"/>
+    </row>
+    <row r="656" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H656" s="2"/>
+      <c r="N656" s="2"/>
+    </row>
+    <row r="657" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H657" s="2"/>
+      <c r="N657" s="2"/>
+    </row>
+    <row r="658" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H658" s="2"/>
+      <c r="N658" s="2"/>
+    </row>
+    <row r="659" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H659" s="2"/>
+      <c r="N659" s="2"/>
+    </row>
+    <row r="660" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H660" s="2"/>
+      <c r="N660" s="2"/>
+    </row>
+    <row r="661" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H661" s="2"/>
+      <c r="N661" s="2"/>
+    </row>
+    <row r="662" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H662" s="2"/>
+      <c r="N662" s="2"/>
+    </row>
+    <row r="663" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H663" s="2"/>
+      <c r="N663" s="2"/>
+    </row>
+    <row r="664" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H664" s="2"/>
+      <c r="N664" s="2"/>
+    </row>
+    <row r="665" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H665" s="2"/>
+      <c r="N665" s="2"/>
+    </row>
+    <row r="666" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H666" s="2"/>
+      <c r="N666" s="2"/>
+    </row>
+    <row r="667" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H667" s="2"/>
+      <c r="N667" s="2"/>
+    </row>
+    <row r="668" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H668" s="2"/>
+      <c r="N668" s="2"/>
+    </row>
+    <row r="669" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H669" s="2"/>
+      <c r="N669" s="2"/>
+    </row>
+    <row r="670" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H670" s="2"/>
+      <c r="N670" s="2"/>
+    </row>
+    <row r="671" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H671" s="2"/>
+      <c r="N671" s="2"/>
+    </row>
+    <row r="672" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H672" s="2"/>
+      <c r="N672" s="2"/>
+    </row>
+    <row r="673" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H673" s="2"/>
+      <c r="N673" s="2"/>
+    </row>
+    <row r="674" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H674" s="2"/>
+      <c r="N674" s="2"/>
+    </row>
+    <row r="675" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H675" s="2"/>
+      <c r="N675" s="2"/>
+    </row>
+    <row r="676" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H676" s="2"/>
+      <c r="N676" s="2"/>
+    </row>
+    <row r="677" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H677" s="2"/>
+      <c r="N677" s="2"/>
+    </row>
+    <row r="678" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H678" s="2"/>
+      <c r="N678" s="2"/>
+    </row>
+    <row r="679" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H679" s="2"/>
+      <c r="N679" s="2"/>
+    </row>
+    <row r="680" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H680" s="2"/>
+      <c r="N680" s="2"/>
+    </row>
+    <row r="681" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H681" s="2"/>
+      <c r="N681" s="2"/>
+    </row>
+    <row r="682" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H682" s="2"/>
+      <c r="N682" s="2"/>
+    </row>
+    <row r="683" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H683" s="2"/>
+      <c r="N683" s="2"/>
+    </row>
+    <row r="684" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H684" s="2"/>
+      <c r="N684" s="2"/>
+    </row>
+    <row r="685" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H685" s="2"/>
+      <c r="N685" s="2"/>
+    </row>
+    <row r="686" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H686" s="2"/>
+      <c r="N686" s="2"/>
+    </row>
+    <row r="687" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H687" s="2"/>
+      <c r="N687" s="2"/>
+    </row>
+    <row r="688" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H688" s="2"/>
+      <c r="N688" s="2"/>
+    </row>
+    <row r="689" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H689" s="2"/>
+      <c r="N689" s="2"/>
+    </row>
+    <row r="690" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H690" s="2"/>
+      <c r="N690" s="2"/>
+    </row>
+    <row r="691" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H691" s="2"/>
+      <c r="N691" s="2"/>
+    </row>
+    <row r="692" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H692" s="2"/>
+      <c r="N692" s="2"/>
+    </row>
+    <row r="693" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H693" s="2"/>
+      <c r="N693" s="2"/>
+    </row>
+    <row r="694" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H694" s="2"/>
+      <c r="N694" s="2"/>
+    </row>
+    <row r="695" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H695" s="2"/>
+      <c r="N695" s="2"/>
+    </row>
+    <row r="696" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H696" s="2"/>
+      <c r="N696" s="2"/>
+    </row>
+    <row r="697" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H697" s="2"/>
+      <c r="N697" s="2"/>
+    </row>
+    <row r="698" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H698" s="2"/>
+      <c r="N698" s="2"/>
+    </row>
+    <row r="699" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H699" s="2"/>
+      <c r="N699" s="2"/>
+    </row>
+    <row r="700" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H700" s="2"/>
+      <c r="N700" s="2"/>
+    </row>
+    <row r="701" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H701" s="2"/>
+      <c r="N701" s="2"/>
+    </row>
+    <row r="702" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H702" s="2"/>
+      <c r="N702" s="2"/>
+    </row>
+    <row r="703" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H703" s="2"/>
+      <c r="N703" s="2"/>
+    </row>
+    <row r="704" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H704" s="2"/>
+      <c r="N704" s="2"/>
+    </row>
+    <row r="705" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H705" s="2"/>
+      <c r="N705" s="2"/>
+    </row>
+    <row r="706" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H706" s="2"/>
+      <c r="N706" s="2"/>
+    </row>
+    <row r="707" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H707" s="2"/>
+      <c r="N707" s="2"/>
+    </row>
+    <row r="708" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H708" s="2"/>
+      <c r="N708" s="2"/>
+    </row>
+    <row r="709" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H709" s="2"/>
+      <c r="N709" s="2"/>
+    </row>
+    <row r="710" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H710" s="2"/>
+      <c r="N710" s="2"/>
+    </row>
+    <row r="711" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H711" s="2"/>
+      <c r="N711" s="2"/>
+    </row>
+    <row r="712" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H712" s="2"/>
+      <c r="N712" s="2"/>
+    </row>
+    <row r="713" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H713" s="2"/>
+      <c r="N713" s="2"/>
+    </row>
+    <row r="714" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H714" s="2"/>
+      <c r="N714" s="2"/>
+    </row>
+    <row r="715" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H715" s="2"/>
+      <c r="N715" s="2"/>
+    </row>
+    <row r="716" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H716" s="2"/>
+      <c r="N716" s="2"/>
+    </row>
+    <row r="717" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H717" s="2"/>
+      <c r="N717" s="2"/>
+    </row>
+    <row r="718" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H718" s="2"/>
+      <c r="N718" s="2"/>
+    </row>
+    <row r="719" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H719" s="2"/>
+      <c r="N719" s="2"/>
+    </row>
+    <row r="720" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H720" s="2"/>
+      <c r="N720" s="2"/>
+    </row>
+    <row r="721" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H721" s="2"/>
+      <c r="N721" s="2"/>
+    </row>
+    <row r="722" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H722" s="2"/>
+      <c r="N722" s="2"/>
+    </row>
+    <row r="723" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H723" s="2"/>
+      <c r="N723" s="2"/>
+    </row>
+    <row r="724" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H724" s="2"/>
+      <c r="N724" s="2"/>
+    </row>
+    <row r="725" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H725" s="2"/>
+      <c r="N725" s="2"/>
+    </row>
+    <row r="726" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H726" s="2"/>
+      <c r="N726" s="2"/>
+    </row>
+    <row r="727" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H727" s="2"/>
+      <c r="N727" s="2"/>
+    </row>
+    <row r="728" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H728" s="2"/>
+      <c r="N728" s="2"/>
+    </row>
+    <row r="729" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H729" s="2"/>
+      <c r="N729" s="2"/>
+    </row>
+    <row r="730" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H730" s="2"/>
+      <c r="N730" s="2"/>
+    </row>
+    <row r="731" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H731" s="2"/>
+      <c r="N731" s="2"/>
+    </row>
+    <row r="732" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H732" s="2"/>
+      <c r="N732" s="2"/>
+    </row>
+    <row r="733" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H733" s="2"/>
+      <c r="N733" s="2"/>
+    </row>
+    <row r="734" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H734" s="2"/>
+      <c r="N734" s="2"/>
+    </row>
+    <row r="735" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H735" s="2"/>
+      <c r="N735" s="2"/>
+    </row>
+    <row r="736" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H736" s="2"/>
+      <c r="N736" s="2"/>
+    </row>
+    <row r="737" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H737" s="2"/>
+      <c r="N737" s="2"/>
+    </row>
+    <row r="738" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H738" s="2"/>
+      <c r="N738" s="2"/>
+    </row>
+    <row r="739" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H739" s="2"/>
+      <c r="N739" s="2"/>
+    </row>
+    <row r="740" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H740" s="2"/>
+      <c r="N740" s="2"/>
+    </row>
+    <row r="741" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H741" s="2"/>
+      <c r="N741" s="2"/>
+    </row>
+    <row r="742" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H742" s="2"/>
+      <c r="N742" s="2"/>
+    </row>
+    <row r="743" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H743" s="2"/>
+      <c r="N743" s="2"/>
+    </row>
+    <row r="744" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H744" s="2"/>
+      <c r="N744" s="2"/>
+    </row>
+    <row r="745" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H745" s="2"/>
+      <c r="N745" s="2"/>
+    </row>
+    <row r="746" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H746" s="2"/>
+      <c r="N746" s="2"/>
+    </row>
+    <row r="747" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H747" s="2"/>
+      <c r="N747" s="2"/>
+    </row>
+    <row r="748" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H748" s="2"/>
+      <c r="N748" s="2"/>
+    </row>
+    <row r="749" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H749" s="2"/>
+      <c r="N749" s="2"/>
+    </row>
+    <row r="750" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H750" s="2"/>
+      <c r="N750" s="2"/>
+    </row>
+    <row r="751" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H751" s="2"/>
+      <c r="N751" s="2"/>
+    </row>
+    <row r="752" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H752" s="2"/>
+      <c r="N752" s="2"/>
+    </row>
+    <row r="753" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H753" s="2"/>
+      <c r="N753" s="2"/>
+    </row>
+    <row r="754" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H754" s="2"/>
+      <c r="N754" s="2"/>
+    </row>
+    <row r="755" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H755" s="2"/>
+      <c r="N755" s="2"/>
+    </row>
+    <row r="756" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H756" s="2"/>
+      <c r="N756" s="2"/>
+    </row>
+    <row r="757" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H757" s="2"/>
+      <c r="N757" s="2"/>
+    </row>
+    <row r="758" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H758" s="2"/>
+      <c r="N758" s="2"/>
+    </row>
+    <row r="759" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H759" s="2"/>
+      <c r="N759" s="2"/>
+    </row>
+    <row r="760" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H760" s="2"/>
+      <c r="N760" s="2"/>
+    </row>
+    <row r="761" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H761" s="2"/>
+      <c r="N761" s="2"/>
+    </row>
+    <row r="762" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H762" s="2"/>
+      <c r="N762" s="2"/>
+    </row>
+    <row r="763" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H763" s="2"/>
+      <c r="N763" s="2"/>
+    </row>
+    <row r="764" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H764" s="2"/>
+      <c r="N764" s="2"/>
+    </row>
+    <row r="765" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H765" s="2"/>
+      <c r="N765" s="2"/>
+    </row>
+    <row r="766" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H766" s="2"/>
+      <c r="N766" s="2"/>
+    </row>
+    <row r="767" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H767" s="2"/>
+      <c r="N767" s="2"/>
+    </row>
+    <row r="768" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H768" s="2"/>
+      <c r="N768" s="2"/>
+    </row>
+    <row r="769" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H769" s="2"/>
+      <c r="N769" s="2"/>
+    </row>
+    <row r="770" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H770" s="2"/>
+      <c r="N770" s="2"/>
+    </row>
+    <row r="771" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H771" s="2"/>
+      <c r="N771" s="2"/>
+    </row>
+    <row r="772" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H772" s="2"/>
+      <c r="N772" s="2"/>
+    </row>
+    <row r="773" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H773" s="2"/>
+      <c r="N773" s="2"/>
+    </row>
+    <row r="774" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H774" s="2"/>
+      <c r="N774" s="2"/>
+    </row>
+    <row r="775" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H775" s="2"/>
+      <c r="N775" s="2"/>
+    </row>
+    <row r="776" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H776" s="2"/>
+      <c r="N776" s="2"/>
+    </row>
+    <row r="777" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H777" s="2"/>
+      <c r="N777" s="2"/>
+    </row>
+    <row r="778" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H778" s="2"/>
+      <c r="N778" s="2"/>
+    </row>
+    <row r="779" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H779" s="2"/>
+      <c r="N779" s="2"/>
+    </row>
+    <row r="780" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H780" s="2"/>
+      <c r="N780" s="2"/>
+    </row>
+    <row r="781" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H781" s="2"/>
+      <c r="N781" s="2"/>
+    </row>
+    <row r="782" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H782" s="2"/>
+      <c r="N782" s="2"/>
+    </row>
+    <row r="783" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H783" s="2"/>
+      <c r="N783" s="2"/>
+    </row>
+    <row r="784" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H784" s="2"/>
+      <c r="N784" s="2"/>
+    </row>
+    <row r="785" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H785" s="2"/>
+      <c r="N785" s="2"/>
+    </row>
+    <row r="786" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H786" s="2"/>
+      <c r="N786" s="2"/>
+    </row>
+    <row r="787" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H787" s="2"/>
+      <c r="N787" s="2"/>
+    </row>
+    <row r="788" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H788" s="2"/>
+      <c r="N788" s="2"/>
+    </row>
+    <row r="789" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H789" s="2"/>
+      <c r="N789" s="2"/>
+    </row>
+    <row r="790" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H790" s="2"/>
+      <c r="N790" s="2"/>
+    </row>
+    <row r="791" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H791" s="2"/>
+      <c r="N791" s="2"/>
+    </row>
+    <row r="792" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H792" s="2"/>
+      <c r="N792" s="2"/>
+    </row>
+    <row r="793" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H793" s="2"/>
+      <c r="N793" s="2"/>
+    </row>
+    <row r="794" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H794" s="2"/>
+      <c r="N794" s="2"/>
+    </row>
+    <row r="795" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H795" s="2"/>
+      <c r="N795" s="2"/>
+    </row>
+    <row r="796" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H796" s="2"/>
+      <c r="N796" s="2"/>
+    </row>
+    <row r="797" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H797" s="2"/>
+      <c r="N797" s="2"/>
+    </row>
+    <row r="798" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H798" s="2"/>
+      <c r="N798" s="2"/>
+    </row>
+    <row r="799" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H799" s="2"/>
+      <c r="N799" s="2"/>
+    </row>
+    <row r="800" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H800" s="2"/>
+      <c r="N800" s="2"/>
+    </row>
+    <row r="801" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H801" s="2"/>
+      <c r="N801" s="2"/>
+    </row>
+    <row r="802" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H802" s="2"/>
+      <c r="N802" s="2"/>
+    </row>
+    <row r="803" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H803" s="2"/>
+      <c r="N803" s="2"/>
+    </row>
+    <row r="804" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H804" s="2"/>
+      <c r="N804" s="2"/>
+    </row>
+    <row r="805" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H805" s="2"/>
+      <c r="N805" s="2"/>
+    </row>
+    <row r="806" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H806" s="2"/>
+      <c r="N806" s="2"/>
+    </row>
+    <row r="807" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H807" s="2"/>
+      <c r="N807" s="2"/>
+    </row>
+    <row r="808" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H808" s="2"/>
+      <c r="N808" s="2"/>
+    </row>
+    <row r="809" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H809" s="2"/>
+      <c r="N809" s="2"/>
+    </row>
+    <row r="810" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H810" s="2"/>
+      <c r="N810" s="2"/>
+    </row>
+    <row r="811" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H811" s="2"/>
+      <c r="N811" s="2"/>
+    </row>
+    <row r="812" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H812" s="2"/>
+      <c r="N812" s="2"/>
+    </row>
+    <row r="813" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H813" s="2"/>
+      <c r="N813" s="2"/>
+    </row>
+    <row r="814" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H814" s="2"/>
+      <c r="N814" s="2"/>
+    </row>
+    <row r="815" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H815" s="2"/>
+      <c r="N815" s="2"/>
+    </row>
+    <row r="816" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H816" s="2"/>
+      <c r="N816" s="2"/>
+    </row>
+    <row r="817" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H817" s="2"/>
+      <c r="N817" s="2"/>
+    </row>
+    <row r="818" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H818" s="2"/>
+      <c r="N818" s="2"/>
+    </row>
+    <row r="819" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H819" s="2"/>
+      <c r="N819" s="2"/>
+    </row>
+    <row r="820" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H820" s="2"/>
+      <c r="N820" s="2"/>
+    </row>
+    <row r="821" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H821" s="2"/>
+      <c r="N821" s="2"/>
+    </row>
+    <row r="822" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H822" s="2"/>
+      <c r="N822" s="2"/>
+    </row>
+    <row r="823" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H823" s="2"/>
+      <c r="N823" s="2"/>
+    </row>
+    <row r="824" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H824" s="2"/>
+      <c r="N824" s="2"/>
+    </row>
+    <row r="825" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H825" s="2"/>
+      <c r="N825" s="2"/>
+    </row>
+    <row r="826" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H826" s="2"/>
+      <c r="N826" s="2"/>
+    </row>
+    <row r="827" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H827" s="2"/>
+      <c r="N827" s="2"/>
+    </row>
+    <row r="828" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H828" s="2"/>
+      <c r="N828" s="2"/>
+    </row>
+    <row r="829" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H829" s="2"/>
+      <c r="N829" s="2"/>
+    </row>
+    <row r="830" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H830" s="2"/>
+      <c r="N830" s="2"/>
+    </row>
+    <row r="831" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H831" s="2"/>
+      <c r="N831" s="2"/>
+    </row>
+    <row r="832" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H832" s="2"/>
+      <c r="N832" s="2"/>
+    </row>
+    <row r="833" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H833" s="2"/>
+      <c r="N833" s="2"/>
+    </row>
+    <row r="834" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H834" s="2"/>
+      <c r="N834" s="2"/>
+    </row>
+    <row r="835" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H835" s="2"/>
+      <c r="N835" s="2"/>
+    </row>
+    <row r="836" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H836" s="2"/>
+      <c r="N836" s="2"/>
+    </row>
+    <row r="837" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H837" s="2"/>
+      <c r="N837" s="2"/>
+    </row>
+    <row r="838" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H838" s="2"/>
+      <c r="N838" s="2"/>
+    </row>
+    <row r="839" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H839" s="2"/>
+      <c r="N839" s="2"/>
+    </row>
+    <row r="840" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H840" s="2"/>
+      <c r="N840" s="2"/>
+    </row>
+    <row r="841" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H841" s="2"/>
+      <c r="N841" s="2"/>
+    </row>
+    <row r="842" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H842" s="2"/>
+      <c r="N842" s="2"/>
+    </row>
+    <row r="843" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H843" s="2"/>
+      <c r="N843" s="2"/>
+    </row>
+    <row r="844" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H844" s="2"/>
+      <c r="N844" s="2"/>
+    </row>
+    <row r="845" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H845" s="2"/>
+      <c r="N845" s="2"/>
+    </row>
+    <row r="846" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H846" s="2"/>
+      <c r="N846" s="2"/>
+    </row>
+    <row r="847" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H847" s="2"/>
+      <c r="N847" s="2"/>
+    </row>
+    <row r="848" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H848" s="2"/>
+      <c r="N848" s="2"/>
+    </row>
+    <row r="849" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H849" s="2"/>
+      <c r="N849" s="2"/>
+    </row>
+    <row r="850" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H850" s="2"/>
+      <c r="N850" s="2"/>
+    </row>
+    <row r="851" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H851" s="2"/>
+      <c r="N851" s="2"/>
+    </row>
+    <row r="852" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H852" s="2"/>
+      <c r="N852" s="2"/>
+    </row>
+    <row r="853" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H853" s="2"/>
+      <c r="N853" s="2"/>
+    </row>
+    <row r="854" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H854" s="2"/>
+      <c r="N854" s="2"/>
+    </row>
+    <row r="855" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H855" s="2"/>
+      <c r="N855" s="2"/>
+    </row>
+    <row r="856" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H856" s="2"/>
+      <c r="N856" s="2"/>
+    </row>
+    <row r="857" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H857" s="2"/>
+      <c r="N857" s="2"/>
+    </row>
+    <row r="858" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H858" s="2"/>
+      <c r="N858" s="2"/>
+    </row>
+    <row r="859" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H859" s="2"/>
+      <c r="N859" s="2"/>
+    </row>
+    <row r="860" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H860" s="2"/>
+      <c r="N860" s="2"/>
+    </row>
+    <row r="861" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H861" s="2"/>
+      <c r="N861" s="2"/>
+    </row>
+    <row r="862" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H862" s="2"/>
+      <c r="N862" s="2"/>
+    </row>
+    <row r="863" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H863" s="2"/>
+      <c r="N863" s="2"/>
+    </row>
+    <row r="864" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H864" s="2"/>
+      <c r="N864" s="2"/>
+    </row>
+    <row r="865" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H865" s="2"/>
+      <c r="N865" s="2"/>
+    </row>
+    <row r="866" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H866" s="2"/>
+      <c r="N866" s="2"/>
+    </row>
+    <row r="867" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H867" s="2"/>
+      <c r="N867" s="2"/>
+    </row>
+    <row r="868" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H868" s="2"/>
+      <c r="N868" s="2"/>
+    </row>
+    <row r="869" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H869" s="2"/>
+      <c r="N869" s="2"/>
+    </row>
+    <row r="870" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H870" s="2"/>
+      <c r="N870" s="2"/>
+    </row>
+    <row r="871" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H871" s="2"/>
+      <c r="N871" s="2"/>
+    </row>
+    <row r="872" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H872" s="2"/>
+      <c r="N872" s="2"/>
+    </row>
+    <row r="873" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H873" s="2"/>
+      <c r="N873" s="2"/>
+    </row>
+    <row r="874" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H874" s="2"/>
+      <c r="N874" s="2"/>
+    </row>
+    <row r="875" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H875" s="2"/>
+      <c r="N875" s="2"/>
+    </row>
+    <row r="876" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H876" s="2"/>
+      <c r="N876" s="2"/>
+    </row>
+    <row r="877" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H877" s="2"/>
+      <c r="N877" s="2"/>
+    </row>
+    <row r="878" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H878" s="2"/>
+      <c r="N878" s="2"/>
+    </row>
+    <row r="879" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H879" s="2"/>
+      <c r="N879" s="2"/>
+    </row>
+    <row r="880" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H880" s="2"/>
+      <c r="N880" s="2"/>
+    </row>
+    <row r="881" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H881" s="2"/>
+      <c r="N881" s="2"/>
+    </row>
+    <row r="882" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H882" s="2"/>
+      <c r="N882" s="2"/>
+    </row>
+    <row r="883" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H883" s="2"/>
+      <c r="N883" s="2"/>
+    </row>
+    <row r="884" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H884" s="2"/>
+      <c r="N884" s="2"/>
+    </row>
+    <row r="885" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H885" s="2"/>
+      <c r="N885" s="2"/>
+    </row>
+    <row r="886" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H886" s="2"/>
+      <c r="N886" s="2"/>
+    </row>
+    <row r="887" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H887" s="2"/>
+      <c r="N887" s="2"/>
+    </row>
+    <row r="888" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H888" s="2"/>
+      <c r="N888" s="2"/>
+    </row>
+    <row r="889" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H889" s="2"/>
+      <c r="N889" s="2"/>
+    </row>
+    <row r="890" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H890" s="2"/>
+      <c r="N890" s="2"/>
+    </row>
+    <row r="891" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H891" s="2"/>
+      <c r="N891" s="2"/>
+    </row>
+    <row r="892" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H892" s="2"/>
+      <c r="N892" s="2"/>
+    </row>
+    <row r="893" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H893" s="2"/>
+      <c r="N893" s="2"/>
+    </row>
+    <row r="894" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H894" s="2"/>
+      <c r="N894" s="2"/>
+    </row>
+    <row r="895" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H895" s="2"/>
+      <c r="N895" s="2"/>
+    </row>
+    <row r="896" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H896" s="2"/>
+      <c r="N896" s="2"/>
+    </row>
+    <row r="897" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H897" s="2"/>
+      <c r="N897" s="2"/>
+    </row>
+    <row r="898" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H898" s="2"/>
+      <c r="N898" s="2"/>
+    </row>
+    <row r="899" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H899" s="2"/>
+      <c r="N899" s="2"/>
+    </row>
+    <row r="900" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H900" s="2"/>
+      <c r="N900" s="2"/>
+    </row>
+    <row r="901" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H901" s="2"/>
+      <c r="N901" s="2"/>
+    </row>
+    <row r="902" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H902" s="2"/>
+      <c r="N902" s="2"/>
+    </row>
+    <row r="903" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H903" s="2"/>
+      <c r="N903" s="2"/>
+    </row>
+    <row r="904" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H904" s="2"/>
+      <c r="N904" s="2"/>
+    </row>
+    <row r="905" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H905" s="2"/>
+      <c r="N905" s="2"/>
+    </row>
+    <row r="906" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H906" s="2"/>
+      <c r="N906" s="2"/>
+    </row>
+    <row r="907" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H907" s="2"/>
+      <c r="N907" s="2"/>
+    </row>
+    <row r="908" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H908" s="2"/>
+      <c r="N908" s="2"/>
+    </row>
+    <row r="909" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H909" s="2"/>
+      <c r="N909" s="2"/>
+    </row>
+    <row r="910" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H910" s="2"/>
+      <c r="N910" s="2"/>
+    </row>
+    <row r="911" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H911" s="2"/>
+      <c r="N911" s="2"/>
+    </row>
+    <row r="912" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H912" s="2"/>
+      <c r="N912" s="2"/>
+    </row>
+    <row r="913" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H913" s="2"/>
+      <c r="N913" s="2"/>
+    </row>
+    <row r="914" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H914" s="2"/>
+      <c r="N914" s="2"/>
+    </row>
+    <row r="915" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H915" s="2"/>
+      <c r="N915" s="2"/>
+    </row>
+    <row r="916" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H916" s="2"/>
+      <c r="N916" s="2"/>
+    </row>
+    <row r="917" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H917" s="2"/>
+      <c r="N917" s="2"/>
+    </row>
+    <row r="918" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H918" s="2"/>
+      <c r="N918" s="2"/>
+    </row>
+    <row r="919" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H919" s="2"/>
+      <c r="N919" s="2"/>
+    </row>
+    <row r="920" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H920" s="2"/>
+      <c r="N920" s="2"/>
+    </row>
+    <row r="921" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H921" s="2"/>
+      <c r="N921" s="2"/>
+    </row>
+    <row r="922" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H922" s="2"/>
+      <c r="N922" s="2"/>
+    </row>
+    <row r="923" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H923" s="2"/>
+      <c r="N923" s="2"/>
+    </row>
+    <row r="924" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H924" s="2"/>
+      <c r="N924" s="2"/>
+    </row>
+    <row r="925" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H925" s="2"/>
+      <c r="N925" s="2"/>
+    </row>
+    <row r="926" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H926" s="2"/>
+      <c r="N926" s="2"/>
+    </row>
+    <row r="927" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H927" s="2"/>
+      <c r="N927" s="2"/>
+    </row>
+    <row r="928" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H928" s="2"/>
+      <c r="N928" s="2"/>
+    </row>
+    <row r="929" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H929" s="2"/>
+      <c r="N929" s="2"/>
+    </row>
+    <row r="930" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H930" s="2"/>
+      <c r="N930" s="2"/>
+    </row>
+    <row r="931" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H931" s="2"/>
+      <c r="N931" s="2"/>
+    </row>
+    <row r="932" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H932" s="2"/>
+      <c r="N932" s="2"/>
+    </row>
+    <row r="933" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H933" s="2"/>
+      <c r="N933" s="2"/>
+    </row>
+    <row r="934" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H934" s="2"/>
+      <c r="N934" s="2"/>
+    </row>
+    <row r="935" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H935" s="2"/>
+      <c r="N935" s="2"/>
+    </row>
+    <row r="936" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H936" s="2"/>
+      <c r="N936" s="2"/>
+    </row>
+    <row r="937" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H937" s="2"/>
+      <c r="N937" s="2"/>
+    </row>
+    <row r="938" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H938" s="2"/>
+      <c r="N938" s="2"/>
+    </row>
+    <row r="939" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H939" s="2"/>
+      <c r="N939" s="2"/>
+    </row>
+    <row r="940" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H940" s="2"/>
+      <c r="N940" s="2"/>
+    </row>
+    <row r="941" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H941" s="2"/>
+      <c r="N941" s="2"/>
+    </row>
+    <row r="942" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H942" s="2"/>
+      <c r="N942" s="2"/>
+    </row>
+    <row r="943" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H943" s="2"/>
+      <c r="N943" s="2"/>
+    </row>
+    <row r="944" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H944" s="2"/>
+      <c r="N944" s="2"/>
+    </row>
+    <row r="945" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H945" s="2"/>
+      <c r="N945" s="2"/>
+    </row>
+    <row r="946" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H946" s="2"/>
+      <c r="N946" s="2"/>
+    </row>
+    <row r="947" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H947" s="2"/>
+      <c r="N947" s="2"/>
+    </row>
+    <row r="948" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H948" s="2"/>
+      <c r="N948" s="2"/>
+    </row>
+    <row r="949" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H949" s="2"/>
+      <c r="N949" s="2"/>
+    </row>
+    <row r="950" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H950" s="2"/>
+      <c r="N950" s="2"/>
+    </row>
+    <row r="951" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H951" s="2"/>
+      <c r="N951" s="2"/>
+    </row>
+    <row r="952" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H952" s="2"/>
+      <c r="N952" s="2"/>
+    </row>
+    <row r="953" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H953" s="2"/>
+      <c r="N953" s="2"/>
+    </row>
+    <row r="954" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H954" s="2"/>
+      <c r="N954" s="2"/>
+    </row>
+    <row r="955" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H955" s="2"/>
+      <c r="N955" s="2"/>
+    </row>
+    <row r="956" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H956" s="2"/>
+      <c r="N956" s="2"/>
+    </row>
+    <row r="957" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H957" s="2"/>
+      <c r="N957" s="2"/>
+    </row>
+    <row r="958" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H958" s="2"/>
+      <c r="N958" s="2"/>
+    </row>
+    <row r="959" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H959" s="2"/>
+      <c r="N959" s="2"/>
+    </row>
+    <row r="960" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H960" s="2"/>
+      <c r="N960" s="2"/>
+    </row>
+    <row r="961" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H961" s="2"/>
+      <c r="N961" s="2"/>
+    </row>
+    <row r="962" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H962" s="2"/>
+      <c r="N962" s="2"/>
+    </row>
+    <row r="963" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H963" s="2"/>
+      <c r="N963" s="2"/>
+    </row>
+    <row r="964" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H964" s="2"/>
+      <c r="N964" s="2"/>
+    </row>
+    <row r="965" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H965" s="2"/>
+      <c r="N965" s="2"/>
+    </row>
+    <row r="966" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H966" s="2"/>
+      <c r="N966" s="2"/>
+    </row>
+    <row r="967" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H967" s="2"/>
+      <c r="N967" s="2"/>
+    </row>
+    <row r="968" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H968" s="2"/>
+      <c r="N968" s="2"/>
+    </row>
+    <row r="969" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H969" s="2"/>
+      <c r="N969" s="2"/>
+    </row>
+    <row r="970" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H970" s="2"/>
+      <c r="N970" s="2"/>
+    </row>
+    <row r="971" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H971" s="2"/>
+      <c r="N971" s="2"/>
+    </row>
+    <row r="972" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H972" s="2"/>
+      <c r="N972" s="2"/>
+    </row>
+    <row r="973" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H973" s="2"/>
+      <c r="N973" s="2"/>
+    </row>
+    <row r="974" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H974" s="2"/>
+      <c r="N974" s="2"/>
+    </row>
+    <row r="975" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H975" s="2"/>
+      <c r="N975" s="2"/>
+    </row>
+    <row r="976" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H976" s="2"/>
+      <c r="N976" s="2"/>
+    </row>
+    <row r="977" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H977" s="2"/>
+      <c r="N977" s="2"/>
+    </row>
+    <row r="978" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H978" s="2"/>
+      <c r="N978" s="2"/>
+    </row>
+    <row r="979" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H979" s="2"/>
+      <c r="N979" s="2"/>
+    </row>
+    <row r="980" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H980" s="2"/>
+      <c r="N980" s="2"/>
+    </row>
+    <row r="981" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H981" s="2"/>
+      <c r="N981" s="2"/>
+    </row>
+    <row r="982" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H982" s="2"/>
+      <c r="N982" s="2"/>
+    </row>
+    <row r="983" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H983" s="2"/>
+      <c r="N983" s="2"/>
+    </row>
+    <row r="984" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H984" s="2"/>
+      <c r="N984" s="2"/>
+    </row>
+    <row r="985" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H985" s="2"/>
+      <c r="N985" s="2"/>
+    </row>
+    <row r="986" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H986" s="2"/>
+      <c r="N986" s="2"/>
+    </row>
+    <row r="987" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H987" s="2"/>
+      <c r="N987" s="2"/>
+    </row>
+    <row r="988" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H988" s="2"/>
+      <c r="N988" s="2"/>
+    </row>
+    <row r="989" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H989" s="2"/>
+      <c r="N989" s="2"/>
+    </row>
+    <row r="990" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H990" s="2"/>
+      <c r="N990" s="2"/>
+    </row>
+    <row r="991" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H991" s="2"/>
+      <c r="N991" s="2"/>
+    </row>
+    <row r="992" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H992" s="2"/>
+      <c r="N992" s="2"/>
+    </row>
+    <row r="993" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H993" s="2"/>
+      <c r="N993" s="2"/>
+    </row>
+    <row r="994" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H994" s="2"/>
+      <c r="N994" s="2"/>
+    </row>
+    <row r="995" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H995" s="2"/>
+      <c r="N995" s="2"/>
+    </row>
+    <row r="996" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H996" s="2"/>
+      <c r="N996" s="2"/>
+    </row>
+    <row r="997" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H997" s="2"/>
+      <c r="N997" s="2"/>
+    </row>
+    <row r="998" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H998" s="2"/>
+      <c r="N998" s="2"/>
+    </row>
+    <row r="999" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H999" s="2"/>
+      <c r="N999" s="2"/>
+    </row>
+    <row r="1000" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1000" s="2"/>
+      <c r="N1000" s="2"/>
+    </row>
+    <row r="1001" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1001" s="2"/>
+      <c r="N1001" s="2"/>
+    </row>
+    <row r="1002" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1002" s="2"/>
+      <c r="N1002" s="2"/>
+    </row>
+    <row r="1003" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1003" s="2"/>
+      <c r="N1003" s="2"/>
+    </row>
+    <row r="1004" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1004" s="2"/>
+      <c r="N1004" s="2"/>
+    </row>
+    <row r="1005" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1005" s="2"/>
+      <c r="N1005" s="2"/>
+    </row>
+    <row r="1006" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1006" s="2"/>
+      <c r="N1006" s="2"/>
+    </row>
+    <row r="1007" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1007" s="2"/>
+      <c r="N1007" s="2"/>
+    </row>
+    <row r="1008" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1008" s="2"/>
+      <c r="N1008" s="2"/>
+    </row>
+    <row r="1009" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1009" s="2"/>
+      <c r="N1009" s="2"/>
+    </row>
+    <row r="1010" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1010" s="2"/>
+      <c r="N1010" s="2"/>
+    </row>
+    <row r="1011" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1011" s="2"/>
+      <c r="N1011" s="2"/>
+    </row>
+    <row r="1012" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1012" s="2"/>
+      <c r="N1012" s="2"/>
+    </row>
+    <row r="1013" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1013" s="2"/>
+      <c r="N1013" s="2"/>
+    </row>
+    <row r="1014" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1014" s="2"/>
+      <c r="N1014" s="2"/>
+    </row>
+    <row r="1015" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1015" s="2"/>
+      <c r="N1015" s="2"/>
+    </row>
+    <row r="1016" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1016" s="2"/>
+      <c r="N1016" s="2"/>
+    </row>
+    <row r="1017" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1017" s="2"/>
+      <c r="N1017" s="2"/>
+    </row>
+    <row r="1018" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1018" s="2"/>
+      <c r="N1018" s="2"/>
+    </row>
+    <row r="1019" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1019" s="2"/>
+      <c r="N1019" s="2"/>
+    </row>
+    <row r="1020" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1020" s="2"/>
+      <c r="N1020" s="2"/>
+    </row>
+    <row r="1021" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1021" s="2"/>
+      <c r="N1021" s="2"/>
+    </row>
+    <row r="1022" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1022" s="2"/>
+      <c r="N1022" s="2"/>
+    </row>
+    <row r="1023" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1023" s="2"/>
+      <c r="N1023" s="2"/>
+    </row>
+    <row r="1024" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1024" s="2"/>
+      <c r="N1024" s="2"/>
+    </row>
+    <row r="1025" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1025" s="2"/>
+      <c r="N1025" s="2"/>
+    </row>
+    <row r="1026" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1026" s="2"/>
+      <c r="N1026" s="2"/>
+    </row>
+    <row r="1027" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1027" s="2"/>
+      <c r="N1027" s="2"/>
+    </row>
+    <row r="1028" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1028" s="2"/>
+      <c r="N1028" s="2"/>
+    </row>
+    <row r="1029" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1029" s="2"/>
+      <c r="N1029" s="2"/>
+    </row>
+    <row r="1030" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1030" s="2"/>
+      <c r="N1030" s="2"/>
+    </row>
+    <row r="1031" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1031" s="2"/>
+      <c r="N1031" s="2"/>
+    </row>
+    <row r="1032" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1032" s="2"/>
+      <c r="N1032" s="2"/>
+    </row>
+    <row r="1033" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1033" s="2"/>
+      <c r="N1033" s="2"/>
+    </row>
+    <row r="1034" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1034" s="2"/>
+      <c r="N1034" s="2"/>
+    </row>
+    <row r="1035" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1035" s="2"/>
+      <c r="N1035" s="2"/>
+    </row>
+    <row r="1036" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1036" s="2"/>
+      <c r="N1036" s="2"/>
+    </row>
+    <row r="1037" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1037" s="2"/>
+      <c r="N1037" s="2"/>
+    </row>
+    <row r="1038" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1038" s="2"/>
+      <c r="N1038" s="2"/>
+    </row>
+    <row r="1039" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1039" s="2"/>
+      <c r="N1039" s="2"/>
+    </row>
+    <row r="1040" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1040" s="2"/>
+      <c r="N1040" s="2"/>
+    </row>
+    <row r="1041" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1041" s="2"/>
+      <c r="N1041" s="2"/>
+    </row>
+    <row r="1042" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1042" s="2"/>
+      <c r="N1042" s="2"/>
+    </row>
+    <row r="1043" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1043" s="2"/>
+      <c r="N1043" s="2"/>
+    </row>
+    <row r="1044" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1044" s="2"/>
+      <c r="N1044" s="2"/>
+    </row>
+    <row r="1045" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1045" s="2"/>
+      <c r="N1045" s="2"/>
+    </row>
+    <row r="1046" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1046" s="2"/>
+      <c r="N1046" s="2"/>
+    </row>
+    <row r="1047" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1047" s="2"/>
+      <c r="N1047" s="2"/>
+    </row>
+    <row r="1048" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1048" s="2"/>
+      <c r="N1048" s="2"/>
+    </row>
+    <row r="1049" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1049" s="2"/>
+      <c r="N1049" s="2"/>
+    </row>
+    <row r="1050" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1050" s="2"/>
+      <c r="N1050" s="2"/>
+    </row>
+    <row r="1051" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1051" s="2"/>
+      <c r="N1051" s="2"/>
+    </row>
+    <row r="1052" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1052" s="2"/>
+      <c r="N1052" s="2"/>
+    </row>
+    <row r="1053" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1053" s="2"/>
+      <c r="N1053" s="2"/>
+    </row>
+    <row r="1054" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1054" s="2"/>
+      <c r="N1054" s="2"/>
+    </row>
+    <row r="1055" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1055" s="2"/>
+      <c r="N1055" s="2"/>
+    </row>
+    <row r="1056" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1056" s="2"/>
+      <c r="N1056" s="2"/>
+    </row>
+    <row r="1057" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1057" s="2"/>
+      <c r="N1057" s="2"/>
+    </row>
+    <row r="1058" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1058" s="2"/>
+      <c r="N1058" s="2"/>
+    </row>
+    <row r="1059" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1059" s="2"/>
+      <c r="N1059" s="2"/>
+    </row>
+    <row r="1060" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1060" s="2"/>
+      <c r="N1060" s="2"/>
+    </row>
+    <row r="1061" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1061" s="2"/>
+      <c r="N1061" s="2"/>
+    </row>
+    <row r="1062" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1062" s="2"/>
+      <c r="N1062" s="2"/>
+    </row>
+    <row r="1063" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1063" s="2"/>
+      <c r="N1063" s="2"/>
+    </row>
+    <row r="1064" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1064" s="2"/>
+      <c r="N1064" s="2"/>
+    </row>
+    <row r="1065" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1065" s="2"/>
+      <c r="N1065" s="2"/>
+    </row>
+    <row r="1066" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1066" s="2"/>
+      <c r="N1066" s="2"/>
+    </row>
+    <row r="1067" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1067" s="2"/>
+      <c r="N1067" s="2"/>
+    </row>
+    <row r="1068" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1068" s="2"/>
+      <c r="N1068" s="2"/>
+    </row>
+    <row r="1069" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1069" s="2"/>
+      <c r="N1069" s="2"/>
+    </row>
+    <row r="1070" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1070" s="2"/>
+      <c r="N1070" s="2"/>
+    </row>
+    <row r="1071" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1071" s="2"/>
+      <c r="N1071" s="2"/>
+    </row>
+    <row r="1072" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1072" s="2"/>
+      <c r="N1072" s="2"/>
+    </row>
+    <row r="1073" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1073" s="2"/>
+      <c r="N1073" s="2"/>
+    </row>
+    <row r="1074" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1074" s="2"/>
+      <c r="N1074" s="2"/>
+    </row>
+    <row r="1075" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1075" s="2"/>
+      <c r="N1075" s="2"/>
+    </row>
+    <row r="1076" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1076" s="2"/>
+      <c r="N1076" s="2"/>
+    </row>
+    <row r="1077" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1077" s="2"/>
+      <c r="N1077" s="2"/>
+    </row>
+    <row r="1078" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1078" s="2"/>
+      <c r="N1078" s="2"/>
+    </row>
+    <row r="1079" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1079" s="2"/>
+      <c r="N1079" s="2"/>
+    </row>
+    <row r="1080" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1080" s="2"/>
+      <c r="N1080" s="2"/>
+    </row>
+    <row r="1081" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1081" s="2"/>
+      <c r="N1081" s="2"/>
+    </row>
+    <row r="1082" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1082" s="2"/>
+      <c r="N1082" s="2"/>
+    </row>
+    <row r="1083" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1083" s="2"/>
+      <c r="N1083" s="2"/>
+    </row>
+    <row r="1084" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1084" s="2"/>
+      <c r="N1084" s="2"/>
+    </row>
+    <row r="1085" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1085" s="2"/>
+      <c r="N1085" s="2"/>
+    </row>
+    <row r="1086" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1086" s="2"/>
+      <c r="N1086" s="2"/>
+    </row>
+    <row r="1087" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1087" s="2"/>
+      <c r="N1087" s="2"/>
+    </row>
+    <row r="1088" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1088" s="2"/>
+      <c r="N1088" s="2"/>
+    </row>
+    <row r="1089" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1089" s="2"/>
+      <c r="N1089" s="2"/>
+    </row>
+    <row r="1090" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1090" s="2"/>
+      <c r="N1090" s="2"/>
+    </row>
+    <row r="1091" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1091" s="2"/>
+      <c r="N1091" s="2"/>
+    </row>
+    <row r="1092" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1092" s="2"/>
+      <c r="N1092" s="2"/>
+    </row>
+    <row r="1093" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1093" s="2"/>
+      <c r="N1093" s="2"/>
+    </row>
+    <row r="1094" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1094" s="2"/>
+      <c r="N1094" s="2"/>
+    </row>
+    <row r="1095" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1095" s="2"/>
+      <c r="N1095" s="2"/>
+    </row>
+    <row r="1096" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1096" s="2"/>
+      <c r="N1096" s="2"/>
+    </row>
+    <row r="1097" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1097" s="2"/>
+      <c r="N1097" s="2"/>
+    </row>
+    <row r="1098" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1098" s="2"/>
+      <c r="N1098" s="2"/>
+    </row>
+    <row r="1099" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1099" s="2"/>
+      <c r="N1099" s="2"/>
+    </row>
+    <row r="1100" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1100" s="2"/>
+      <c r="N1100" s="2"/>
+    </row>
+    <row r="1101" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1101" s="2"/>
+      <c r="N1101" s="2"/>
+    </row>
+    <row r="1102" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1102" s="2"/>
+      <c r="N1102" s="2"/>
+    </row>
+    <row r="1103" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1103" s="2"/>
+      <c r="N1103" s="2"/>
+    </row>
+    <row r="1104" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1104" s="2"/>
+      <c r="N1104" s="2"/>
+    </row>
+    <row r="1105" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1105" s="2"/>
+      <c r="N1105" s="2"/>
+    </row>
+    <row r="1106" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1106" s="2"/>
+      <c r="N1106" s="2"/>
+    </row>
+    <row r="1107" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1107" s="2"/>
+      <c r="N1107" s="2"/>
+    </row>
+    <row r="1108" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1108" s="2"/>
+      <c r="N1108" s="2"/>
+    </row>
+    <row r="1109" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1109" s="2"/>
+      <c r="N1109" s="2"/>
+    </row>
+    <row r="1110" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1110" s="2"/>
+      <c r="N1110" s="2"/>
+    </row>
+    <row r="1111" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1111" s="2"/>
+      <c r="N1111" s="2"/>
+    </row>
+    <row r="1112" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1112" s="2"/>
+      <c r="N1112" s="2"/>
+    </row>
+    <row r="1113" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1113" s="2"/>
+      <c r="N1113" s="2"/>
+    </row>
+    <row r="1114" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1114" s="2"/>
+      <c r="N1114" s="2"/>
+    </row>
+    <row r="1115" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1115" s="2"/>
+      <c r="N1115" s="2"/>
+    </row>
+    <row r="1116" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1116" s="2"/>
+      <c r="N1116" s="2"/>
+    </row>
+    <row r="1117" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1117" s="2"/>
+      <c r="N1117" s="2"/>
+    </row>
+    <row r="1118" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1118" s="2"/>
+      <c r="N1118" s="2"/>
+    </row>
+    <row r="1119" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1119" s="2"/>
+      <c r="N1119" s="2"/>
+    </row>
+    <row r="1120" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1120" s="2"/>
+      <c r="N1120" s="2"/>
+    </row>
+    <row r="1121" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1121" s="2"/>
+      <c r="N1121" s="2"/>
+    </row>
+    <row r="1122" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1122" s="2"/>
+      <c r="N1122" s="2"/>
+    </row>
+    <row r="1123" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1123" s="2"/>
+      <c r="N1123" s="2"/>
+    </row>
+    <row r="1124" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1124" s="2"/>
+      <c r="N1124" s="2"/>
+    </row>
+    <row r="1125" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1125" s="2"/>
+      <c r="N1125" s="2"/>
+    </row>
+    <row r="1126" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1126" s="2"/>
+      <c r="N1126" s="2"/>
+    </row>
+    <row r="1127" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1127" s="2"/>
+      <c r="N1127" s="2"/>
+    </row>
+    <row r="1128" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1128" s="2"/>
+      <c r="N1128" s="2"/>
+    </row>
+    <row r="1129" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1129" s="2"/>
+      <c r="N1129" s="2"/>
+    </row>
+    <row r="1130" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1130" s="2"/>
+      <c r="N1130" s="2"/>
+    </row>
+    <row r="1131" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1131" s="2"/>
+      <c r="N1131" s="2"/>
+    </row>
+    <row r="1132" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1132" s="2"/>
+      <c r="N1132" s="2"/>
+    </row>
+    <row r="1133" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1133" s="2"/>
+      <c r="N1133" s="2"/>
+    </row>
+    <row r="1134" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1134" s="2"/>
+      <c r="N1134" s="2"/>
+    </row>
+    <row r="1135" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1135" s="2"/>
+      <c r="N1135" s="2"/>
+    </row>
+    <row r="1136" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1136" s="2"/>
+      <c r="N1136" s="2"/>
+    </row>
+    <row r="1137" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1137" s="2"/>
+      <c r="N1137" s="2"/>
+    </row>
+    <row r="1138" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1138" s="2"/>
+      <c r="N1138" s="2"/>
+    </row>
+    <row r="1139" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1139" s="2"/>
+      <c r="N1139" s="2"/>
+    </row>
+    <row r="1140" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1140" s="2"/>
+      <c r="N1140" s="2"/>
+    </row>
+    <row r="1141" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1141" s="2"/>
+      <c r="N1141" s="2"/>
+    </row>
+    <row r="1142" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1142" s="2"/>
+      <c r="N1142" s="2"/>
+    </row>
+    <row r="1143" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1143" s="2"/>
+      <c r="N1143" s="2"/>
+    </row>
+    <row r="1144" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1144" s="2"/>
+      <c r="N1144" s="2"/>
+    </row>
+    <row r="1145" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1145" s="2"/>
+      <c r="N1145" s="2"/>
+    </row>
+    <row r="1146" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1146" s="2"/>
+      <c r="N1146" s="2"/>
+    </row>
+    <row r="1147" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1147" s="2"/>
+      <c r="N1147" s="2"/>
+    </row>
+    <row r="1148" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1148" s="2"/>
+      <c r="N1148" s="2"/>
+    </row>
+    <row r="1149" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1149" s="2"/>
+      <c r="N1149" s="2"/>
+    </row>
+    <row r="1150" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1150" s="2"/>
+      <c r="N1150" s="2"/>
+    </row>
+    <row r="1151" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1151" s="2"/>
+      <c r="N1151" s="2"/>
+    </row>
+    <row r="1152" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1152" s="2"/>
+      <c r="N1152" s="2"/>
+    </row>
+    <row r="1153" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1153" s="2"/>
+      <c r="N1153" s="2"/>
+    </row>
+    <row r="1154" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1154" s="2"/>
+      <c r="N1154" s="2"/>
+    </row>
+    <row r="1155" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1155" s="2"/>
+      <c r="N1155" s="2"/>
+    </row>
+    <row r="1156" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1156" s="2"/>
+      <c r="N1156" s="2"/>
+    </row>
+    <row r="1157" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1157" s="2"/>
+      <c r="N1157" s="2"/>
+    </row>
+    <row r="1158" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1158" s="2"/>
+      <c r="N1158" s="2"/>
+    </row>
+    <row r="1159" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1159" s="2"/>
+      <c r="N1159" s="2"/>
+    </row>
+    <row r="1160" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1160" s="2"/>
+      <c r="N1160" s="2"/>
+    </row>
+    <row r="1161" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1161" s="2"/>
+      <c r="N1161" s="2"/>
+    </row>
+    <row r="1162" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1162" s="2"/>
+      <c r="N1162" s="2"/>
+    </row>
+    <row r="1163" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1163" s="2"/>
+      <c r="N1163" s="2"/>
+    </row>
+    <row r="1164" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1164" s="2"/>
+      <c r="N1164" s="2"/>
+    </row>
+    <row r="1165" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1165" s="2"/>
+      <c r="N1165" s="2"/>
+    </row>
+    <row r="1166" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1166" s="2"/>
+      <c r="N1166" s="2"/>
+    </row>
+    <row r="1167" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1167" s="2"/>
+      <c r="N1167" s="2"/>
+    </row>
+    <row r="1168" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1168" s="2"/>
+      <c r="N1168" s="2"/>
+    </row>
+    <row r="1169" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1169" s="2"/>
+      <c r="N1169" s="2"/>
+    </row>
+    <row r="1170" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1170" s="2"/>
+      <c r="N1170" s="2"/>
+    </row>
+    <row r="1171" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1171" s="2"/>
+      <c r="N1171" s="2"/>
+    </row>
+    <row r="1172" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1172" s="2"/>
+      <c r="N1172" s="2"/>
+    </row>
+    <row r="1173" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1173" s="2"/>
+      <c r="N1173" s="2"/>
+    </row>
+    <row r="1174" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1174" s="2"/>
+      <c r="N1174" s="2"/>
+    </row>
+    <row r="1175" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1175" s="2"/>
+      <c r="N1175" s="2"/>
+    </row>
+    <row r="1176" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1176" s="2"/>
+      <c r="N1176" s="2"/>
+    </row>
+    <row r="1177" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1177" s="2"/>
+      <c r="N1177" s="2"/>
+    </row>
+    <row r="1178" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1178" s="2"/>
+      <c r="N1178" s="2"/>
+    </row>
+    <row r="1179" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1179" s="2"/>
+      <c r="N1179" s="2"/>
+    </row>
+    <row r="1180" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1180" s="2"/>
+      <c r="N1180" s="2"/>
+    </row>
+    <row r="1181" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1181" s="2"/>
+      <c r="N1181" s="2"/>
+    </row>
+    <row r="1182" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1182" s="2"/>
+      <c r="N1182" s="2"/>
+    </row>
+    <row r="1183" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1183" s="2"/>
+      <c r="N1183" s="2"/>
+    </row>
+    <row r="1184" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1184" s="2"/>
+      <c r="N1184" s="2"/>
+    </row>
+    <row r="1185" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1185" s="2"/>
+      <c r="N1185" s="2"/>
+    </row>
+    <row r="1186" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1186" s="2"/>
+      <c r="N1186" s="2"/>
+    </row>
+    <row r="1187" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1187" s="2"/>
+      <c r="N1187" s="2"/>
+    </row>
+    <row r="1188" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1188" s="2"/>
+      <c r="N1188" s="2"/>
+    </row>
+    <row r="1189" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1189" s="2"/>
+      <c r="N1189" s="2"/>
+    </row>
+    <row r="1190" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1190" s="2"/>
+      <c r="N1190" s="2"/>
+    </row>
+    <row r="1191" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1191" s="2"/>
+      <c r="N1191" s="2"/>
+    </row>
+    <row r="1192" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1192" s="2"/>
+      <c r="N1192" s="2"/>
+    </row>
+    <row r="1193" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1193" s="2"/>
+      <c r="N1193" s="2"/>
+    </row>
+    <row r="1194" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1194" s="2"/>
+      <c r="N1194" s="2"/>
+    </row>
+    <row r="1195" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1195" s="2"/>
+      <c r="N1195" s="2"/>
+    </row>
+    <row r="1196" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1196" s="2"/>
+      <c r="N1196" s="2"/>
+    </row>
+    <row r="1197" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1197" s="2"/>
+      <c r="N1197" s="2"/>
+    </row>
+    <row r="1198" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1198" s="2"/>
+      <c r="N1198" s="2"/>
+    </row>
+    <row r="1199" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1199" s="2"/>
+      <c r="N1199" s="2"/>
+    </row>
+    <row r="1200" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1200" s="2"/>
+      <c r="N1200" s="2"/>
+    </row>
+    <row r="1201" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1201" s="2"/>
+      <c r="N1201" s="2"/>
+    </row>
+    <row r="1202" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1202" s="2"/>
+      <c r="N1202" s="2"/>
+    </row>
+    <row r="1203" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1203" s="2"/>
+      <c r="N1203" s="2"/>
+    </row>
+    <row r="1204" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1204" s="2"/>
+      <c r="N1204" s="2"/>
+    </row>
+    <row r="1205" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1205" s="2"/>
+      <c r="N1205" s="2"/>
+    </row>
+    <row r="1206" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1206" s="2"/>
+      <c r="N1206" s="2"/>
+    </row>
+    <row r="1207" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1207" s="2"/>
+      <c r="N1207" s="2"/>
+    </row>
+    <row r="1208" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1208" s="2"/>
+      <c r="N1208" s="2"/>
+    </row>
+    <row r="1209" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1209" s="2"/>
+      <c r="N1209" s="2"/>
+    </row>
+    <row r="1210" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1210" s="2"/>
+      <c r="N1210" s="2"/>
+    </row>
+    <row r="1211" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1211" s="2"/>
+      <c r="N1211" s="2"/>
+    </row>
+    <row r="1212" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1212" s="2"/>
+      <c r="N1212" s="2"/>
+    </row>
+    <row r="1213" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1213" s="2"/>
+      <c r="N1213" s="2"/>
+    </row>
+    <row r="1214" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1214" s="2"/>
+      <c r="N1214" s="2"/>
+    </row>
+    <row r="1215" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1215" s="2"/>
+      <c r="N1215" s="2"/>
+    </row>
+    <row r="1216" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1216" s="2"/>
+      <c r="N1216" s="2"/>
+    </row>
+    <row r="1217" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1217" s="2"/>
+      <c r="N1217" s="2"/>
+    </row>
+    <row r="1218" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1218" s="2"/>
+      <c r="N1218" s="2"/>
+    </row>
+    <row r="1219" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1219" s="2"/>
+      <c r="N1219" s="2"/>
+    </row>
+    <row r="1220" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1220" s="2"/>
+      <c r="N1220" s="2"/>
+    </row>
+    <row r="1221" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1221" s="2"/>
+      <c r="N1221" s="2"/>
+    </row>
+    <row r="1222" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1222" s="2"/>
+      <c r="N1222" s="2"/>
+    </row>
+    <row r="1223" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1223" s="2"/>
+      <c r="N1223" s="2"/>
+    </row>
+    <row r="1224" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1224" s="2"/>
+      <c r="N1224" s="2"/>
+    </row>
+    <row r="1225" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1225" s="2"/>
+      <c r="N1225" s="2"/>
+    </row>
+    <row r="1226" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1226" s="2"/>
+      <c r="N1226" s="2"/>
+    </row>
+    <row r="1227" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1227" s="2"/>
+      <c r="N1227" s="2"/>
+    </row>
+    <row r="1228" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1228" s="2"/>
+      <c r="N1228" s="2"/>
+    </row>
+    <row r="1229" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1229" s="2"/>
+      <c r="N1229" s="2"/>
+    </row>
+    <row r="1230" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1230" s="2"/>
+      <c r="N1230" s="2"/>
+    </row>
+    <row r="1231" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1231" s="2"/>
+      <c r="N1231" s="2"/>
+    </row>
+    <row r="1232" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1232" s="2"/>
+      <c r="N1232" s="2"/>
+    </row>
+    <row r="1233" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1233" s="2"/>
+      <c r="N1233" s="2"/>
+    </row>
+    <row r="1234" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1234" s="2"/>
+      <c r="N1234" s="2"/>
+    </row>
+    <row r="1235" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1235" s="2"/>
+      <c r="N1235" s="2"/>
+    </row>
+    <row r="1236" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1236" s="2"/>
+      <c r="N1236" s="2"/>
+    </row>
+    <row r="1237" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1237" s="2"/>
+      <c r="N1237" s="2"/>
+    </row>
+    <row r="1238" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1238" s="2"/>
+      <c r="N1238" s="2"/>
+    </row>
+    <row r="1239" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1239" s="2"/>
+      <c r="N1239" s="2"/>
+    </row>
+    <row r="1240" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1240" s="2"/>
+      <c r="N1240" s="2"/>
+    </row>
+    <row r="1241" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1241" s="2"/>
+      <c r="N1241" s="2"/>
+    </row>
+    <row r="1242" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1242" s="2"/>
+      <c r="N1242" s="2"/>
+    </row>
+    <row r="1243" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1243" s="2"/>
+      <c r="N1243" s="2"/>
+    </row>
+    <row r="1244" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1244" s="2"/>
+      <c r="N1244" s="2"/>
+    </row>
+    <row r="1245" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1245" s="2"/>
+      <c r="N1245" s="2"/>
+    </row>
+    <row r="1246" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1246" s="2"/>
+      <c r="N1246" s="2"/>
+    </row>
+    <row r="1247" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1247" s="2"/>
+      <c r="N1247" s="2"/>
+    </row>
+    <row r="1248" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1248" s="2"/>
+      <c r="N1248" s="2"/>
+    </row>
+    <row r="1249" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1249" s="2"/>
+      <c r="N1249" s="2"/>
+    </row>
+    <row r="1250" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1250" s="2"/>
+      <c r="N1250" s="2"/>
+    </row>
+    <row r="1251" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1251" s="2"/>
+      <c r="N1251" s="2"/>
+    </row>
+    <row r="1252" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1252" s="2"/>
+      <c r="N1252" s="2"/>
+    </row>
+    <row r="1253" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1253" s="2"/>
+      <c r="N1253" s="2"/>
+    </row>
+    <row r="1254" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1254" s="2"/>
+      <c r="N1254" s="2"/>
+    </row>
+    <row r="1255" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1255" s="2"/>
+      <c r="N1255" s="2"/>
+    </row>
+    <row r="1256" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1256" s="2"/>
+      <c r="N1256" s="2"/>
+    </row>
+    <row r="1257" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1257" s="2"/>
+      <c r="N1257" s="2"/>
+    </row>
+    <row r="1258" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1258" s="2"/>
+      <c r="N1258" s="2"/>
+    </row>
+    <row r="1259" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1259" s="2"/>
+      <c r="N1259" s="2"/>
+    </row>
+    <row r="1260" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1260" s="2"/>
+      <c r="N1260" s="2"/>
+    </row>
+    <row r="1261" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1261" s="2"/>
+      <c r="N1261" s="2"/>
+    </row>
+    <row r="1262" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1262" s="2"/>
+      <c r="N1262" s="2"/>
+    </row>
+    <row r="1263" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1263" s="2"/>
+      <c r="N1263" s="2"/>
+    </row>
+    <row r="1264" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1264" s="2"/>
+      <c r="N1264" s="2"/>
+    </row>
+    <row r="1265" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1265" s="2"/>
+      <c r="N1265" s="2"/>
+    </row>
+    <row r="1266" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1266" s="2"/>
+      <c r="N1266" s="2"/>
+    </row>
+    <row r="1267" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1267" s="2"/>
+      <c r="N1267" s="2"/>
+    </row>
+    <row r="1268" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1268" s="2"/>
+      <c r="N1268" s="2"/>
+    </row>
+    <row r="1269" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1269" s="2"/>
+      <c r="N1269" s="2"/>
+    </row>
+    <row r="1270" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1270" s="2"/>
+      <c r="N1270" s="2"/>
+    </row>
+    <row r="1271" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1271" s="2"/>
+      <c r="N1271" s="2"/>
+    </row>
+    <row r="1272" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1272" s="2"/>
+      <c r="N1272" s="2"/>
+    </row>
+    <row r="1273" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1273" s="2"/>
+      <c r="N1273" s="2"/>
+    </row>
+    <row r="1274" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1274" s="2"/>
+      <c r="N1274" s="2"/>
+    </row>
+    <row r="1275" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1275" s="2"/>
+      <c r="N1275" s="2"/>
+    </row>
+    <row r="1276" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1276" s="2"/>
+      <c r="N1276" s="2"/>
+    </row>
+    <row r="1277" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1277" s="2"/>
+      <c r="N1277" s="2"/>
+    </row>
+    <row r="1278" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1278" s="2"/>
+      <c r="N1278" s="2"/>
+    </row>
+    <row r="1279" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1279" s="2"/>
+      <c r="N1279" s="2"/>
+    </row>
+    <row r="1280" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1280" s="2"/>
+      <c r="N1280" s="2"/>
+    </row>
+    <row r="1281" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1281" s="2"/>
+      <c r="N1281" s="2"/>
+    </row>
+    <row r="1282" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1282" s="2"/>
+      <c r="N1282" s="2"/>
+    </row>
+    <row r="1283" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1283" s="2"/>
+      <c r="N1283" s="2"/>
+    </row>
+    <row r="1284" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1284" s="2"/>
+      <c r="N1284" s="2"/>
+    </row>
+    <row r="1285" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1285" s="2"/>
+      <c r="N1285" s="2"/>
+    </row>
+    <row r="1286" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1286" s="2"/>
+      <c r="N1286" s="2"/>
+    </row>
+    <row r="1287" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1287" s="2"/>
+      <c r="N1287" s="2"/>
+    </row>
+    <row r="1288" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1288" s="2"/>
+      <c r="N1288" s="2"/>
+    </row>
+    <row r="1289" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1289" s="2"/>
+      <c r="N1289" s="2"/>
+    </row>
+    <row r="1290" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1290" s="2"/>
+      <c r="N1290" s="2"/>
+    </row>
+    <row r="1291" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1291" s="2"/>
+      <c r="N1291" s="2"/>
+    </row>
+    <row r="1292" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1292" s="2"/>
+      <c r="N1292" s="2"/>
+    </row>
+    <row r="1293" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1293" s="2"/>
+      <c r="N1293" s="2"/>
+    </row>
+    <row r="1294" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1294" s="2"/>
+      <c r="N1294" s="2"/>
+    </row>
+    <row r="1295" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1295" s="2"/>
+      <c r="N1295" s="2"/>
+    </row>
+    <row r="1296" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1296" s="2"/>
+      <c r="N1296" s="2"/>
+    </row>
+    <row r="1297" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1297" s="2"/>
+      <c r="N1297" s="2"/>
+    </row>
+    <row r="1298" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1298" s="2"/>
+      <c r="N1298" s="2"/>
+    </row>
+    <row r="1299" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1299" s="2"/>
+      <c r="N1299" s="2"/>
+    </row>
+    <row r="1300" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1300" s="2"/>
+      <c r="N1300" s="2"/>
+    </row>
+    <row r="1301" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1301" s="2"/>
+      <c r="N1301" s="2"/>
+    </row>
+    <row r="1302" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1302" s="2"/>
+      <c r="N1302" s="2"/>
+    </row>
+    <row r="1303" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1303" s="2"/>
+      <c r="N1303" s="2"/>
+    </row>
+    <row r="1304" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1304" s="2"/>
+      <c r="N1304" s="2"/>
+    </row>
+    <row r="1305" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1305" s="2"/>
+      <c r="N1305" s="2"/>
+    </row>
+    <row r="1306" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1306" s="2"/>
+      <c r="N1306" s="2"/>
+    </row>
+    <row r="1307" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1307" s="2"/>
+      <c r="N1307" s="2"/>
+    </row>
+    <row r="1308" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1308" s="2"/>
+      <c r="N1308" s="2"/>
+    </row>
+    <row r="1309" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1309" s="2"/>
+      <c r="N1309" s="2"/>
+    </row>
+    <row r="1310" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="N1310" s="2"/>
+    </row>
+    <row r="1311" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="N1311" s="2"/>
+    </row>
+    <row r="1312" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="N1312" s="2"/>
+    </row>
+    <row r="1313" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1313" s="2"/>
+    </row>
+    <row r="1314" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1314" s="2"/>
+    </row>
+    <row r="1315" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1315" s="2"/>
+    </row>
+    <row r="1316" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1316" s="2"/>
+    </row>
+    <row r="1317" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1317" s="2"/>
+    </row>
+    <row r="1318" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1318" s="2"/>
+    </row>
+    <row r="1319" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1319" s="2"/>
+    </row>
+    <row r="1320" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1320" s="2"/>
+    </row>
+    <row r="1321" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1321" s="2"/>
+    </row>
+    <row r="1322" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1322" s="2"/>
+    </row>
+    <row r="1323" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1323" s="2"/>
+    </row>
+    <row r="1324" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1324" s="2"/>
+    </row>
+    <row r="1325" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1325" s="2"/>
+    </row>
+    <row r="1326" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1326" s="2"/>
+    </row>
+    <row r="1327" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1327" s="2"/>
+    </row>
+    <row r="1328" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1328" s="2"/>
+    </row>
+    <row r="1329" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1329" s="2"/>
+    </row>
+    <row r="1330" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1330" s="2"/>
+    </row>
+    <row r="1331" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1331" s="2"/>
+    </row>
+    <row r="1332" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1332" s="2"/>
+    </row>
+    <row r="1333" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1333" s="2"/>
+    </row>
+    <row r="1334" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1334" s="2"/>
+    </row>
+    <row r="1335" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1335" s="2"/>
+    </row>
+    <row r="1336" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1336" s="2"/>
+    </row>
+    <row r="1337" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1337" s="2"/>
+    </row>
+    <row r="1338" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1338" s="2"/>
+    </row>
+    <row r="1339" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1339" s="2"/>
+    </row>
+    <row r="1340" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1340" s="2"/>
+    </row>
+    <row r="1341" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1341" s="2"/>
+    </row>
+    <row r="1342" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1342" s="2"/>
+    </row>
+    <row r="1343" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1343" s="2"/>
+    </row>
+    <row r="1344" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1344" s="2"/>
+    </row>
+    <row r="1345" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1345" s="2"/>
+    </row>
+    <row r="1346" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1346" s="2"/>
+    </row>
+    <row r="1347" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1347" s="2"/>
+    </row>
+    <row r="1348" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1348" s="2"/>
+    </row>
+    <row r="1349" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1349" s="2"/>
+    </row>
+    <row r="1350" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1350" s="2"/>
+    </row>
+    <row r="1351" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1351" s="2"/>
+    </row>
+    <row r="1352" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1352" s="2"/>
+    </row>
+    <row r="1353" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1353" s="2"/>
+    </row>
+    <row r="1354" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1354" s="2"/>
+    </row>
+    <row r="1355" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1355" s="2"/>
+    </row>
+    <row r="1356" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1356" s="2"/>
+    </row>
+    <row r="1357" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1357" s="2"/>
+    </row>
+    <row r="1358" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1358" s="2"/>
+    </row>
+    <row r="1359" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1359" s="2"/>
+    </row>
+    <row r="1360" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1360" s="2"/>
+    </row>
+    <row r="1361" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1361" s="2"/>
+    </row>
+    <row r="1362" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1362" s="2"/>
+    </row>
+    <row r="1363" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1363" s="2"/>
+    </row>
+    <row r="1364" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1364" s="2"/>
+    </row>
+    <row r="1365" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1365" s="2"/>
+    </row>
+    <row r="1366" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1366" s="2"/>
+    </row>
+    <row r="1367" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1367" s="2"/>
+    </row>
+    <row r="1368" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1368" s="2"/>
+    </row>
+    <row r="1369" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1369" s="2"/>
+    </row>
+    <row r="1370" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1370" s="2"/>
+    </row>
+    <row r="1371" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1371" s="2"/>
+    </row>
+    <row r="1372" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1372" s="2"/>
+    </row>
+    <row r="1373" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1373" s="2"/>
+    </row>
+    <row r="1374" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1374" s="2"/>
+    </row>
+    <row r="1375" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1375" s="2"/>
+    </row>
+    <row r="1376" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1376" s="2"/>
+    </row>
+    <row r="1377" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1377" s="2"/>
+    </row>
+    <row r="1378" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1378" s="2"/>
+    </row>
+    <row r="1379" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1379" s="2"/>
+    </row>
+    <row r="1380" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1380" s="2"/>
+    </row>
+    <row r="1381" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1381" s="2"/>
+    </row>
+    <row r="1382" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1382" s="2"/>
+    </row>
+    <row r="1383" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1383" s="2"/>
+    </row>
+    <row r="1384" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1384" s="2"/>
+    </row>
+    <row r="1385" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1385" s="2"/>
+    </row>
+    <row r="1386" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1386" s="2"/>
+    </row>
+    <row r="1387" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1387" s="2"/>
+    </row>
+    <row r="1388" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1388" s="2"/>
+    </row>
+    <row r="1389" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1389" s="2"/>
+    </row>
+    <row r="1390" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1390" s="2"/>
+    </row>
+    <row r="1391" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1391" s="2"/>
+    </row>
+    <row r="1392" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1392" s="2"/>
+    </row>
+    <row r="1393" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1393" s="2"/>
+    </row>
+    <row r="1394" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1394" s="2"/>
+    </row>
+    <row r="1395" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1395" s="2"/>
+    </row>
+    <row r="1396" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1396" s="2"/>
+    </row>
+    <row r="1397" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1397" s="2"/>
+    </row>
+    <row r="1398" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1398" s="2"/>
+    </row>
+    <row r="1399" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1399" s="2"/>
+    </row>
+    <row r="1400" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1400" s="2"/>
+    </row>
+    <row r="1401" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1401" s="2"/>
+    </row>
+    <row r="1402" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1402" s="2"/>
+    </row>
+    <row r="1403" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1403" s="2"/>
+    </row>
+    <row r="1404" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1404" s="2"/>
+    </row>
+    <row r="1405" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1405" s="2"/>
+    </row>
+    <row r="1406" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1406" s="2"/>
+    </row>
+    <row r="1407" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1407" s="2"/>
+    </row>
+    <row r="1408" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1408" s="2"/>
+    </row>
+    <row r="1409" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1409" s="2"/>
+    </row>
+    <row r="1410" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1410" s="2"/>
+    </row>
+    <row r="1411" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1411" s="2"/>
+    </row>
+    <row r="1412" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1412" s="2"/>
+    </row>
+    <row r="1413" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1413" s="2"/>
+    </row>
+    <row r="1414" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1414" s="2"/>
+    </row>
+    <row r="1415" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1415" s="2"/>
+    </row>
+    <row r="1416" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1416" s="2"/>
+    </row>
+    <row r="1417" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1417" s="2"/>
+    </row>
+    <row r="1418" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1418" s="2"/>
+    </row>
+    <row r="1419" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1419" s="2"/>
+    </row>
+    <row r="1420" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1420" s="2"/>
+    </row>
+    <row r="1421" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1421" s="2"/>
+    </row>
+    <row r="1422" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1422" s="2"/>
+    </row>
+    <row r="1423" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1423" s="2"/>
+    </row>
+    <row r="1424" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1424" s="2"/>
+    </row>
+    <row r="1425" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1425" s="2"/>
+    </row>
+    <row r="1426" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1426" s="2"/>
+    </row>
+    <row r="1427" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1427" s="2"/>
+    </row>
+    <row r="1428" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1428" s="2"/>
+    </row>
+    <row r="1429" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1429" s="2"/>
+    </row>
+    <row r="1430" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1430" s="2"/>
+    </row>
+    <row r="1431" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1431" s="2"/>
+    </row>
+    <row r="1432" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1432" s="2"/>
+    </row>
+    <row r="1433" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1433" s="2"/>
+    </row>
+    <row r="1434" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1434" s="2"/>
+    </row>
+    <row r="1435" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1435" s="2"/>
+    </row>
+    <row r="1436" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1436" s="2"/>
+    </row>
+    <row r="1437" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1437" s="2"/>
+    </row>
+    <row r="1438" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1438" s="2"/>
+    </row>
+    <row r="1439" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1439" s="2"/>
+    </row>
+    <row r="1440" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1440" s="2"/>
+    </row>
+    <row r="1441" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1441" s="2"/>
+    </row>
+    <row r="1442" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1442" s="2"/>
+    </row>
+    <row r="1443" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1443" s="2"/>
+    </row>
+    <row r="1444" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1444" s="2"/>
+    </row>
+    <row r="1445" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1445" s="2"/>
+    </row>
+    <row r="1446" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1446" s="2"/>
+    </row>
+    <row r="1447" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1447" s="2"/>
+    </row>
+    <row r="1448" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1448" s="2"/>
+    </row>
+    <row r="1449" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1449" s="2"/>
+    </row>
+    <row r="1450" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1450" s="2"/>
+    </row>
+    <row r="1451" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1451" s="2"/>
+    </row>
+    <row r="1452" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1452" s="2"/>
+    </row>
+    <row r="1453" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1453" s="2"/>
+    </row>
+    <row r="1454" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1454" s="2"/>
+    </row>
+    <row r="1455" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1455" s="2"/>
+    </row>
+    <row r="1456" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1456" s="2"/>
+    </row>
+    <row r="1457" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1457" s="2"/>
+    </row>
+    <row r="1458" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1458" s="2"/>
+    </row>
+    <row r="1459" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1459" s="2"/>
+    </row>
+    <row r="1460" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1460" s="2"/>
+    </row>
+    <row r="1461" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1461" s="2"/>
+    </row>
+    <row r="1462" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1462" s="2"/>
+    </row>
+    <row r="1463" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1463" s="2"/>
+    </row>
+    <row r="1464" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1464" s="2"/>
+    </row>
+    <row r="1465" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1465" s="2"/>
+    </row>
+    <row r="1466" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1466" s="2"/>
+    </row>
+    <row r="1467" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1467" s="2"/>
+    </row>
+    <row r="1468" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1468" s="2"/>
+    </row>
+    <row r="1469" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1469" s="2"/>
+    </row>
+    <row r="1470" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1470" s="2"/>
+    </row>
+    <row r="1471" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1471" s="2"/>
+    </row>
+    <row r="1472" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1472" s="2"/>
+    </row>
+    <row r="1473" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1473" s="2"/>
+    </row>
+    <row r="1474" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1474" s="2"/>
+    </row>
+    <row r="1475" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1475" s="2"/>
+    </row>
+    <row r="1476" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1476" s="2"/>
+    </row>
+    <row r="1477" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1477" s="2"/>
+    </row>
+    <row r="1478" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1478" s="2"/>
+    </row>
+    <row r="1479" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1479" s="2"/>
+    </row>
+    <row r="1480" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1480" s="2"/>
+    </row>
+    <row r="1481" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1481" s="2"/>
+    </row>
+    <row r="1482" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1482" s="2"/>
+    </row>
+    <row r="1483" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1483" s="2"/>
+    </row>
+    <row r="1484" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1484" s="2"/>
+    </row>
+    <row r="1485" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1485" s="2"/>
+    </row>
+    <row r="1486" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1486" s="2"/>
+    </row>
+    <row r="1487" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1487" s="2"/>
+    </row>
+    <row r="1488" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1488" s="2"/>
+    </row>
+    <row r="1489" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1489" s="2"/>
+    </row>
+    <row r="1490" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1490" s="2"/>
+    </row>
+    <row r="1491" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1491" s="2"/>
+    </row>
+    <row r="1492" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1492" s="2"/>
+    </row>
+    <row r="1493" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1493" s="2"/>
+    </row>
+    <row r="1494" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1494" s="2"/>
+    </row>
+    <row r="1495" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1495" s="2"/>
+    </row>
+    <row r="1496" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1496" s="2"/>
+    </row>
+    <row r="1497" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1497" s="2"/>
+    </row>
+    <row r="1498" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1498" s="2"/>
+    </row>
+    <row r="1499" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1499" s="2"/>
+    </row>
+    <row r="1500" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1500" s="2"/>
+    </row>
+    <row r="1501" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1501" s="2"/>
+    </row>
+    <row r="1502" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1502" s="2"/>
+    </row>
+    <row r="1503" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1503" s="2"/>
+    </row>
+    <row r="1504" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1504" s="2"/>
+    </row>
+    <row r="1505" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1505" s="2"/>
+    </row>
+    <row r="1506" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1506" s="2"/>
+    </row>
+    <row r="1507" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1507" s="2"/>
+    </row>
+    <row r="1508" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1508" s="2"/>
+    </row>
+    <row r="1509" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1509" s="2"/>
+    </row>
+    <row r="1510" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1510" s="2"/>
+    </row>
+    <row r="1511" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1511" s="2"/>
+    </row>
+    <row r="1512" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1512" s="2"/>
+    </row>
+    <row r="1513" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1513" s="2"/>
+    </row>
+    <row r="1514" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1514" s="2"/>
+    </row>
+    <row r="1515" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1515" s="2"/>
+    </row>
+    <row r="1516" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1516" s="2"/>
+    </row>
+    <row r="1517" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1517" s="2"/>
+    </row>
+    <row r="1518" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1518" s="2"/>
+    </row>
+    <row r="1519" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1519" s="2"/>
+    </row>
+    <row r="1520" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1520" s="2"/>
+    </row>
+    <row r="1521" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1521" s="2"/>
+    </row>
+    <row r="1522" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1522" s="2"/>
+    </row>
+    <row r="1523" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1523" s="2"/>
+    </row>
+    <row r="1524" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1524" s="2"/>
+    </row>
+    <row r="1525" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1525" s="2"/>
+    </row>
+    <row r="1526" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1526" s="2"/>
+    </row>
+    <row r="1527" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1527" s="2"/>
+    </row>
+    <row r="1528" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1528" s="2"/>
+    </row>
+    <row r="1529" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1529" s="2"/>
+    </row>
+    <row r="1530" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1530" s="2"/>
+    </row>
+    <row r="1531" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1531" s="2"/>
+    </row>
+    <row r="1532" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1532" s="2"/>
+    </row>
+    <row r="1533" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1533" s="2"/>
+    </row>
+    <row r="1534" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1534" s="2"/>
+    </row>
+    <row r="1535" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1535" s="2"/>
+    </row>
+    <row r="1536" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1536" s="2"/>
+    </row>
+    <row r="1537" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1537" s="2"/>
+    </row>
+    <row r="1538" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1538" s="2"/>
+    </row>
+    <row r="1539" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1539" s="2"/>
+    </row>
+    <row r="1540" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1540" s="2"/>
+    </row>
+    <row r="1541" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1541" s="2"/>
+    </row>
+    <row r="1542" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1542" s="2"/>
+    </row>
+    <row r="1543" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1543" s="2"/>
+    </row>
+    <row r="1544" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1544" s="2"/>
+    </row>
+    <row r="1545" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1545" s="2"/>
+    </row>
+    <row r="1546" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1546" s="2"/>
+    </row>
+    <row r="1547" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1547" s="2"/>
+    </row>
+    <row r="1548" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1548" s="2"/>
+    </row>
+    <row r="1549" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1549" s="2"/>
+    </row>
+    <row r="1550" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1550" s="2"/>
+    </row>
+    <row r="1551" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1551" s="2"/>
+    </row>
+    <row r="1552" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1552" s="2"/>
+    </row>
+    <row r="1553" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1553" s="2"/>
+    </row>
+    <row r="1554" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1554" s="2"/>
+    </row>
+    <row r="1555" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1555" s="2"/>
+    </row>
+    <row r="1556" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1556" s="2"/>
+    </row>
+    <row r="1557" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1557" s="2"/>
+    </row>
+    <row r="1558" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1558" s="2"/>
+    </row>
+    <row r="1559" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1559" s="2"/>
+    </row>
+    <row r="1560" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1560" s="2"/>
+    </row>
+    <row r="1561" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1561" s="2"/>
+    </row>
+    <row r="1562" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1562" s="2"/>
+    </row>
+    <row r="1563" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1563" s="2"/>
+    </row>
+    <row r="1564" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1564" s="2"/>
+    </row>
+    <row r="1565" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1565" s="2"/>
+    </row>
+    <row r="1566" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1566" s="2"/>
+    </row>
+    <row r="1567" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1567" s="2"/>
+    </row>
+    <row r="1568" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1568" s="2"/>
+    </row>
+    <row r="1569" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1569" s="2"/>
+    </row>
+    <row r="1570" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1570" s="2"/>
+    </row>
+    <row r="1571" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1571" s="2"/>
+    </row>
+    <row r="1572" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1572" s="2"/>
+    </row>
+    <row r="1573" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1573" s="2"/>
+    </row>
+    <row r="1574" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1574" s="2"/>
+    </row>
+    <row r="1575" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1575" s="2"/>
+    </row>
+    <row r="1576" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1576" s="2"/>
+    </row>
+    <row r="1577" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1577" s="2"/>
+    </row>
+    <row r="1578" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1578" s="2"/>
+    </row>
+    <row r="1579" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1579" s="2"/>
+    </row>
+    <row r="1580" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1580" s="2"/>
+    </row>
+    <row r="1581" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1581" s="2"/>
+    </row>
+    <row r="1582" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1582" s="2"/>
+    </row>
+    <row r="1583" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1583" s="2"/>
+    </row>
+    <row r="1584" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1584" s="2"/>
+    </row>
+    <row r="1585" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1585" s="2"/>
+    </row>
+    <row r="1586" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1586" s="2"/>
+    </row>
+    <row r="1587" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1587" s="2"/>
+    </row>
+    <row r="1588" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1588" s="2"/>
+    </row>
+    <row r="1589" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1589" s="2"/>
+    </row>
   </sheetData>
+  <dataValidations count="13">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="יש להזין תעודת זהות בעלת 9 ספרות_x000a_" sqref="A2:A1048576" xr:uid="{D7E8ABDF-3732-4219-88AE-624E4E2608EC}">
+      <formula1>9</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בדוק את התאריך שהוזן_x000a_יש להזין בפורמט הבא - _x000a_ 01/01/1999" sqref="E2:E1048576" xr:uid="{590813BC-8088-4D58-9FCA-4768DDF4EDB1}">
+      <formula1>36161</formula1>
+      <formula2>54789</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בחר מהרשימה_x000a_M עבור זכר _x000a_F עבור נקבה" sqref="F2:F1048576" xr:uid="{70E312DB-D5C5-4CA3-BA8C-F66A5433E60E}">
+      <formula1>"F,M"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אורך השם הפרטי להכיל עד 30 תווים_x000a_" sqref="B2:B1048576" xr:uid="{DAB47EE6-F234-4AE3-B6E2-22B3EC037E95}">
+      <formula1>30</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אורך שם המשפחה יכול להכיל עד 30 תווים" sqref="C2:C1048576" xr:uid="{2EB2D392-AA58-4096-972D-4550A39868E0}">
+      <formula1>30</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אורך הכתובת יכול להכיל עד 50 תווים" sqref="G2:G1048576" xr:uid="{CF58594B-88C5-413A-9600-55C707C8E36B}">
+      <formula1>50</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא הזן מספר פלאפון תקין בעל 10 ספרות_x000a_לדוגמא 0501234567" sqref="N2:N1048576 H2:H1048576" xr:uid="{F32E1898-4F12-4E37-A891-0FDE324E4C51}">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בחר מהרשימה לקות מהרשימה_x000a_" sqref="J2:J1048576" xr:uid="{B5E6D0C6-003D-4CC5-8870-000E988AF47F}">
+      <formula1>"51,54,55,56,57,58,59,60,61,62,63,64,98"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בחר לקות מהרשימה" sqref="K2:K1048576" xr:uid="{223C43DA-8AED-4ABE-BD98-AAB5244316E5}">
+      <formula1>"51,54,55,56,57,58,59,60,61,62,63,64,98"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אורך שם האופוטופרוס יכול להכיל עד 50 תווים" sqref="L2:L1048576" xr:uid="{C9F3847C-0B93-41B4-AC5E-91F5E558D586}">
+      <formula1>50</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא הזן אימייל תקין_x000a_" sqref="M2:M1048576" xr:uid="{86F8D05A-6070-4CC7-99AA-1DA99DD209CD}">
+      <formula1>ISNUMBER(FIND("@",M2))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא הזמן כתובת אימייל תקינה_x000a_" sqref="D2:D1048576" xr:uid="{4DF38BF8-180A-4E36-99E8-D9F5061130A4}">
+      <formula1>ISNUMBER(FIND("@",D2))</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אורך שדה אלרגיות וריגשויות יכול להכיל עד 50 תווים" sqref="O2:O1048576" xr:uid="{6674F343-A98F-48EE-8D6D-EC02071E7E80}">
+      <formula1>50</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Digitala/Digitala/File/Template.xlsx
+++ b/Digitala/Digitala/File/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabin\Documents\לימודים\Digitala\Digitala\Digitala\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D744C775-3FCB-4269-BD7A-08C26DB60626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94151F9-F4A1-4CE1-9FAB-6720BA3AAA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:O1589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6556,9 +6556,8 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="יש להזין תעודת זהות בעלת 9 ספרות_x000a_" sqref="A2:A1048576" xr:uid="{D7E8ABDF-3732-4219-88AE-624E4E2608EC}">
       <formula1>9</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בדוק את התאריך שהוזן_x000a_יש להזין בפורמט הבא - _x000a_ 01/01/1999" sqref="E2:E1048576" xr:uid="{590813BC-8088-4D58-9FCA-4768DDF4EDB1}">
-      <formula1>36161</formula1>
-      <formula2>54789</formula2>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בדוק את התאריך שהוזן_x000a_יש להזין בפורמט הבא - _x000a_ 01/01/1999" sqref="E2:E1048576" xr:uid="{590813BC-8088-4D58-9FCA-4768DDF4EDB1}">
+      <formula1>10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בחר מהרשימה_x000a_M עבור זכר _x000a_F עבור נקבה" sqref="F2:F1048576" xr:uid="{70E312DB-D5C5-4CA3-BA8C-F66A5433E60E}">
       <formula1>"F,M"</formula1>

--- a/Digitala/Digitala/File/Template.xlsx
+++ b/Digitala/Digitala/File/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabin\Documents\לימודים\Digitala\Digitala\Digitala\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mor_y16bkhc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94151F9-F4A1-4CE1-9FAB-6720BA3AAA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D152FC4-D4F5-4600-B62E-27F13995D74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,7 +88,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -114,13 +121,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,49 +416,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -455,10 +467,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -474,6090 +486,6089 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
       <c r="H2" s="2"/>
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
       <c r="M8" s="3"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="H12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H71" s="2"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H82" s="2"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H84" s="2"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H98" s="2"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H103" s="2"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H127" s="2"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H128" s="2"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H129" s="2"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H131" s="2"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H132" s="2"/>
       <c r="N132" s="2"/>
     </row>
-    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H133" s="2"/>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H134" s="2"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H135" s="2"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H141" s="2"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H142" s="2"/>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H143" s="2"/>
       <c r="N143" s="2"/>
     </row>
-    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H144" s="2"/>
       <c r="N144" s="2"/>
     </row>
-    <row r="145" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H145" s="2"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H146" s="2"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H147" s="2"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H148" s="2"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H149" s="2"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H150" s="2"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H151" s="2"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H152" s="2"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H153" s="2"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H154" s="2"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H155" s="2"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H156" s="2"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H157" s="2"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H158" s="2"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H159" s="2"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H160" s="2"/>
       <c r="N160" s="2"/>
     </row>
-    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H161" s="2"/>
       <c r="N161" s="2"/>
     </row>
-    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H162" s="2"/>
       <c r="N162" s="2"/>
     </row>
-    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H163" s="2"/>
       <c r="N163" s="2"/>
     </row>
-    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H164" s="2"/>
       <c r="N164" s="2"/>
     </row>
-    <row r="165" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H165" s="2"/>
       <c r="N165" s="2"/>
     </row>
-    <row r="166" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H166" s="2"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H167" s="2"/>
       <c r="N167" s="2"/>
     </row>
-    <row r="168" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H168" s="2"/>
       <c r="N168" s="2"/>
     </row>
-    <row r="169" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H169" s="2"/>
       <c r="N169" s="2"/>
     </row>
-    <row r="170" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H170" s="2"/>
       <c r="N170" s="2"/>
     </row>
-    <row r="171" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H171" s="2"/>
       <c r="N171" s="2"/>
     </row>
-    <row r="172" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H172" s="2"/>
       <c r="N172" s="2"/>
     </row>
-    <row r="173" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H173" s="2"/>
       <c r="N173" s="2"/>
     </row>
-    <row r="174" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H174" s="2"/>
       <c r="N174" s="2"/>
     </row>
-    <row r="175" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H175" s="2"/>
       <c r="N175" s="2"/>
     </row>
-    <row r="176" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H176" s="2"/>
       <c r="N176" s="2"/>
     </row>
-    <row r="177" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H177" s="2"/>
       <c r="N177" s="2"/>
     </row>
-    <row r="178" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H178" s="2"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H179" s="2"/>
       <c r="N179" s="2"/>
     </row>
-    <row r="180" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H180" s="2"/>
       <c r="N180" s="2"/>
     </row>
-    <row r="181" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H181" s="2"/>
       <c r="N181" s="2"/>
     </row>
-    <row r="182" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H182" s="2"/>
       <c r="N182" s="2"/>
     </row>
-    <row r="183" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H183" s="2"/>
       <c r="N183" s="2"/>
     </row>
-    <row r="184" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H185" s="2"/>
       <c r="N185" s="2"/>
     </row>
-    <row r="186" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H186" s="2"/>
       <c r="N186" s="2"/>
     </row>
-    <row r="187" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H187" s="2"/>
       <c r="N187" s="2"/>
     </row>
-    <row r="188" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H188" s="2"/>
       <c r="N188" s="2"/>
     </row>
-    <row r="189" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H189" s="2"/>
       <c r="N189" s="2"/>
     </row>
-    <row r="190" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H190" s="2"/>
       <c r="N190" s="2"/>
     </row>
-    <row r="191" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H191" s="2"/>
       <c r="N191" s="2"/>
     </row>
-    <row r="192" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H192" s="2"/>
       <c r="N192" s="2"/>
     </row>
-    <row r="193" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H193" s="2"/>
       <c r="N193" s="2"/>
     </row>
-    <row r="194" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H194" s="2"/>
       <c r="N194" s="2"/>
     </row>
-    <row r="195" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H195" s="2"/>
       <c r="N195" s="2"/>
     </row>
-    <row r="196" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H196" s="2"/>
       <c r="N196" s="2"/>
     </row>
-    <row r="197" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H197" s="2"/>
       <c r="N197" s="2"/>
     </row>
-    <row r="198" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H198" s="2"/>
       <c r="N198" s="2"/>
     </row>
-    <row r="199" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H199" s="2"/>
       <c r="N199" s="2"/>
     </row>
-    <row r="200" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H200" s="2"/>
       <c r="N200" s="2"/>
     </row>
-    <row r="201" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H201" s="2"/>
       <c r="N201" s="2"/>
     </row>
-    <row r="202" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H202" s="2"/>
       <c r="N202" s="2"/>
     </row>
-    <row r="203" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H203" s="2"/>
       <c r="N203" s="2"/>
     </row>
-    <row r="204" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H204" s="2"/>
       <c r="N204" s="2"/>
     </row>
-    <row r="205" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H205" s="2"/>
       <c r="N205" s="2"/>
     </row>
-    <row r="206" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H206" s="2"/>
       <c r="N206" s="2"/>
     </row>
-    <row r="207" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H207" s="2"/>
       <c r="N207" s="2"/>
     </row>
-    <row r="208" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H208" s="2"/>
       <c r="N208" s="2"/>
     </row>
-    <row r="209" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H209" s="2"/>
       <c r="N209" s="2"/>
     </row>
-    <row r="210" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H210" s="2"/>
       <c r="N210" s="2"/>
     </row>
-    <row r="211" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H211" s="2"/>
       <c r="N211" s="2"/>
     </row>
-    <row r="212" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H212" s="2"/>
       <c r="N212" s="2"/>
     </row>
-    <row r="213" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H213" s="2"/>
       <c r="N213" s="2"/>
     </row>
-    <row r="214" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H214" s="2"/>
       <c r="N214" s="2"/>
     </row>
-    <row r="215" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H215" s="2"/>
       <c r="N215" s="2"/>
     </row>
-    <row r="216" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H216" s="2"/>
       <c r="N216" s="2"/>
     </row>
-    <row r="217" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H217" s="2"/>
       <c r="N217" s="2"/>
     </row>
-    <row r="218" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H218" s="2"/>
       <c r="N218" s="2"/>
     </row>
-    <row r="219" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H219" s="2"/>
       <c r="N219" s="2"/>
     </row>
-    <row r="220" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H220" s="2"/>
       <c r="N220" s="2"/>
     </row>
-    <row r="221" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H221" s="2"/>
       <c r="N221" s="2"/>
     </row>
-    <row r="222" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H222" s="2"/>
       <c r="N222" s="2"/>
     </row>
-    <row r="223" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H223" s="2"/>
       <c r="N223" s="2"/>
     </row>
-    <row r="224" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H224" s="2"/>
       <c r="N224" s="2"/>
     </row>
-    <row r="225" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H225" s="2"/>
       <c r="N225" s="2"/>
     </row>
-    <row r="226" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H226" s="2"/>
       <c r="N226" s="2"/>
     </row>
-    <row r="227" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H227" s="2"/>
       <c r="N227" s="2"/>
     </row>
-    <row r="228" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H228" s="2"/>
       <c r="N228" s="2"/>
     </row>
-    <row r="229" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H229" s="2"/>
       <c r="N229" s="2"/>
     </row>
-    <row r="230" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H230" s="2"/>
       <c r="N230" s="2"/>
     </row>
-    <row r="231" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H231" s="2"/>
       <c r="N231" s="2"/>
     </row>
-    <row r="232" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H232" s="2"/>
       <c r="N232" s="2"/>
     </row>
-    <row r="233" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H233" s="2"/>
       <c r="N233" s="2"/>
     </row>
-    <row r="234" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H234" s="2"/>
       <c r="N234" s="2"/>
     </row>
-    <row r="235" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H235" s="2"/>
       <c r="N235" s="2"/>
     </row>
-    <row r="236" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H236" s="2"/>
       <c r="N236" s="2"/>
     </row>
-    <row r="237" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H237" s="2"/>
       <c r="N237" s="2"/>
     </row>
-    <row r="238" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H238" s="2"/>
       <c r="N238" s="2"/>
     </row>
-    <row r="239" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H239" s="2"/>
       <c r="N239" s="2"/>
     </row>
-    <row r="240" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H240" s="2"/>
       <c r="N240" s="2"/>
     </row>
-    <row r="241" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H241" s="2"/>
       <c r="N241" s="2"/>
     </row>
-    <row r="242" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H242" s="2"/>
       <c r="N242" s="2"/>
     </row>
-    <row r="243" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H243" s="2"/>
       <c r="N243" s="2"/>
     </row>
-    <row r="244" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H244" s="2"/>
       <c r="N244" s="2"/>
     </row>
-    <row r="245" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H245" s="2"/>
       <c r="N245" s="2"/>
     </row>
-    <row r="246" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H246" s="2"/>
       <c r="N246" s="2"/>
     </row>
-    <row r="247" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H247" s="2"/>
       <c r="N247" s="2"/>
     </row>
-    <row r="248" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H248" s="2"/>
       <c r="N248" s="2"/>
     </row>
-    <row r="249" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="250" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H250" s="2"/>
       <c r="N250" s="2"/>
     </row>
-    <row r="251" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H251" s="2"/>
       <c r="N251" s="2"/>
     </row>
-    <row r="252" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H252" s="2"/>
       <c r="N252" s="2"/>
     </row>
-    <row r="253" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H253" s="2"/>
       <c r="N253" s="2"/>
     </row>
-    <row r="254" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H254" s="2"/>
       <c r="N254" s="2"/>
     </row>
-    <row r="255" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H255" s="2"/>
       <c r="N255" s="2"/>
     </row>
-    <row r="256" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H256" s="2"/>
       <c r="N256" s="2"/>
     </row>
-    <row r="257" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H257" s="2"/>
       <c r="N257" s="2"/>
     </row>
-    <row r="258" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H258" s="2"/>
       <c r="N258" s="2"/>
     </row>
-    <row r="259" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H259" s="2"/>
       <c r="N259" s="2"/>
     </row>
-    <row r="260" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H260" s="2"/>
       <c r="N260" s="2"/>
     </row>
-    <row r="261" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H261" s="2"/>
       <c r="N261" s="2"/>
     </row>
-    <row r="262" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H262" s="2"/>
       <c r="N262" s="2"/>
     </row>
-    <row r="263" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H263" s="2"/>
       <c r="N263" s="2"/>
     </row>
-    <row r="264" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H264" s="2"/>
       <c r="N264" s="2"/>
     </row>
-    <row r="265" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H265" s="2"/>
       <c r="N265" s="2"/>
     </row>
-    <row r="266" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H266" s="2"/>
       <c r="N266" s="2"/>
     </row>
-    <row r="267" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H267" s="2"/>
       <c r="N267" s="2"/>
     </row>
-    <row r="268" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H268" s="2"/>
       <c r="N268" s="2"/>
     </row>
-    <row r="269" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H269" s="2"/>
       <c r="N269" s="2"/>
     </row>
-    <row r="270" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H270" s="2"/>
       <c r="N270" s="2"/>
     </row>
-    <row r="271" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H271" s="2"/>
       <c r="N271" s="2"/>
     </row>
-    <row r="272" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H272" s="2"/>
       <c r="N272" s="2"/>
     </row>
-    <row r="273" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H273" s="2"/>
       <c r="N273" s="2"/>
     </row>
-    <row r="274" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H274" s="2"/>
       <c r="N274" s="2"/>
     </row>
-    <row r="275" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H275" s="2"/>
       <c r="N275" s="2"/>
     </row>
-    <row r="276" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H276" s="2"/>
       <c r="N276" s="2"/>
     </row>
-    <row r="277" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H277" s="2"/>
       <c r="N277" s="2"/>
     </row>
-    <row r="278" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H278" s="2"/>
       <c r="N278" s="2"/>
     </row>
-    <row r="279" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H279" s="2"/>
       <c r="N279" s="2"/>
     </row>
-    <row r="280" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H280" s="2"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H281" s="2"/>
       <c r="N281" s="2"/>
     </row>
-    <row r="282" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H282" s="2"/>
       <c r="N282" s="2"/>
     </row>
-    <row r="283" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H283" s="2"/>
       <c r="N283" s="2"/>
     </row>
-    <row r="284" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H284" s="2"/>
       <c r="N284" s="2"/>
     </row>
-    <row r="285" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H285" s="2"/>
       <c r="N285" s="2"/>
     </row>
-    <row r="286" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H286" s="2"/>
       <c r="N286" s="2"/>
     </row>
-    <row r="287" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H287" s="2"/>
       <c r="N287" s="2"/>
     </row>
-    <row r="288" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H288" s="2"/>
       <c r="N288" s="2"/>
     </row>
-    <row r="289" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H289" s="2"/>
       <c r="N289" s="2"/>
     </row>
-    <row r="290" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H290" s="2"/>
       <c r="N290" s="2"/>
     </row>
-    <row r="291" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H291" s="2"/>
       <c r="N291" s="2"/>
     </row>
-    <row r="292" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H292" s="2"/>
       <c r="N292" s="2"/>
     </row>
-    <row r="293" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H293" s="2"/>
       <c r="N293" s="2"/>
     </row>
-    <row r="294" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H294" s="2"/>
       <c r="N294" s="2"/>
     </row>
-    <row r="295" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H295" s="2"/>
       <c r="N295" s="2"/>
     </row>
-    <row r="296" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H296" s="2"/>
       <c r="N296" s="2"/>
     </row>
-    <row r="297" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H297" s="2"/>
       <c r="N297" s="2"/>
     </row>
-    <row r="298" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H298" s="2"/>
       <c r="N298" s="2"/>
     </row>
-    <row r="299" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H299" s="2"/>
       <c r="N299" s="2"/>
     </row>
-    <row r="300" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H300" s="2"/>
       <c r="N300" s="2"/>
     </row>
-    <row r="301" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H301" s="2"/>
       <c r="N301" s="2"/>
     </row>
-    <row r="302" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H302" s="2"/>
       <c r="N302" s="2"/>
     </row>
-    <row r="303" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H303" s="2"/>
       <c r="N303" s="2"/>
     </row>
-    <row r="304" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H304" s="2"/>
       <c r="N304" s="2"/>
     </row>
-    <row r="305" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H305" s="2"/>
       <c r="N305" s="2"/>
     </row>
-    <row r="306" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H306" s="2"/>
       <c r="N306" s="2"/>
     </row>
-    <row r="307" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H307" s="2"/>
       <c r="N307" s="2"/>
     </row>
-    <row r="308" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H308" s="2"/>
       <c r="N308" s="2"/>
     </row>
-    <row r="309" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H309" s="2"/>
       <c r="N309" s="2"/>
     </row>
-    <row r="310" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H310" s="2"/>
       <c r="N310" s="2"/>
     </row>
-    <row r="311" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H311" s="2"/>
       <c r="N311" s="2"/>
     </row>
-    <row r="312" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H312" s="2"/>
       <c r="N312" s="2"/>
     </row>
-    <row r="313" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H313" s="2"/>
       <c r="N313" s="2"/>
     </row>
-    <row r="314" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H314" s="2"/>
       <c r="N314" s="2"/>
     </row>
-    <row r="315" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H315" s="2"/>
       <c r="N315" s="2"/>
     </row>
-    <row r="316" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H316" s="2"/>
       <c r="N316" s="2"/>
     </row>
-    <row r="317" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H317" s="2"/>
       <c r="N317" s="2"/>
     </row>
-    <row r="318" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H318" s="2"/>
       <c r="N318" s="2"/>
     </row>
-    <row r="319" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H319" s="2"/>
       <c r="N319" s="2"/>
     </row>
-    <row r="320" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H320" s="2"/>
       <c r="N320" s="2"/>
     </row>
-    <row r="321" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H321" s="2"/>
       <c r="N321" s="2"/>
     </row>
-    <row r="322" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H322" s="2"/>
       <c r="N322" s="2"/>
     </row>
-    <row r="323" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H323" s="2"/>
       <c r="N323" s="2"/>
     </row>
-    <row r="324" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H324" s="2"/>
       <c r="N324" s="2"/>
     </row>
-    <row r="325" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H325" s="2"/>
       <c r="N325" s="2"/>
     </row>
-    <row r="326" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H326" s="2"/>
       <c r="N326" s="2"/>
     </row>
-    <row r="327" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H327" s="2"/>
       <c r="N327" s="2"/>
     </row>
-    <row r="328" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H328" s="2"/>
       <c r="N328" s="2"/>
     </row>
-    <row r="329" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H329" s="2"/>
       <c r="N329" s="2"/>
     </row>
-    <row r="330" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H330" s="2"/>
       <c r="N330" s="2"/>
     </row>
-    <row r="331" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H331" s="2"/>
       <c r="N331" s="2"/>
     </row>
-    <row r="332" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H332" s="2"/>
       <c r="N332" s="2"/>
     </row>
-    <row r="333" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H333" s="2"/>
       <c r="N333" s="2"/>
     </row>
-    <row r="334" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H334" s="2"/>
       <c r="N334" s="2"/>
     </row>
-    <row r="335" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H335" s="2"/>
       <c r="N335" s="2"/>
     </row>
-    <row r="336" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H336" s="2"/>
       <c r="N336" s="2"/>
     </row>
-    <row r="337" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H337" s="2"/>
       <c r="N337" s="2"/>
     </row>
-    <row r="338" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H338" s="2"/>
       <c r="N338" s="2"/>
     </row>
-    <row r="339" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H339" s="2"/>
       <c r="N339" s="2"/>
     </row>
-    <row r="340" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H340" s="2"/>
       <c r="N340" s="2"/>
     </row>
-    <row r="341" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H341" s="2"/>
       <c r="N341" s="2"/>
     </row>
-    <row r="342" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H342" s="2"/>
       <c r="N342" s="2"/>
     </row>
-    <row r="343" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H343" s="2"/>
       <c r="N343" s="2"/>
     </row>
-    <row r="344" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H344" s="2"/>
       <c r="N344" s="2"/>
     </row>
-    <row r="345" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H345" s="2"/>
       <c r="N345" s="2"/>
     </row>
-    <row r="346" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H346" s="2"/>
       <c r="N346" s="2"/>
     </row>
-    <row r="347" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H347" s="2"/>
       <c r="N347" s="2"/>
     </row>
-    <row r="348" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H348" s="2"/>
       <c r="N348" s="2"/>
     </row>
-    <row r="349" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H349" s="2"/>
       <c r="N349" s="2"/>
     </row>
-    <row r="350" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H350" s="2"/>
       <c r="N350" s="2"/>
     </row>
-    <row r="351" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H351" s="2"/>
       <c r="N351" s="2"/>
     </row>
-    <row r="352" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H352" s="2"/>
       <c r="N352" s="2"/>
     </row>
-    <row r="353" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H353" s="2"/>
       <c r="N353" s="2"/>
     </row>
-    <row r="354" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H354" s="2"/>
       <c r="N354" s="2"/>
     </row>
-    <row r="355" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H355" s="2"/>
       <c r="N355" s="2"/>
     </row>
-    <row r="356" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H356" s="2"/>
       <c r="N356" s="2"/>
     </row>
-    <row r="357" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H357" s="2"/>
       <c r="N357" s="2"/>
     </row>
-    <row r="358" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H358" s="2"/>
       <c r="N358" s="2"/>
     </row>
-    <row r="359" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H359" s="2"/>
       <c r="N359" s="2"/>
     </row>
-    <row r="360" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H360" s="2"/>
       <c r="N360" s="2"/>
     </row>
-    <row r="361" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H361" s="2"/>
       <c r="N361" s="2"/>
     </row>
-    <row r="362" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H362" s="2"/>
       <c r="N362" s="2"/>
     </row>
-    <row r="363" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H363" s="2"/>
       <c r="N363" s="2"/>
     </row>
-    <row r="364" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H364" s="2"/>
       <c r="N364" s="2"/>
     </row>
-    <row r="365" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H365" s="2"/>
       <c r="N365" s="2"/>
     </row>
-    <row r="366" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H366" s="2"/>
       <c r="N366" s="2"/>
     </row>
-    <row r="367" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H367" s="2"/>
       <c r="N367" s="2"/>
     </row>
-    <row r="368" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H368" s="2"/>
       <c r="N368" s="2"/>
     </row>
-    <row r="369" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H369" s="2"/>
       <c r="N369" s="2"/>
     </row>
-    <row r="370" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H370" s="2"/>
       <c r="N370" s="2"/>
     </row>
-    <row r="371" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H371" s="2"/>
       <c r="N371" s="2"/>
     </row>
-    <row r="372" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H372" s="2"/>
       <c r="N372" s="2"/>
     </row>
-    <row r="373" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H373" s="2"/>
       <c r="N373" s="2"/>
     </row>
-    <row r="374" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H374" s="2"/>
       <c r="N374" s="2"/>
     </row>
-    <row r="375" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H375" s="2"/>
       <c r="N375" s="2"/>
     </row>
-    <row r="376" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H376" s="2"/>
       <c r="N376" s="2"/>
     </row>
-    <row r="377" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H377" s="2"/>
       <c r="N377" s="2"/>
     </row>
-    <row r="378" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H378" s="2"/>
       <c r="N378" s="2"/>
     </row>
-    <row r="379" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H379" s="2"/>
       <c r="N379" s="2"/>
     </row>
-    <row r="380" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H380" s="2"/>
       <c r="N380" s="2"/>
     </row>
-    <row r="381" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H381" s="2"/>
       <c r="N381" s="2"/>
     </row>
-    <row r="382" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H382" s="2"/>
       <c r="N382" s="2"/>
     </row>
-    <row r="383" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H383" s="2"/>
       <c r="N383" s="2"/>
     </row>
-    <row r="384" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H384" s="2"/>
       <c r="N384" s="2"/>
     </row>
-    <row r="385" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H385" s="2"/>
       <c r="N385" s="2"/>
     </row>
-    <row r="386" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H386" s="2"/>
       <c r="N386" s="2"/>
     </row>
-    <row r="387" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H387" s="2"/>
       <c r="N387" s="2"/>
     </row>
-    <row r="388" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H388" s="2"/>
       <c r="N388" s="2"/>
     </row>
-    <row r="389" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H389" s="2"/>
       <c r="N389" s="2"/>
     </row>
-    <row r="390" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H390" s="2"/>
       <c r="N390" s="2"/>
     </row>
-    <row r="391" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H391" s="2"/>
       <c r="N391" s="2"/>
     </row>
-    <row r="392" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H392" s="2"/>
       <c r="N392" s="2"/>
     </row>
-    <row r="393" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H393" s="2"/>
       <c r="N393" s="2"/>
     </row>
-    <row r="394" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H394" s="2"/>
       <c r="N394" s="2"/>
     </row>
-    <row r="395" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H395" s="2"/>
       <c r="N395" s="2"/>
     </row>
-    <row r="396" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H396" s="2"/>
       <c r="N396" s="2"/>
     </row>
-    <row r="397" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H397" s="2"/>
       <c r="N397" s="2"/>
     </row>
-    <row r="398" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H398" s="2"/>
       <c r="N398" s="2"/>
     </row>
-    <row r="399" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H399" s="2"/>
       <c r="N399" s="2"/>
     </row>
-    <row r="400" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H400" s="2"/>
       <c r="N400" s="2"/>
     </row>
-    <row r="401" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H401" s="2"/>
       <c r="N401" s="2"/>
     </row>
-    <row r="402" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H402" s="2"/>
       <c r="N402" s="2"/>
     </row>
-    <row r="403" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H403" s="2"/>
       <c r="N403" s="2"/>
     </row>
-    <row r="404" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H404" s="2"/>
       <c r="N404" s="2"/>
     </row>
-    <row r="405" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H405" s="2"/>
       <c r="N405" s="2"/>
     </row>
-    <row r="406" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H406" s="2"/>
       <c r="N406" s="2"/>
     </row>
-    <row r="407" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H407" s="2"/>
       <c r="N407" s="2"/>
     </row>
-    <row r="408" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H408" s="2"/>
       <c r="N408" s="2"/>
     </row>
-    <row r="409" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H409" s="2"/>
       <c r="N409" s="2"/>
     </row>
-    <row r="410" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H410" s="2"/>
       <c r="N410" s="2"/>
     </row>
-    <row r="411" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H411" s="2"/>
       <c r="N411" s="2"/>
     </row>
-    <row r="412" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H412" s="2"/>
       <c r="N412" s="2"/>
     </row>
-    <row r="413" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H413" s="2"/>
       <c r="N413" s="2"/>
     </row>
-    <row r="414" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H414" s="2"/>
       <c r="N414" s="2"/>
     </row>
-    <row r="415" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H415" s="2"/>
       <c r="N415" s="2"/>
     </row>
-    <row r="416" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H416" s="2"/>
       <c r="N416" s="2"/>
     </row>
-    <row r="417" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H417" s="2"/>
       <c r="N417" s="2"/>
     </row>
-    <row r="418" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H418" s="2"/>
       <c r="N418" s="2"/>
     </row>
-    <row r="419" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H419" s="2"/>
       <c r="N419" s="2"/>
     </row>
-    <row r="420" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H420" s="2"/>
       <c r="N420" s="2"/>
     </row>
-    <row r="421" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H421" s="2"/>
       <c r="N421" s="2"/>
     </row>
-    <row r="422" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H422" s="2"/>
       <c r="N422" s="2"/>
     </row>
-    <row r="423" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H423" s="2"/>
       <c r="N423" s="2"/>
     </row>
-    <row r="424" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H424" s="2"/>
       <c r="N424" s="2"/>
     </row>
-    <row r="425" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H425" s="2"/>
       <c r="N425" s="2"/>
     </row>
-    <row r="426" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H426" s="2"/>
       <c r="N426" s="2"/>
     </row>
-    <row r="427" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H427" s="2"/>
       <c r="N427" s="2"/>
     </row>
-    <row r="428" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H428" s="2"/>
       <c r="N428" s="2"/>
     </row>
-    <row r="429" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H429" s="2"/>
       <c r="N429" s="2"/>
     </row>
-    <row r="430" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H430" s="2"/>
       <c r="N430" s="2"/>
     </row>
-    <row r="431" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H431" s="2"/>
       <c r="N431" s="2"/>
     </row>
-    <row r="432" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H432" s="2"/>
       <c r="N432" s="2"/>
     </row>
-    <row r="433" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H433" s="2"/>
       <c r="N433" s="2"/>
     </row>
-    <row r="434" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H434" s="2"/>
       <c r="N434" s="2"/>
     </row>
-    <row r="435" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H435" s="2"/>
       <c r="N435" s="2"/>
     </row>
-    <row r="436" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H436" s="2"/>
       <c r="N436" s="2"/>
     </row>
-    <row r="437" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H437" s="2"/>
       <c r="N437" s="2"/>
     </row>
-    <row r="438" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H438" s="2"/>
       <c r="N438" s="2"/>
     </row>
-    <row r="439" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H439" s="2"/>
       <c r="N439" s="2"/>
     </row>
-    <row r="440" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H440" s="2"/>
       <c r="N440" s="2"/>
     </row>
-    <row r="441" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H441" s="2"/>
       <c r="N441" s="2"/>
     </row>
-    <row r="442" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H442" s="2"/>
       <c r="N442" s="2"/>
     </row>
-    <row r="443" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H443" s="2"/>
       <c r="N443" s="2"/>
     </row>
-    <row r="444" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H444" s="2"/>
       <c r="N444" s="2"/>
     </row>
-    <row r="445" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H445" s="2"/>
       <c r="N445" s="2"/>
     </row>
-    <row r="446" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H446" s="2"/>
       <c r="N446" s="2"/>
     </row>
-    <row r="447" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H447" s="2"/>
       <c r="N447" s="2"/>
     </row>
-    <row r="448" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H448" s="2"/>
       <c r="N448" s="2"/>
     </row>
-    <row r="449" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H449" s="2"/>
       <c r="N449" s="2"/>
     </row>
-    <row r="450" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H450" s="2"/>
       <c r="N450" s="2"/>
     </row>
-    <row r="451" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H451" s="2"/>
       <c r="N451" s="2"/>
     </row>
-    <row r="452" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H452" s="2"/>
       <c r="N452" s="2"/>
     </row>
-    <row r="453" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H453" s="2"/>
       <c r="N453" s="2"/>
     </row>
-    <row r="454" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H454" s="2"/>
       <c r="N454" s="2"/>
     </row>
-    <row r="455" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H455" s="2"/>
       <c r="N455" s="2"/>
     </row>
-    <row r="456" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H456" s="2"/>
       <c r="N456" s="2"/>
     </row>
-    <row r="457" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H457" s="2"/>
       <c r="N457" s="2"/>
     </row>
-    <row r="458" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H458" s="2"/>
       <c r="N458" s="2"/>
     </row>
-    <row r="459" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H459" s="2"/>
       <c r="N459" s="2"/>
     </row>
-    <row r="460" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H460" s="2"/>
       <c r="N460" s="2"/>
     </row>
-    <row r="461" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H461" s="2"/>
       <c r="N461" s="2"/>
     </row>
-    <row r="462" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H462" s="2"/>
       <c r="N462" s="2"/>
     </row>
-    <row r="463" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H463" s="2"/>
       <c r="N463" s="2"/>
     </row>
-    <row r="464" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H464" s="2"/>
       <c r="N464" s="2"/>
     </row>
-    <row r="465" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H465" s="2"/>
       <c r="N465" s="2"/>
     </row>
-    <row r="466" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H466" s="2"/>
       <c r="N466" s="2"/>
     </row>
-    <row r="467" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H467" s="2"/>
       <c r="N467" s="2"/>
     </row>
-    <row r="468" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H468" s="2"/>
       <c r="N468" s="2"/>
     </row>
-    <row r="469" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H469" s="2"/>
       <c r="N469" s="2"/>
     </row>
-    <row r="470" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H470" s="2"/>
       <c r="N470" s="2"/>
     </row>
-    <row r="471" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H471" s="2"/>
       <c r="N471" s="2"/>
     </row>
-    <row r="472" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H472" s="2"/>
       <c r="N472" s="2"/>
     </row>
-    <row r="473" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H473" s="2"/>
       <c r="N473" s="2"/>
     </row>
-    <row r="474" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H474" s="2"/>
       <c r="N474" s="2"/>
     </row>
-    <row r="475" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H475" s="2"/>
       <c r="N475" s="2"/>
     </row>
-    <row r="476" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H476" s="2"/>
       <c r="N476" s="2"/>
     </row>
-    <row r="477" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H477" s="2"/>
       <c r="N477" s="2"/>
     </row>
-    <row r="478" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H478" s="2"/>
       <c r="N478" s="2"/>
     </row>
-    <row r="479" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H479" s="2"/>
       <c r="N479" s="2"/>
     </row>
-    <row r="480" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H480" s="2"/>
       <c r="N480" s="2"/>
     </row>
-    <row r="481" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H481" s="2"/>
       <c r="N481" s="2"/>
     </row>
-    <row r="482" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H482" s="2"/>
       <c r="N482" s="2"/>
     </row>
-    <row r="483" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H483" s="2"/>
       <c r="N483" s="2"/>
     </row>
-    <row r="484" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H484" s="2"/>
       <c r="N484" s="2"/>
     </row>
-    <row r="485" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H485" s="2"/>
       <c r="N485" s="2"/>
     </row>
-    <row r="486" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H486" s="2"/>
       <c r="N486" s="2"/>
     </row>
-    <row r="487" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H487" s="2"/>
       <c r="N487" s="2"/>
     </row>
-    <row r="488" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H488" s="2"/>
       <c r="N488" s="2"/>
     </row>
-    <row r="489" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H489" s="2"/>
       <c r="N489" s="2"/>
     </row>
-    <row r="490" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H490" s="2"/>
       <c r="N490" s="2"/>
     </row>
-    <row r="491" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H491" s="2"/>
       <c r="N491" s="2"/>
     </row>
-    <row r="492" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H492" s="2"/>
       <c r="N492" s="2"/>
     </row>
-    <row r="493" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H493" s="2"/>
       <c r="N493" s="2"/>
     </row>
-    <row r="494" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H494" s="2"/>
       <c r="N494" s="2"/>
     </row>
-    <row r="495" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H495" s="2"/>
       <c r="N495" s="2"/>
     </row>
-    <row r="496" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H496" s="2"/>
       <c r="N496" s="2"/>
     </row>
-    <row r="497" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H497" s="2"/>
       <c r="N497" s="2"/>
     </row>
-    <row r="498" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H498" s="2"/>
       <c r="N498" s="2"/>
     </row>
-    <row r="499" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H499" s="2"/>
       <c r="N499" s="2"/>
     </row>
-    <row r="500" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H500" s="2"/>
       <c r="N500" s="2"/>
     </row>
-    <row r="501" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H501" s="2"/>
       <c r="N501" s="2"/>
     </row>
-    <row r="502" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H502" s="2"/>
       <c r="N502" s="2"/>
     </row>
-    <row r="503" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H503" s="2"/>
       <c r="N503" s="2"/>
     </row>
-    <row r="504" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H504" s="2"/>
       <c r="N504" s="2"/>
     </row>
-    <row r="505" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H505" s="2"/>
       <c r="N505" s="2"/>
     </row>
-    <row r="506" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H506" s="2"/>
       <c r="N506" s="2"/>
     </row>
-    <row r="507" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H507" s="2"/>
       <c r="N507" s="2"/>
     </row>
-    <row r="508" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H508" s="2"/>
       <c r="N508" s="2"/>
     </row>
-    <row r="509" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H509" s="2"/>
       <c r="N509" s="2"/>
     </row>
-    <row r="510" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H510" s="2"/>
       <c r="N510" s="2"/>
     </row>
-    <row r="511" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H511" s="2"/>
       <c r="N511" s="2"/>
     </row>
-    <row r="512" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H512" s="2"/>
       <c r="N512" s="2"/>
     </row>
-    <row r="513" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H513" s="2"/>
       <c r="N513" s="2"/>
     </row>
-    <row r="514" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H514" s="2"/>
       <c r="N514" s="2"/>
     </row>
-    <row r="515" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H515" s="2"/>
       <c r="N515" s="2"/>
     </row>
-    <row r="516" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H516" s="2"/>
       <c r="N516" s="2"/>
     </row>
-    <row r="517" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H517" s="2"/>
       <c r="N517" s="2"/>
     </row>
-    <row r="518" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H518" s="2"/>
       <c r="N518" s="2"/>
     </row>
-    <row r="519" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H519" s="2"/>
       <c r="N519" s="2"/>
     </row>
-    <row r="520" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H520" s="2"/>
       <c r="N520" s="2"/>
     </row>
-    <row r="521" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H521" s="2"/>
       <c r="N521" s="2"/>
     </row>
-    <row r="522" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H522" s="2"/>
       <c r="N522" s="2"/>
     </row>
-    <row r="523" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H523" s="2"/>
       <c r="N523" s="2"/>
     </row>
-    <row r="524" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H524" s="2"/>
       <c r="N524" s="2"/>
     </row>
-    <row r="525" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H525" s="2"/>
       <c r="N525" s="2"/>
     </row>
-    <row r="526" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H526" s="2"/>
       <c r="N526" s="2"/>
     </row>
-    <row r="527" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H527" s="2"/>
       <c r="N527" s="2"/>
     </row>
-    <row r="528" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H528" s="2"/>
       <c r="N528" s="2"/>
     </row>
-    <row r="529" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H529" s="2"/>
       <c r="N529" s="2"/>
     </row>
-    <row r="530" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H530" s="2"/>
       <c r="N530" s="2"/>
     </row>
-    <row r="531" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H531" s="2"/>
       <c r="N531" s="2"/>
     </row>
-    <row r="532" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H532" s="2"/>
       <c r="N532" s="2"/>
     </row>
-    <row r="533" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H533" s="2"/>
       <c r="N533" s="2"/>
     </row>
-    <row r="534" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H534" s="2"/>
       <c r="N534" s="2"/>
     </row>
-    <row r="535" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H535" s="2"/>
       <c r="N535" s="2"/>
     </row>
-    <row r="536" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H536" s="2"/>
       <c r="N536" s="2"/>
     </row>
-    <row r="537" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H537" s="2"/>
       <c r="N537" s="2"/>
     </row>
-    <row r="538" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H538" s="2"/>
       <c r="N538" s="2"/>
     </row>
-    <row r="539" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H539" s="2"/>
       <c r="N539" s="2"/>
     </row>
-    <row r="540" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H540" s="2"/>
       <c r="N540" s="2"/>
     </row>
-    <row r="541" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H541" s="2"/>
       <c r="N541" s="2"/>
     </row>
-    <row r="542" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H542" s="2"/>
       <c r="N542" s="2"/>
     </row>
-    <row r="543" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H543" s="2"/>
       <c r="N543" s="2"/>
     </row>
-    <row r="544" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H544" s="2"/>
       <c r="N544" s="2"/>
     </row>
-    <row r="545" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H545" s="2"/>
       <c r="N545" s="2"/>
     </row>
-    <row r="546" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H546" s="2"/>
       <c r="N546" s="2"/>
     </row>
-    <row r="547" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H547" s="2"/>
       <c r="N547" s="2"/>
     </row>
-    <row r="548" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H548" s="2"/>
       <c r="N548" s="2"/>
     </row>
-    <row r="549" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H549" s="2"/>
       <c r="N549" s="2"/>
     </row>
-    <row r="550" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H550" s="2"/>
       <c r="N550" s="2"/>
     </row>
-    <row r="551" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H551" s="2"/>
       <c r="N551" s="2"/>
     </row>
-    <row r="552" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H552" s="2"/>
       <c r="N552" s="2"/>
     </row>
-    <row r="553" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H553" s="2"/>
       <c r="N553" s="2"/>
     </row>
-    <row r="554" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H554" s="2"/>
       <c r="N554" s="2"/>
     </row>
-    <row r="555" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H555" s="2"/>
       <c r="N555" s="2"/>
     </row>
-    <row r="556" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H556" s="2"/>
       <c r="N556" s="2"/>
     </row>
-    <row r="557" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H557" s="2"/>
       <c r="N557" s="2"/>
     </row>
-    <row r="558" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H558" s="2"/>
       <c r="N558" s="2"/>
     </row>
-    <row r="559" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H559" s="2"/>
       <c r="N559" s="2"/>
     </row>
-    <row r="560" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H560" s="2"/>
       <c r="N560" s="2"/>
     </row>
-    <row r="561" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H561" s="2"/>
       <c r="N561" s="2"/>
     </row>
-    <row r="562" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H562" s="2"/>
       <c r="N562" s="2"/>
     </row>
-    <row r="563" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H563" s="2"/>
       <c r="N563" s="2"/>
     </row>
-    <row r="564" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H564" s="2"/>
       <c r="N564" s="2"/>
     </row>
-    <row r="565" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H565" s="2"/>
       <c r="N565" s="2"/>
     </row>
-    <row r="566" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H566" s="2"/>
       <c r="N566" s="2"/>
     </row>
-    <row r="567" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H567" s="2"/>
       <c r="N567" s="2"/>
     </row>
-    <row r="568" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H568" s="2"/>
       <c r="N568" s="2"/>
     </row>
-    <row r="569" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H569" s="2"/>
       <c r="N569" s="2"/>
     </row>
-    <row r="570" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H570" s="2"/>
       <c r="N570" s="2"/>
     </row>
-    <row r="571" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H571" s="2"/>
       <c r="N571" s="2"/>
     </row>
-    <row r="572" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H572" s="2"/>
       <c r="N572" s="2"/>
     </row>
-    <row r="573" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H573" s="2"/>
       <c r="N573" s="2"/>
     </row>
-    <row r="574" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H574" s="2"/>
       <c r="N574" s="2"/>
     </row>
-    <row r="575" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H575" s="2"/>
       <c r="N575" s="2"/>
     </row>
-    <row r="576" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H576" s="2"/>
       <c r="N576" s="2"/>
     </row>
-    <row r="577" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H577" s="2"/>
       <c r="N577" s="2"/>
     </row>
-    <row r="578" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H578" s="2"/>
       <c r="N578" s="2"/>
     </row>
-    <row r="579" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H579" s="2"/>
       <c r="N579" s="2"/>
     </row>
-    <row r="580" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H580" s="2"/>
       <c r="N580" s="2"/>
     </row>
-    <row r="581" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H581" s="2"/>
       <c r="N581" s="2"/>
     </row>
-    <row r="582" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H582" s="2"/>
       <c r="N582" s="2"/>
     </row>
-    <row r="583" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H583" s="2"/>
       <c r="N583" s="2"/>
     </row>
-    <row r="584" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H584" s="2"/>
       <c r="N584" s="2"/>
     </row>
-    <row r="585" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H585" s="2"/>
       <c r="N585" s="2"/>
     </row>
-    <row r="586" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H586" s="2"/>
       <c r="N586" s="2"/>
     </row>
-    <row r="587" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H587" s="2"/>
       <c r="N587" s="2"/>
     </row>
-    <row r="588" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H588" s="2"/>
       <c r="N588" s="2"/>
     </row>
-    <row r="589" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H589" s="2"/>
       <c r="N589" s="2"/>
     </row>
-    <row r="590" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H590" s="2"/>
       <c r="N590" s="2"/>
     </row>
-    <row r="591" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H591" s="2"/>
       <c r="N591" s="2"/>
     </row>
-    <row r="592" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H592" s="2"/>
       <c r="N592" s="2"/>
     </row>
-    <row r="593" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H593" s="2"/>
       <c r="N593" s="2"/>
     </row>
-    <row r="594" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H594" s="2"/>
       <c r="N594" s="2"/>
     </row>
-    <row r="595" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H595" s="2"/>
       <c r="N595" s="2"/>
     </row>
-    <row r="596" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H596" s="2"/>
       <c r="N596" s="2"/>
     </row>
-    <row r="597" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H597" s="2"/>
       <c r="N597" s="2"/>
     </row>
-    <row r="598" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H598" s="2"/>
       <c r="N598" s="2"/>
     </row>
-    <row r="599" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H599" s="2"/>
       <c r="N599" s="2"/>
     </row>
-    <row r="600" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H600" s="2"/>
       <c r="N600" s="2"/>
     </row>
-    <row r="601" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H601" s="2"/>
       <c r="N601" s="2"/>
     </row>
-    <row r="602" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H602" s="2"/>
       <c r="N602" s="2"/>
     </row>
-    <row r="603" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H603" s="2"/>
       <c r="N603" s="2"/>
     </row>
-    <row r="604" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H604" s="2"/>
       <c r="N604" s="2"/>
     </row>
-    <row r="605" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H605" s="2"/>
       <c r="N605" s="2"/>
     </row>
-    <row r="606" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H606" s="2"/>
       <c r="N606" s="2"/>
     </row>
-    <row r="607" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H607" s="2"/>
       <c r="N607" s="2"/>
     </row>
-    <row r="608" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="608" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H608" s="2"/>
       <c r="N608" s="2"/>
     </row>
-    <row r="609" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H609" s="2"/>
       <c r="N609" s="2"/>
     </row>
-    <row r="610" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="610" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H610" s="2"/>
       <c r="N610" s="2"/>
     </row>
-    <row r="611" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H611" s="2"/>
       <c r="N611" s="2"/>
     </row>
-    <row r="612" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H612" s="2"/>
       <c r="N612" s="2"/>
     </row>
-    <row r="613" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H613" s="2"/>
       <c r="N613" s="2"/>
     </row>
-    <row r="614" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H614" s="2"/>
       <c r="N614" s="2"/>
     </row>
-    <row r="615" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H615" s="2"/>
       <c r="N615" s="2"/>
     </row>
-    <row r="616" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H616" s="2"/>
       <c r="N616" s="2"/>
     </row>
-    <row r="617" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H617" s="2"/>
       <c r="N617" s="2"/>
     </row>
-    <row r="618" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H618" s="2"/>
       <c r="N618" s="2"/>
     </row>
-    <row r="619" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H619" s="2"/>
       <c r="N619" s="2"/>
     </row>
-    <row r="620" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="620" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H620" s="2"/>
       <c r="N620" s="2"/>
     </row>
-    <row r="621" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H621" s="2"/>
       <c r="N621" s="2"/>
     </row>
-    <row r="622" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="622" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H622" s="2"/>
       <c r="N622" s="2"/>
     </row>
-    <row r="623" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H623" s="2"/>
       <c r="N623" s="2"/>
     </row>
-    <row r="624" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H624" s="2"/>
       <c r="N624" s="2"/>
     </row>
-    <row r="625" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H625" s="2"/>
       <c r="N625" s="2"/>
     </row>
-    <row r="626" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H626" s="2"/>
       <c r="N626" s="2"/>
     </row>
-    <row r="627" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H627" s="2"/>
       <c r="N627" s="2"/>
     </row>
-    <row r="628" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H628" s="2"/>
       <c r="N628" s="2"/>
     </row>
-    <row r="629" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H629" s="2"/>
       <c r="N629" s="2"/>
     </row>
-    <row r="630" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H630" s="2"/>
       <c r="N630" s="2"/>
     </row>
-    <row r="631" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H631" s="2"/>
       <c r="N631" s="2"/>
     </row>
-    <row r="632" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H632" s="2"/>
       <c r="N632" s="2"/>
     </row>
-    <row r="633" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H633" s="2"/>
       <c r="N633" s="2"/>
     </row>
-    <row r="634" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H634" s="2"/>
       <c r="N634" s="2"/>
     </row>
-    <row r="635" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H635" s="2"/>
       <c r="N635" s="2"/>
     </row>
-    <row r="636" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H636" s="2"/>
       <c r="N636" s="2"/>
     </row>
-    <row r="637" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H637" s="2"/>
       <c r="N637" s="2"/>
     </row>
-    <row r="638" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H638" s="2"/>
       <c r="N638" s="2"/>
     </row>
-    <row r="639" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H639" s="2"/>
       <c r="N639" s="2"/>
     </row>
-    <row r="640" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H640" s="2"/>
       <c r="N640" s="2"/>
     </row>
-    <row r="641" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="641" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H641" s="2"/>
       <c r="N641" s="2"/>
     </row>
-    <row r="642" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="642" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H642" s="2"/>
       <c r="N642" s="2"/>
     </row>
-    <row r="643" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="643" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H643" s="2"/>
       <c r="N643" s="2"/>
     </row>
-    <row r="644" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="644" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H644" s="2"/>
       <c r="N644" s="2"/>
     </row>
-    <row r="645" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="645" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H645" s="2"/>
       <c r="N645" s="2"/>
     </row>
-    <row r="646" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="646" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H646" s="2"/>
       <c r="N646" s="2"/>
     </row>
-    <row r="647" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="647" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H647" s="2"/>
       <c r="N647" s="2"/>
     </row>
-    <row r="648" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="648" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H648" s="2"/>
       <c r="N648" s="2"/>
     </row>
-    <row r="649" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="649" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H649" s="2"/>
       <c r="N649" s="2"/>
     </row>
-    <row r="650" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="650" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H650" s="2"/>
       <c r="N650" s="2"/>
     </row>
-    <row r="651" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="651" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H651" s="2"/>
       <c r="N651" s="2"/>
     </row>
-    <row r="652" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="652" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H652" s="2"/>
       <c r="N652" s="2"/>
     </row>
-    <row r="653" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="653" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H653" s="2"/>
       <c r="N653" s="2"/>
     </row>
-    <row r="654" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="654" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H654" s="2"/>
       <c r="N654" s="2"/>
     </row>
-    <row r="655" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="655" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H655" s="2"/>
       <c r="N655" s="2"/>
     </row>
-    <row r="656" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="656" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H656" s="2"/>
       <c r="N656" s="2"/>
     </row>
-    <row r="657" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H657" s="2"/>
       <c r="N657" s="2"/>
     </row>
-    <row r="658" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H658" s="2"/>
       <c r="N658" s="2"/>
     </row>
-    <row r="659" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H659" s="2"/>
       <c r="N659" s="2"/>
     </row>
-    <row r="660" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="660" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H660" s="2"/>
       <c r="N660" s="2"/>
     </row>
-    <row r="661" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H661" s="2"/>
       <c r="N661" s="2"/>
     </row>
-    <row r="662" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H662" s="2"/>
       <c r="N662" s="2"/>
     </row>
-    <row r="663" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="663" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H663" s="2"/>
       <c r="N663" s="2"/>
     </row>
-    <row r="664" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H664" s="2"/>
       <c r="N664" s="2"/>
     </row>
-    <row r="665" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H665" s="2"/>
       <c r="N665" s="2"/>
     </row>
-    <row r="666" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H666" s="2"/>
       <c r="N666" s="2"/>
     </row>
-    <row r="667" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H667" s="2"/>
       <c r="N667" s="2"/>
     </row>
-    <row r="668" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H668" s="2"/>
       <c r="N668" s="2"/>
     </row>
-    <row r="669" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="669" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H669" s="2"/>
       <c r="N669" s="2"/>
     </row>
-    <row r="670" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H670" s="2"/>
       <c r="N670" s="2"/>
     </row>
-    <row r="671" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H671" s="2"/>
       <c r="N671" s="2"/>
     </row>
-    <row r="672" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H672" s="2"/>
       <c r="N672" s="2"/>
     </row>
-    <row r="673" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H673" s="2"/>
       <c r="N673" s="2"/>
     </row>
-    <row r="674" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H674" s="2"/>
       <c r="N674" s="2"/>
     </row>
-    <row r="675" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H675" s="2"/>
       <c r="N675" s="2"/>
     </row>
-    <row r="676" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H676" s="2"/>
       <c r="N676" s="2"/>
     </row>
-    <row r="677" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H677" s="2"/>
       <c r="N677" s="2"/>
     </row>
-    <row r="678" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H678" s="2"/>
       <c r="N678" s="2"/>
     </row>
-    <row r="679" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H679" s="2"/>
       <c r="N679" s="2"/>
     </row>
-    <row r="680" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H680" s="2"/>
       <c r="N680" s="2"/>
     </row>
-    <row r="681" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H681" s="2"/>
       <c r="N681" s="2"/>
     </row>
-    <row r="682" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H682" s="2"/>
       <c r="N682" s="2"/>
     </row>
-    <row r="683" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H683" s="2"/>
       <c r="N683" s="2"/>
     </row>
-    <row r="684" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H684" s="2"/>
       <c r="N684" s="2"/>
     </row>
-    <row r="685" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H685" s="2"/>
       <c r="N685" s="2"/>
     </row>
-    <row r="686" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="686" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H686" s="2"/>
       <c r="N686" s="2"/>
     </row>
-    <row r="687" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="687" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H687" s="2"/>
       <c r="N687" s="2"/>
     </row>
-    <row r="688" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H688" s="2"/>
       <c r="N688" s="2"/>
     </row>
-    <row r="689" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H689" s="2"/>
       <c r="N689" s="2"/>
     </row>
-    <row r="690" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H690" s="2"/>
       <c r="N690" s="2"/>
     </row>
-    <row r="691" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H691" s="2"/>
       <c r="N691" s="2"/>
     </row>
-    <row r="692" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="692" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H692" s="2"/>
       <c r="N692" s="2"/>
     </row>
-    <row r="693" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H693" s="2"/>
       <c r="N693" s="2"/>
     </row>
-    <row r="694" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H694" s="2"/>
       <c r="N694" s="2"/>
     </row>
-    <row r="695" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H695" s="2"/>
       <c r="N695" s="2"/>
     </row>
-    <row r="696" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H696" s="2"/>
       <c r="N696" s="2"/>
     </row>
-    <row r="697" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H697" s="2"/>
       <c r="N697" s="2"/>
     </row>
-    <row r="698" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H698" s="2"/>
       <c r="N698" s="2"/>
     </row>
-    <row r="699" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H699" s="2"/>
       <c r="N699" s="2"/>
     </row>
-    <row r="700" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H700" s="2"/>
       <c r="N700" s="2"/>
     </row>
-    <row r="701" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H701" s="2"/>
       <c r="N701" s="2"/>
     </row>
-    <row r="702" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H702" s="2"/>
       <c r="N702" s="2"/>
     </row>
-    <row r="703" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H703" s="2"/>
       <c r="N703" s="2"/>
     </row>
-    <row r="704" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H704" s="2"/>
       <c r="N704" s="2"/>
     </row>
-    <row r="705" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="705" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H705" s="2"/>
       <c r="N705" s="2"/>
     </row>
-    <row r="706" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="706" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H706" s="2"/>
       <c r="N706" s="2"/>
     </row>
-    <row r="707" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="707" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H707" s="2"/>
       <c r="N707" s="2"/>
     </row>
-    <row r="708" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="708" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H708" s="2"/>
       <c r="N708" s="2"/>
     </row>
-    <row r="709" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="709" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H709" s="2"/>
       <c r="N709" s="2"/>
     </row>
-    <row r="710" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="710" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H710" s="2"/>
       <c r="N710" s="2"/>
     </row>
-    <row r="711" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="711" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H711" s="2"/>
       <c r="N711" s="2"/>
     </row>
-    <row r="712" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="712" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H712" s="2"/>
       <c r="N712" s="2"/>
     </row>
-    <row r="713" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="713" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H713" s="2"/>
       <c r="N713" s="2"/>
     </row>
-    <row r="714" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="714" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H714" s="2"/>
       <c r="N714" s="2"/>
     </row>
-    <row r="715" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="715" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H715" s="2"/>
       <c r="N715" s="2"/>
     </row>
-    <row r="716" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="716" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H716" s="2"/>
       <c r="N716" s="2"/>
     </row>
-    <row r="717" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="717" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H717" s="2"/>
       <c r="N717" s="2"/>
     </row>
-    <row r="718" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="718" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H718" s="2"/>
       <c r="N718" s="2"/>
     </row>
-    <row r="719" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="719" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H719" s="2"/>
       <c r="N719" s="2"/>
     </row>
-    <row r="720" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="720" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H720" s="2"/>
       <c r="N720" s="2"/>
     </row>
-    <row r="721" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H721" s="2"/>
       <c r="N721" s="2"/>
     </row>
-    <row r="722" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H722" s="2"/>
       <c r="N722" s="2"/>
     </row>
-    <row r="723" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H723" s="2"/>
       <c r="N723" s="2"/>
     </row>
-    <row r="724" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H724" s="2"/>
       <c r="N724" s="2"/>
     </row>
-    <row r="725" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H725" s="2"/>
       <c r="N725" s="2"/>
     </row>
-    <row r="726" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="726" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H726" s="2"/>
       <c r="N726" s="2"/>
     </row>
-    <row r="727" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H727" s="2"/>
       <c r="N727" s="2"/>
     </row>
-    <row r="728" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="728" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H728" s="2"/>
       <c r="N728" s="2"/>
     </row>
-    <row r="729" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="729" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H729" s="2"/>
       <c r="N729" s="2"/>
     </row>
-    <row r="730" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="730" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H730" s="2"/>
       <c r="N730" s="2"/>
     </row>
-    <row r="731" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="731" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H731" s="2"/>
       <c r="N731" s="2"/>
     </row>
-    <row r="732" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="732" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H732" s="2"/>
       <c r="N732" s="2"/>
     </row>
-    <row r="733" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="733" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H733" s="2"/>
       <c r="N733" s="2"/>
     </row>
-    <row r="734" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="734" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H734" s="2"/>
       <c r="N734" s="2"/>
     </row>
-    <row r="735" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="735" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H735" s="2"/>
       <c r="N735" s="2"/>
     </row>
-    <row r="736" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="736" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H736" s="2"/>
       <c r="N736" s="2"/>
     </row>
-    <row r="737" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="737" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H737" s="2"/>
       <c r="N737" s="2"/>
     </row>
-    <row r="738" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="738" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H738" s="2"/>
       <c r="N738" s="2"/>
     </row>
-    <row r="739" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="739" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H739" s="2"/>
       <c r="N739" s="2"/>
     </row>
-    <row r="740" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="740" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H740" s="2"/>
       <c r="N740" s="2"/>
     </row>
-    <row r="741" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="741" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H741" s="2"/>
       <c r="N741" s="2"/>
     </row>
-    <row r="742" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="742" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H742" s="2"/>
       <c r="N742" s="2"/>
     </row>
-    <row r="743" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="743" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H743" s="2"/>
       <c r="N743" s="2"/>
     </row>
-    <row r="744" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="744" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H744" s="2"/>
       <c r="N744" s="2"/>
     </row>
-    <row r="745" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="745" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H745" s="2"/>
       <c r="N745" s="2"/>
     </row>
-    <row r="746" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="746" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H746" s="2"/>
       <c r="N746" s="2"/>
     </row>
-    <row r="747" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="747" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H747" s="2"/>
       <c r="N747" s="2"/>
     </row>
-    <row r="748" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="748" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H748" s="2"/>
       <c r="N748" s="2"/>
     </row>
-    <row r="749" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="749" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H749" s="2"/>
       <c r="N749" s="2"/>
     </row>
-    <row r="750" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="750" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H750" s="2"/>
       <c r="N750" s="2"/>
     </row>
-    <row r="751" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="751" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H751" s="2"/>
       <c r="N751" s="2"/>
     </row>
-    <row r="752" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="752" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H752" s="2"/>
       <c r="N752" s="2"/>
     </row>
-    <row r="753" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="753" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H753" s="2"/>
       <c r="N753" s="2"/>
     </row>
-    <row r="754" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="754" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H754" s="2"/>
       <c r="N754" s="2"/>
     </row>
-    <row r="755" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="755" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H755" s="2"/>
       <c r="N755" s="2"/>
     </row>
-    <row r="756" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="756" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H756" s="2"/>
       <c r="N756" s="2"/>
     </row>
-    <row r="757" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="757" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H757" s="2"/>
       <c r="N757" s="2"/>
     </row>
-    <row r="758" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="758" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H758" s="2"/>
       <c r="N758" s="2"/>
     </row>
-    <row r="759" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="759" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H759" s="2"/>
       <c r="N759" s="2"/>
     </row>
-    <row r="760" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="760" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H760" s="2"/>
       <c r="N760" s="2"/>
     </row>
-    <row r="761" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="761" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H761" s="2"/>
       <c r="N761" s="2"/>
     </row>
-    <row r="762" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="762" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H762" s="2"/>
       <c r="N762" s="2"/>
     </row>
-    <row r="763" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="763" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H763" s="2"/>
       <c r="N763" s="2"/>
     </row>
-    <row r="764" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="764" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H764" s="2"/>
       <c r="N764" s="2"/>
     </row>
-    <row r="765" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="765" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H765" s="2"/>
       <c r="N765" s="2"/>
     </row>
-    <row r="766" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="766" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H766" s="2"/>
       <c r="N766" s="2"/>
     </row>
-    <row r="767" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="767" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H767" s="2"/>
       <c r="N767" s="2"/>
     </row>
-    <row r="768" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="768" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H768" s="2"/>
       <c r="N768" s="2"/>
     </row>
-    <row r="769" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="769" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H769" s="2"/>
       <c r="N769" s="2"/>
     </row>
-    <row r="770" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H770" s="2"/>
       <c r="N770" s="2"/>
     </row>
-    <row r="771" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H771" s="2"/>
       <c r="N771" s="2"/>
     </row>
-    <row r="772" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H772" s="2"/>
       <c r="N772" s="2"/>
     </row>
-    <row r="773" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H773" s="2"/>
       <c r="N773" s="2"/>
     </row>
-    <row r="774" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="774" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H774" s="2"/>
       <c r="N774" s="2"/>
     </row>
-    <row r="775" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H775" s="2"/>
       <c r="N775" s="2"/>
     </row>
-    <row r="776" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H776" s="2"/>
       <c r="N776" s="2"/>
     </row>
-    <row r="777" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H777" s="2"/>
       <c r="N777" s="2"/>
     </row>
-    <row r="778" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H778" s="2"/>
       <c r="N778" s="2"/>
     </row>
-    <row r="779" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H779" s="2"/>
       <c r="N779" s="2"/>
     </row>
-    <row r="780" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="780" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H780" s="2"/>
       <c r="N780" s="2"/>
     </row>
-    <row r="781" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="781" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H781" s="2"/>
       <c r="N781" s="2"/>
     </row>
-    <row r="782" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="782" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H782" s="2"/>
       <c r="N782" s="2"/>
     </row>
-    <row r="783" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="783" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H783" s="2"/>
       <c r="N783" s="2"/>
     </row>
-    <row r="784" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="784" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H784" s="2"/>
       <c r="N784" s="2"/>
     </row>
-    <row r="785" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H785" s="2"/>
       <c r="N785" s="2"/>
     </row>
-    <row r="786" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H786" s="2"/>
       <c r="N786" s="2"/>
     </row>
-    <row r="787" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H787" s="2"/>
       <c r="N787" s="2"/>
     </row>
-    <row r="788" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H788" s="2"/>
       <c r="N788" s="2"/>
     </row>
-    <row r="789" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H789" s="2"/>
       <c r="N789" s="2"/>
     </row>
-    <row r="790" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H790" s="2"/>
       <c r="N790" s="2"/>
     </row>
-    <row r="791" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H791" s="2"/>
       <c r="N791" s="2"/>
     </row>
-    <row r="792" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H792" s="2"/>
       <c r="N792" s="2"/>
     </row>
-    <row r="793" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H793" s="2"/>
       <c r="N793" s="2"/>
     </row>
-    <row r="794" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H794" s="2"/>
       <c r="N794" s="2"/>
     </row>
-    <row r="795" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H795" s="2"/>
       <c r="N795" s="2"/>
     </row>
-    <row r="796" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H796" s="2"/>
       <c r="N796" s="2"/>
     </row>
-    <row r="797" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H797" s="2"/>
       <c r="N797" s="2"/>
     </row>
-    <row r="798" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H798" s="2"/>
       <c r="N798" s="2"/>
     </row>
-    <row r="799" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H799" s="2"/>
       <c r="N799" s="2"/>
     </row>
-    <row r="800" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H800" s="2"/>
       <c r="N800" s="2"/>
     </row>
-    <row r="801" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H801" s="2"/>
       <c r="N801" s="2"/>
     </row>
-    <row r="802" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="802" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H802" s="2"/>
       <c r="N802" s="2"/>
     </row>
-    <row r="803" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H803" s="2"/>
       <c r="N803" s="2"/>
     </row>
-    <row r="804" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H804" s="2"/>
       <c r="N804" s="2"/>
     </row>
-    <row r="805" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H805" s="2"/>
       <c r="N805" s="2"/>
     </row>
-    <row r="806" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H806" s="2"/>
       <c r="N806" s="2"/>
     </row>
-    <row r="807" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="807" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H807" s="2"/>
       <c r="N807" s="2"/>
     </row>
-    <row r="808" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H808" s="2"/>
       <c r="N808" s="2"/>
     </row>
-    <row r="809" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H809" s="2"/>
       <c r="N809" s="2"/>
     </row>
-    <row r="810" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H810" s="2"/>
       <c r="N810" s="2"/>
     </row>
-    <row r="811" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="811" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H811" s="2"/>
       <c r="N811" s="2"/>
     </row>
-    <row r="812" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H812" s="2"/>
       <c r="N812" s="2"/>
     </row>
-    <row r="813" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H813" s="2"/>
       <c r="N813" s="2"/>
     </row>
-    <row r="814" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="814" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H814" s="2"/>
       <c r="N814" s="2"/>
     </row>
-    <row r="815" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H815" s="2"/>
       <c r="N815" s="2"/>
     </row>
-    <row r="816" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H816" s="2"/>
       <c r="N816" s="2"/>
     </row>
-    <row r="817" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="817" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H817" s="2"/>
       <c r="N817" s="2"/>
     </row>
-    <row r="818" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="818" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H818" s="2"/>
       <c r="N818" s="2"/>
     </row>
-    <row r="819" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="819" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H819" s="2"/>
       <c r="N819" s="2"/>
     </row>
-    <row r="820" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="820" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H820" s="2"/>
       <c r="N820" s="2"/>
     </row>
-    <row r="821" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="821" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H821" s="2"/>
       <c r="N821" s="2"/>
     </row>
-    <row r="822" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="822" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H822" s="2"/>
       <c r="N822" s="2"/>
     </row>
-    <row r="823" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="823" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H823" s="2"/>
       <c r="N823" s="2"/>
     </row>
-    <row r="824" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="824" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H824" s="2"/>
       <c r="N824" s="2"/>
     </row>
-    <row r="825" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="825" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H825" s="2"/>
       <c r="N825" s="2"/>
     </row>
-    <row r="826" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="826" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H826" s="2"/>
       <c r="N826" s="2"/>
     </row>
-    <row r="827" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="827" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H827" s="2"/>
       <c r="N827" s="2"/>
     </row>
-    <row r="828" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="828" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H828" s="2"/>
       <c r="N828" s="2"/>
     </row>
-    <row r="829" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="829" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H829" s="2"/>
       <c r="N829" s="2"/>
     </row>
-    <row r="830" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="830" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H830" s="2"/>
       <c r="N830" s="2"/>
     </row>
-    <row r="831" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="831" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H831" s="2"/>
       <c r="N831" s="2"/>
     </row>
-    <row r="832" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="832" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H832" s="2"/>
       <c r="N832" s="2"/>
     </row>
-    <row r="833" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="833" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H833" s="2"/>
       <c r="N833" s="2"/>
     </row>
-    <row r="834" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="834" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H834" s="2"/>
       <c r="N834" s="2"/>
     </row>
-    <row r="835" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="835" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H835" s="2"/>
       <c r="N835" s="2"/>
     </row>
-    <row r="836" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="836" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H836" s="2"/>
       <c r="N836" s="2"/>
     </row>
-    <row r="837" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="837" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H837" s="2"/>
       <c r="N837" s="2"/>
     </row>
-    <row r="838" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="838" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H838" s="2"/>
       <c r="N838" s="2"/>
     </row>
-    <row r="839" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="839" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H839" s="2"/>
       <c r="N839" s="2"/>
     </row>
-    <row r="840" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="840" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H840" s="2"/>
       <c r="N840" s="2"/>
     </row>
-    <row r="841" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="841" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H841" s="2"/>
       <c r="N841" s="2"/>
     </row>
-    <row r="842" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="842" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H842" s="2"/>
       <c r="N842" s="2"/>
     </row>
-    <row r="843" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="843" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H843" s="2"/>
       <c r="N843" s="2"/>
     </row>
-    <row r="844" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="844" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H844" s="2"/>
       <c r="N844" s="2"/>
     </row>
-    <row r="845" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="845" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H845" s="2"/>
       <c r="N845" s="2"/>
     </row>
-    <row r="846" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="846" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H846" s="2"/>
       <c r="N846" s="2"/>
     </row>
-    <row r="847" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="847" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H847" s="2"/>
       <c r="N847" s="2"/>
     </row>
-    <row r="848" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="848" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H848" s="2"/>
       <c r="N848" s="2"/>
     </row>
-    <row r="849" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="849" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H849" s="2"/>
       <c r="N849" s="2"/>
     </row>
-    <row r="850" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="850" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H850" s="2"/>
       <c r="N850" s="2"/>
     </row>
-    <row r="851" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="851" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H851" s="2"/>
       <c r="N851" s="2"/>
     </row>
-    <row r="852" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="852" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H852" s="2"/>
       <c r="N852" s="2"/>
     </row>
-    <row r="853" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="853" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H853" s="2"/>
       <c r="N853" s="2"/>
     </row>
-    <row r="854" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="854" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H854" s="2"/>
       <c r="N854" s="2"/>
     </row>
-    <row r="855" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="855" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H855" s="2"/>
       <c r="N855" s="2"/>
     </row>
-    <row r="856" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="856" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H856" s="2"/>
       <c r="N856" s="2"/>
     </row>
-    <row r="857" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="857" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H857" s="2"/>
       <c r="N857" s="2"/>
     </row>
-    <row r="858" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="858" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H858" s="2"/>
       <c r="N858" s="2"/>
     </row>
-    <row r="859" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="859" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H859" s="2"/>
       <c r="N859" s="2"/>
     </row>
-    <row r="860" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="860" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H860" s="2"/>
       <c r="N860" s="2"/>
     </row>
-    <row r="861" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="861" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H861" s="2"/>
       <c r="N861" s="2"/>
     </row>
-    <row r="862" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="862" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H862" s="2"/>
       <c r="N862" s="2"/>
     </row>
-    <row r="863" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="863" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H863" s="2"/>
       <c r="N863" s="2"/>
     </row>
-    <row r="864" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="864" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H864" s="2"/>
       <c r="N864" s="2"/>
     </row>
-    <row r="865" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="865" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H865" s="2"/>
       <c r="N865" s="2"/>
     </row>
-    <row r="866" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="866" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H866" s="2"/>
       <c r="N866" s="2"/>
     </row>
-    <row r="867" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="867" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H867" s="2"/>
       <c r="N867" s="2"/>
     </row>
-    <row r="868" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="868" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H868" s="2"/>
       <c r="N868" s="2"/>
     </row>
-    <row r="869" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="869" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H869" s="2"/>
       <c r="N869" s="2"/>
     </row>
-    <row r="870" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="870" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H870" s="2"/>
       <c r="N870" s="2"/>
     </row>
-    <row r="871" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="871" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H871" s="2"/>
       <c r="N871" s="2"/>
     </row>
-    <row r="872" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="872" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H872" s="2"/>
       <c r="N872" s="2"/>
     </row>
-    <row r="873" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="873" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H873" s="2"/>
       <c r="N873" s="2"/>
     </row>
-    <row r="874" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="874" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H874" s="2"/>
       <c r="N874" s="2"/>
     </row>
-    <row r="875" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="875" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H875" s="2"/>
       <c r="N875" s="2"/>
     </row>
-    <row r="876" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="876" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H876" s="2"/>
       <c r="N876" s="2"/>
     </row>
-    <row r="877" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="877" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H877" s="2"/>
       <c r="N877" s="2"/>
     </row>
-    <row r="878" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="878" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H878" s="2"/>
       <c r="N878" s="2"/>
     </row>
-    <row r="879" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="879" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H879" s="2"/>
       <c r="N879" s="2"/>
     </row>
-    <row r="880" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="880" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H880" s="2"/>
       <c r="N880" s="2"/>
     </row>
-    <row r="881" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="881" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H881" s="2"/>
       <c r="N881" s="2"/>
     </row>
-    <row r="882" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="882" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H882" s="2"/>
       <c r="N882" s="2"/>
     </row>
-    <row r="883" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="883" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H883" s="2"/>
       <c r="N883" s="2"/>
     </row>
-    <row r="884" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="884" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H884" s="2"/>
       <c r="N884" s="2"/>
     </row>
-    <row r="885" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="885" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H885" s="2"/>
       <c r="N885" s="2"/>
     </row>
-    <row r="886" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="886" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H886" s="2"/>
       <c r="N886" s="2"/>
     </row>
-    <row r="887" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="887" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H887" s="2"/>
       <c r="N887" s="2"/>
     </row>
-    <row r="888" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="888" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H888" s="2"/>
       <c r="N888" s="2"/>
     </row>
-    <row r="889" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="889" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H889" s="2"/>
       <c r="N889" s="2"/>
     </row>
-    <row r="890" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="890" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H890" s="2"/>
       <c r="N890" s="2"/>
     </row>
-    <row r="891" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="891" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H891" s="2"/>
       <c r="N891" s="2"/>
     </row>
-    <row r="892" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="892" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H892" s="2"/>
       <c r="N892" s="2"/>
     </row>
-    <row r="893" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="893" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H893" s="2"/>
       <c r="N893" s="2"/>
     </row>
-    <row r="894" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="894" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H894" s="2"/>
       <c r="N894" s="2"/>
     </row>
-    <row r="895" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="895" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H895" s="2"/>
       <c r="N895" s="2"/>
     </row>
-    <row r="896" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="896" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H896" s="2"/>
       <c r="N896" s="2"/>
     </row>
-    <row r="897" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="897" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H897" s="2"/>
       <c r="N897" s="2"/>
     </row>
-    <row r="898" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="898" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H898" s="2"/>
       <c r="N898" s="2"/>
     </row>
-    <row r="899" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="899" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H899" s="2"/>
       <c r="N899" s="2"/>
     </row>
-    <row r="900" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="900" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H900" s="2"/>
       <c r="N900" s="2"/>
     </row>
-    <row r="901" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="901" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H901" s="2"/>
       <c r="N901" s="2"/>
     </row>
-    <row r="902" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="902" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H902" s="2"/>
       <c r="N902" s="2"/>
     </row>
-    <row r="903" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="903" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H903" s="2"/>
       <c r="N903" s="2"/>
     </row>
-    <row r="904" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="904" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H904" s="2"/>
       <c r="N904" s="2"/>
     </row>
-    <row r="905" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="905" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H905" s="2"/>
       <c r="N905" s="2"/>
     </row>
-    <row r="906" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="906" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H906" s="2"/>
       <c r="N906" s="2"/>
     </row>
-    <row r="907" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="907" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H907" s="2"/>
       <c r="N907" s="2"/>
     </row>
-    <row r="908" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="908" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H908" s="2"/>
       <c r="N908" s="2"/>
     </row>
-    <row r="909" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="909" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H909" s="2"/>
       <c r="N909" s="2"/>
     </row>
-    <row r="910" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="910" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H910" s="2"/>
       <c r="N910" s="2"/>
     </row>
-    <row r="911" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="911" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H911" s="2"/>
       <c r="N911" s="2"/>
     </row>
-    <row r="912" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="912" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H912" s="2"/>
       <c r="N912" s="2"/>
     </row>
-    <row r="913" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="913" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H913" s="2"/>
       <c r="N913" s="2"/>
     </row>
-    <row r="914" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="914" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H914" s="2"/>
       <c r="N914" s="2"/>
     </row>
-    <row r="915" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="915" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H915" s="2"/>
       <c r="N915" s="2"/>
     </row>
-    <row r="916" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="916" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H916" s="2"/>
       <c r="N916" s="2"/>
     </row>
-    <row r="917" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="917" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H917" s="2"/>
       <c r="N917" s="2"/>
     </row>
-    <row r="918" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="918" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H918" s="2"/>
       <c r="N918" s="2"/>
     </row>
-    <row r="919" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="919" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H919" s="2"/>
       <c r="N919" s="2"/>
     </row>
-    <row r="920" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="920" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H920" s="2"/>
       <c r="N920" s="2"/>
     </row>
-    <row r="921" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="921" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H921" s="2"/>
       <c r="N921" s="2"/>
     </row>
-    <row r="922" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="922" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H922" s="2"/>
       <c r="N922" s="2"/>
     </row>
-    <row r="923" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="923" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H923" s="2"/>
       <c r="N923" s="2"/>
     </row>
-    <row r="924" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="924" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H924" s="2"/>
       <c r="N924" s="2"/>
     </row>
-    <row r="925" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="925" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H925" s="2"/>
       <c r="N925" s="2"/>
     </row>
-    <row r="926" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="926" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H926" s="2"/>
       <c r="N926" s="2"/>
     </row>
-    <row r="927" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="927" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H927" s="2"/>
       <c r="N927" s="2"/>
     </row>
-    <row r="928" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="928" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H928" s="2"/>
       <c r="N928" s="2"/>
     </row>
-    <row r="929" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="929" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H929" s="2"/>
       <c r="N929" s="2"/>
     </row>
-    <row r="930" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="930" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H930" s="2"/>
       <c r="N930" s="2"/>
     </row>
-    <row r="931" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="931" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H931" s="2"/>
       <c r="N931" s="2"/>
     </row>
-    <row r="932" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="932" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H932" s="2"/>
       <c r="N932" s="2"/>
     </row>
-    <row r="933" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="933" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H933" s="2"/>
       <c r="N933" s="2"/>
     </row>
-    <row r="934" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="934" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H934" s="2"/>
       <c r="N934" s="2"/>
     </row>
-    <row r="935" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="935" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H935" s="2"/>
       <c r="N935" s="2"/>
     </row>
-    <row r="936" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="936" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H936" s="2"/>
       <c r="N936" s="2"/>
     </row>
-    <row r="937" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="937" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H937" s="2"/>
       <c r="N937" s="2"/>
     </row>
-    <row r="938" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="938" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H938" s="2"/>
       <c r="N938" s="2"/>
     </row>
-    <row r="939" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="939" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H939" s="2"/>
       <c r="N939" s="2"/>
     </row>
-    <row r="940" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="940" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H940" s="2"/>
       <c r="N940" s="2"/>
     </row>
-    <row r="941" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="941" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H941" s="2"/>
       <c r="N941" s="2"/>
     </row>
-    <row r="942" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="942" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H942" s="2"/>
       <c r="N942" s="2"/>
     </row>
-    <row r="943" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="943" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H943" s="2"/>
       <c r="N943" s="2"/>
     </row>
-    <row r="944" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="944" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H944" s="2"/>
       <c r="N944" s="2"/>
     </row>
-    <row r="945" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="945" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H945" s="2"/>
       <c r="N945" s="2"/>
     </row>
-    <row r="946" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="946" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H946" s="2"/>
       <c r="N946" s="2"/>
     </row>
-    <row r="947" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="947" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H947" s="2"/>
       <c r="N947" s="2"/>
     </row>
-    <row r="948" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="948" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H948" s="2"/>
       <c r="N948" s="2"/>
     </row>
-    <row r="949" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="949" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H949" s="2"/>
       <c r="N949" s="2"/>
     </row>
-    <row r="950" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="950" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H950" s="2"/>
       <c r="N950" s="2"/>
     </row>
-    <row r="951" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="951" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H951" s="2"/>
       <c r="N951" s="2"/>
     </row>
-    <row r="952" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="952" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H952" s="2"/>
       <c r="N952" s="2"/>
     </row>
-    <row r="953" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="953" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H953" s="2"/>
       <c r="N953" s="2"/>
     </row>
-    <row r="954" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="954" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H954" s="2"/>
       <c r="N954" s="2"/>
     </row>
-    <row r="955" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="955" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H955" s="2"/>
       <c r="N955" s="2"/>
     </row>
-    <row r="956" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="956" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H956" s="2"/>
       <c r="N956" s="2"/>
     </row>
-    <row r="957" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="957" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H957" s="2"/>
       <c r="N957" s="2"/>
     </row>
-    <row r="958" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="958" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H958" s="2"/>
       <c r="N958" s="2"/>
     </row>
-    <row r="959" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="959" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H959" s="2"/>
       <c r="N959" s="2"/>
     </row>
-    <row r="960" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="960" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H960" s="2"/>
       <c r="N960" s="2"/>
     </row>
-    <row r="961" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="961" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H961" s="2"/>
       <c r="N961" s="2"/>
     </row>
-    <row r="962" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="962" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H962" s="2"/>
       <c r="N962" s="2"/>
     </row>
-    <row r="963" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="963" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H963" s="2"/>
       <c r="N963" s="2"/>
     </row>
-    <row r="964" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="964" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H964" s="2"/>
       <c r="N964" s="2"/>
     </row>
-    <row r="965" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="965" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H965" s="2"/>
       <c r="N965" s="2"/>
     </row>
-    <row r="966" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="966" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H966" s="2"/>
       <c r="N966" s="2"/>
     </row>
-    <row r="967" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="967" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H967" s="2"/>
       <c r="N967" s="2"/>
     </row>
-    <row r="968" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="968" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H968" s="2"/>
       <c r="N968" s="2"/>
     </row>
-    <row r="969" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="969" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H969" s="2"/>
       <c r="N969" s="2"/>
     </row>
-    <row r="970" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="970" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H970" s="2"/>
       <c r="N970" s="2"/>
     </row>
-    <row r="971" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="971" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H971" s="2"/>
       <c r="N971" s="2"/>
     </row>
-    <row r="972" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="972" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H972" s="2"/>
       <c r="N972" s="2"/>
     </row>
-    <row r="973" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="973" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H973" s="2"/>
       <c r="N973" s="2"/>
     </row>
-    <row r="974" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="974" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H974" s="2"/>
       <c r="N974" s="2"/>
     </row>
-    <row r="975" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="975" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H975" s="2"/>
       <c r="N975" s="2"/>
     </row>
-    <row r="976" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="976" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H976" s="2"/>
       <c r="N976" s="2"/>
     </row>
-    <row r="977" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="977" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H977" s="2"/>
       <c r="N977" s="2"/>
     </row>
-    <row r="978" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="978" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H978" s="2"/>
       <c r="N978" s="2"/>
     </row>
-    <row r="979" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="979" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H979" s="2"/>
       <c r="N979" s="2"/>
     </row>
-    <row r="980" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="980" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H980" s="2"/>
       <c r="N980" s="2"/>
     </row>
-    <row r="981" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="981" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H981" s="2"/>
       <c r="N981" s="2"/>
     </row>
-    <row r="982" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="982" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H982" s="2"/>
       <c r="N982" s="2"/>
     </row>
-    <row r="983" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="983" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H983" s="2"/>
       <c r="N983" s="2"/>
     </row>
-    <row r="984" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="984" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H984" s="2"/>
       <c r="N984" s="2"/>
     </row>
-    <row r="985" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="985" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H985" s="2"/>
       <c r="N985" s="2"/>
     </row>
-    <row r="986" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="986" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H986" s="2"/>
       <c r="N986" s="2"/>
     </row>
-    <row r="987" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="987" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H987" s="2"/>
       <c r="N987" s="2"/>
     </row>
-    <row r="988" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="988" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H988" s="2"/>
       <c r="N988" s="2"/>
     </row>
-    <row r="989" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="989" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H989" s="2"/>
       <c r="N989" s="2"/>
     </row>
-    <row r="990" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="990" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H990" s="2"/>
       <c r="N990" s="2"/>
     </row>
-    <row r="991" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="991" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H991" s="2"/>
       <c r="N991" s="2"/>
     </row>
-    <row r="992" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="992" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H992" s="2"/>
       <c r="N992" s="2"/>
     </row>
-    <row r="993" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="993" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H993" s="2"/>
       <c r="N993" s="2"/>
     </row>
-    <row r="994" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="994" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H994" s="2"/>
       <c r="N994" s="2"/>
     </row>
-    <row r="995" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="995" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H995" s="2"/>
       <c r="N995" s="2"/>
     </row>
-    <row r="996" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="996" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H996" s="2"/>
       <c r="N996" s="2"/>
     </row>
-    <row r="997" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="997" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H997" s="2"/>
       <c r="N997" s="2"/>
     </row>
-    <row r="998" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="998" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H998" s="2"/>
       <c r="N998" s="2"/>
     </row>
-    <row r="999" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="999" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H999" s="2"/>
       <c r="N999" s="2"/>
     </row>
-    <row r="1000" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1000" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1000" s="2"/>
       <c r="N1000" s="2"/>
     </row>
-    <row r="1001" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1001" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1001" s="2"/>
       <c r="N1001" s="2"/>
     </row>
-    <row r="1002" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1002" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1002" s="2"/>
       <c r="N1002" s="2"/>
     </row>
-    <row r="1003" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1003" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1003" s="2"/>
       <c r="N1003" s="2"/>
     </row>
-    <row r="1004" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1004" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1004" s="2"/>
       <c r="N1004" s="2"/>
     </row>
-    <row r="1005" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1005" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1005" s="2"/>
       <c r="N1005" s="2"/>
     </row>
-    <row r="1006" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1006" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1006" s="2"/>
       <c r="N1006" s="2"/>
     </row>
-    <row r="1007" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1007" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1007" s="2"/>
       <c r="N1007" s="2"/>
     </row>
-    <row r="1008" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1008" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1008" s="2"/>
       <c r="N1008" s="2"/>
     </row>
-    <row r="1009" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1009" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1009" s="2"/>
       <c r="N1009" s="2"/>
     </row>
-    <row r="1010" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1010" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1010" s="2"/>
       <c r="N1010" s="2"/>
     </row>
-    <row r="1011" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1011" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1011" s="2"/>
       <c r="N1011" s="2"/>
     </row>
-    <row r="1012" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1012" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1012" s="2"/>
       <c r="N1012" s="2"/>
     </row>
-    <row r="1013" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1013" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1013" s="2"/>
       <c r="N1013" s="2"/>
     </row>
-    <row r="1014" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1014" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1014" s="2"/>
       <c r="N1014" s="2"/>
     </row>
-    <row r="1015" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1015" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1015" s="2"/>
       <c r="N1015" s="2"/>
     </row>
-    <row r="1016" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1016" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1016" s="2"/>
       <c r="N1016" s="2"/>
     </row>
-    <row r="1017" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1017" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1017" s="2"/>
       <c r="N1017" s="2"/>
     </row>
-    <row r="1018" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1018" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1018" s="2"/>
       <c r="N1018" s="2"/>
     </row>
-    <row r="1019" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1019" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1019" s="2"/>
       <c r="N1019" s="2"/>
     </row>
-    <row r="1020" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1020" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1020" s="2"/>
       <c r="N1020" s="2"/>
     </row>
-    <row r="1021" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1021" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1021" s="2"/>
       <c r="N1021" s="2"/>
     </row>
-    <row r="1022" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1022" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1022" s="2"/>
       <c r="N1022" s="2"/>
     </row>
-    <row r="1023" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1023" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1023" s="2"/>
       <c r="N1023" s="2"/>
     </row>
-    <row r="1024" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1024" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1024" s="2"/>
       <c r="N1024" s="2"/>
     </row>
-    <row r="1025" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1025" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1025" s="2"/>
       <c r="N1025" s="2"/>
     </row>
-    <row r="1026" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1026" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1026" s="2"/>
       <c r="N1026" s="2"/>
     </row>
-    <row r="1027" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1027" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1027" s="2"/>
       <c r="N1027" s="2"/>
     </row>
-    <row r="1028" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1028" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1028" s="2"/>
       <c r="N1028" s="2"/>
     </row>
-    <row r="1029" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1029" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1029" s="2"/>
       <c r="N1029" s="2"/>
     </row>
-    <row r="1030" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1030" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1030" s="2"/>
       <c r="N1030" s="2"/>
     </row>
-    <row r="1031" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1031" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1031" s="2"/>
       <c r="N1031" s="2"/>
     </row>
-    <row r="1032" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1032" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1032" s="2"/>
       <c r="N1032" s="2"/>
     </row>
-    <row r="1033" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1033" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1033" s="2"/>
       <c r="N1033" s="2"/>
     </row>
-    <row r="1034" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1034" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1034" s="2"/>
       <c r="N1034" s="2"/>
     </row>
-    <row r="1035" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1035" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1035" s="2"/>
       <c r="N1035" s="2"/>
     </row>
-    <row r="1036" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1036" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1036" s="2"/>
       <c r="N1036" s="2"/>
     </row>
-    <row r="1037" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1037" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1037" s="2"/>
       <c r="N1037" s="2"/>
     </row>
-    <row r="1038" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1038" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1038" s="2"/>
       <c r="N1038" s="2"/>
     </row>
-    <row r="1039" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1039" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1039" s="2"/>
       <c r="N1039" s="2"/>
     </row>
-    <row r="1040" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1040" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1040" s="2"/>
       <c r="N1040" s="2"/>
     </row>
-    <row r="1041" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1041" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1041" s="2"/>
       <c r="N1041" s="2"/>
     </row>
-    <row r="1042" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1042" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1042" s="2"/>
       <c r="N1042" s="2"/>
     </row>
-    <row r="1043" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1043" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1043" s="2"/>
       <c r="N1043" s="2"/>
     </row>
-    <row r="1044" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1044" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1044" s="2"/>
       <c r="N1044" s="2"/>
     </row>
-    <row r="1045" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1045" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1045" s="2"/>
       <c r="N1045" s="2"/>
     </row>
-    <row r="1046" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1046" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1046" s="2"/>
       <c r="N1046" s="2"/>
     </row>
-    <row r="1047" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1047" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1047" s="2"/>
       <c r="N1047" s="2"/>
     </row>
-    <row r="1048" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1048" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1048" s="2"/>
       <c r="N1048" s="2"/>
     </row>
-    <row r="1049" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1049" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1049" s="2"/>
       <c r="N1049" s="2"/>
     </row>
-    <row r="1050" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1050" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1050" s="2"/>
       <c r="N1050" s="2"/>
     </row>
-    <row r="1051" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1051" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1051" s="2"/>
       <c r="N1051" s="2"/>
     </row>
-    <row r="1052" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1052" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1052" s="2"/>
       <c r="N1052" s="2"/>
     </row>
-    <row r="1053" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1053" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1053" s="2"/>
       <c r="N1053" s="2"/>
     </row>
-    <row r="1054" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1054" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1054" s="2"/>
       <c r="N1054" s="2"/>
     </row>
-    <row r="1055" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1055" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1055" s="2"/>
       <c r="N1055" s="2"/>
     </row>
-    <row r="1056" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1056" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1056" s="2"/>
       <c r="N1056" s="2"/>
     </row>
-    <row r="1057" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1057" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1057" s="2"/>
       <c r="N1057" s="2"/>
     </row>
-    <row r="1058" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1058" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1058" s="2"/>
       <c r="N1058" s="2"/>
     </row>
-    <row r="1059" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1059" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1059" s="2"/>
       <c r="N1059" s="2"/>
     </row>
-    <row r="1060" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1060" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1060" s="2"/>
       <c r="N1060" s="2"/>
     </row>
-    <row r="1061" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1061" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1061" s="2"/>
       <c r="N1061" s="2"/>
     </row>
-    <row r="1062" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1062" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1062" s="2"/>
       <c r="N1062" s="2"/>
     </row>
-    <row r="1063" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1063" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1063" s="2"/>
       <c r="N1063" s="2"/>
     </row>
-    <row r="1064" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1064" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1064" s="2"/>
       <c r="N1064" s="2"/>
     </row>
-    <row r="1065" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1065" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1065" s="2"/>
       <c r="N1065" s="2"/>
     </row>
-    <row r="1066" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1066" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1066" s="2"/>
       <c r="N1066" s="2"/>
     </row>
-    <row r="1067" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1067" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1067" s="2"/>
       <c r="N1067" s="2"/>
     </row>
-    <row r="1068" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1068" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1068" s="2"/>
       <c r="N1068" s="2"/>
     </row>
-    <row r="1069" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1069" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1069" s="2"/>
       <c r="N1069" s="2"/>
     </row>
-    <row r="1070" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1070" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1070" s="2"/>
       <c r="N1070" s="2"/>
     </row>
-    <row r="1071" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1071" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1071" s="2"/>
       <c r="N1071" s="2"/>
     </row>
-    <row r="1072" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1072" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1072" s="2"/>
       <c r="N1072" s="2"/>
     </row>
-    <row r="1073" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1073" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1073" s="2"/>
       <c r="N1073" s="2"/>
     </row>
-    <row r="1074" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1074" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1074" s="2"/>
       <c r="N1074" s="2"/>
     </row>
-    <row r="1075" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1075" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1075" s="2"/>
       <c r="N1075" s="2"/>
     </row>
-    <row r="1076" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1076" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1076" s="2"/>
       <c r="N1076" s="2"/>
     </row>
-    <row r="1077" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1077" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1077" s="2"/>
       <c r="N1077" s="2"/>
     </row>
-    <row r="1078" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1078" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1078" s="2"/>
       <c r="N1078" s="2"/>
     </row>
-    <row r="1079" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1079" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1079" s="2"/>
       <c r="N1079" s="2"/>
     </row>
-    <row r="1080" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1080" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1080" s="2"/>
       <c r="N1080" s="2"/>
     </row>
-    <row r="1081" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1081" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1081" s="2"/>
       <c r="N1081" s="2"/>
     </row>
-    <row r="1082" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1082" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1082" s="2"/>
       <c r="N1082" s="2"/>
     </row>
-    <row r="1083" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1083" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1083" s="2"/>
       <c r="N1083" s="2"/>
     </row>
-    <row r="1084" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1084" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1084" s="2"/>
       <c r="N1084" s="2"/>
     </row>
-    <row r="1085" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1085" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1085" s="2"/>
       <c r="N1085" s="2"/>
     </row>
-    <row r="1086" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1086" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1086" s="2"/>
       <c r="N1086" s="2"/>
     </row>
-    <row r="1087" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1087" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1087" s="2"/>
       <c r="N1087" s="2"/>
     </row>
-    <row r="1088" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1088" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1088" s="2"/>
       <c r="N1088" s="2"/>
     </row>
-    <row r="1089" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1089" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1089" s="2"/>
       <c r="N1089" s="2"/>
     </row>
-    <row r="1090" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1090" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1090" s="2"/>
       <c r="N1090" s="2"/>
     </row>
-    <row r="1091" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1091" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1091" s="2"/>
       <c r="N1091" s="2"/>
     </row>
-    <row r="1092" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1092" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1092" s="2"/>
       <c r="N1092" s="2"/>
     </row>
-    <row r="1093" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1093" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1093" s="2"/>
       <c r="N1093" s="2"/>
     </row>
-    <row r="1094" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1094" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1094" s="2"/>
       <c r="N1094" s="2"/>
     </row>
-    <row r="1095" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1095" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1095" s="2"/>
       <c r="N1095" s="2"/>
     </row>
-    <row r="1096" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1096" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1096" s="2"/>
       <c r="N1096" s="2"/>
     </row>
-    <row r="1097" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1097" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1097" s="2"/>
       <c r="N1097" s="2"/>
     </row>
-    <row r="1098" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1098" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1098" s="2"/>
       <c r="N1098" s="2"/>
     </row>
-    <row r="1099" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1099" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1099" s="2"/>
       <c r="N1099" s="2"/>
     </row>
-    <row r="1100" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1100" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1100" s="2"/>
       <c r="N1100" s="2"/>
     </row>
-    <row r="1101" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1101" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1101" s="2"/>
       <c r="N1101" s="2"/>
     </row>
-    <row r="1102" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1102" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1102" s="2"/>
       <c r="N1102" s="2"/>
     </row>
-    <row r="1103" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1103" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1103" s="2"/>
       <c r="N1103" s="2"/>
     </row>
-    <row r="1104" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1104" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1104" s="2"/>
       <c r="N1104" s="2"/>
     </row>
-    <row r="1105" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1105" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1105" s="2"/>
       <c r="N1105" s="2"/>
     </row>
-    <row r="1106" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1106" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1106" s="2"/>
       <c r="N1106" s="2"/>
     </row>
-    <row r="1107" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1107" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1107" s="2"/>
       <c r="N1107" s="2"/>
     </row>
-    <row r="1108" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1108" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1108" s="2"/>
       <c r="N1108" s="2"/>
     </row>
-    <row r="1109" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1109" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1109" s="2"/>
       <c r="N1109" s="2"/>
     </row>
-    <row r="1110" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1110" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1110" s="2"/>
       <c r="N1110" s="2"/>
     </row>
-    <row r="1111" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1111" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1111" s="2"/>
       <c r="N1111" s="2"/>
     </row>
-    <row r="1112" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1112" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1112" s="2"/>
       <c r="N1112" s="2"/>
     </row>
-    <row r="1113" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1113" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1113" s="2"/>
       <c r="N1113" s="2"/>
     </row>
-    <row r="1114" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1114" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1114" s="2"/>
       <c r="N1114" s="2"/>
     </row>
-    <row r="1115" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1115" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1115" s="2"/>
       <c r="N1115" s="2"/>
     </row>
-    <row r="1116" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1116" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1116" s="2"/>
       <c r="N1116" s="2"/>
     </row>
-    <row r="1117" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1117" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1117" s="2"/>
       <c r="N1117" s="2"/>
     </row>
-    <row r="1118" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1118" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1118" s="2"/>
       <c r="N1118" s="2"/>
     </row>
-    <row r="1119" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1119" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1119" s="2"/>
       <c r="N1119" s="2"/>
     </row>
-    <row r="1120" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1120" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1120" s="2"/>
       <c r="N1120" s="2"/>
     </row>
-    <row r="1121" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1121" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1121" s="2"/>
       <c r="N1121" s="2"/>
     </row>
-    <row r="1122" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1122" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1122" s="2"/>
       <c r="N1122" s="2"/>
     </row>
-    <row r="1123" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1123" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1123" s="2"/>
       <c r="N1123" s="2"/>
     </row>
-    <row r="1124" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1124" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1124" s="2"/>
       <c r="N1124" s="2"/>
     </row>
-    <row r="1125" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1125" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1125" s="2"/>
       <c r="N1125" s="2"/>
     </row>
-    <row r="1126" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1126" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1126" s="2"/>
       <c r="N1126" s="2"/>
     </row>
-    <row r="1127" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1127" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1127" s="2"/>
       <c r="N1127" s="2"/>
     </row>
-    <row r="1128" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1128" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1128" s="2"/>
       <c r="N1128" s="2"/>
     </row>
-    <row r="1129" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1129" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1129" s="2"/>
       <c r="N1129" s="2"/>
     </row>
-    <row r="1130" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1130" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1130" s="2"/>
       <c r="N1130" s="2"/>
     </row>
-    <row r="1131" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1131" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1131" s="2"/>
       <c r="N1131" s="2"/>
     </row>
-    <row r="1132" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1132" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1132" s="2"/>
       <c r="N1132" s="2"/>
     </row>
-    <row r="1133" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1133" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1133" s="2"/>
       <c r="N1133" s="2"/>
     </row>
-    <row r="1134" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1134" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1134" s="2"/>
       <c r="N1134" s="2"/>
     </row>
-    <row r="1135" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1135" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1135" s="2"/>
       <c r="N1135" s="2"/>
     </row>
-    <row r="1136" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1136" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1136" s="2"/>
       <c r="N1136" s="2"/>
     </row>
-    <row r="1137" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1137" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1137" s="2"/>
       <c r="N1137" s="2"/>
     </row>
-    <row r="1138" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1138" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1138" s="2"/>
       <c r="N1138" s="2"/>
     </row>
-    <row r="1139" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1139" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1139" s="2"/>
       <c r="N1139" s="2"/>
     </row>
-    <row r="1140" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1140" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1140" s="2"/>
       <c r="N1140" s="2"/>
     </row>
-    <row r="1141" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1141" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1141" s="2"/>
       <c r="N1141" s="2"/>
     </row>
-    <row r="1142" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1142" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1142" s="2"/>
       <c r="N1142" s="2"/>
     </row>
-    <row r="1143" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1143" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1143" s="2"/>
       <c r="N1143" s="2"/>
     </row>
-    <row r="1144" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1144" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1144" s="2"/>
       <c r="N1144" s="2"/>
     </row>
-    <row r="1145" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1145" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1145" s="2"/>
       <c r="N1145" s="2"/>
     </row>
-    <row r="1146" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1146" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1146" s="2"/>
       <c r="N1146" s="2"/>
     </row>
-    <row r="1147" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1147" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1147" s="2"/>
       <c r="N1147" s="2"/>
     </row>
-    <row r="1148" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1148" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1148" s="2"/>
       <c r="N1148" s="2"/>
     </row>
-    <row r="1149" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1149" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1149" s="2"/>
       <c r="N1149" s="2"/>
     </row>
-    <row r="1150" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1150" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1150" s="2"/>
       <c r="N1150" s="2"/>
     </row>
-    <row r="1151" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1151" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1151" s="2"/>
       <c r="N1151" s="2"/>
     </row>
-    <row r="1152" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1152" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1152" s="2"/>
       <c r="N1152" s="2"/>
     </row>
-    <row r="1153" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1153" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1153" s="2"/>
       <c r="N1153" s="2"/>
     </row>
-    <row r="1154" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1154" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1154" s="2"/>
       <c r="N1154" s="2"/>
     </row>
-    <row r="1155" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1155" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1155" s="2"/>
       <c r="N1155" s="2"/>
     </row>
-    <row r="1156" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1156" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1156" s="2"/>
       <c r="N1156" s="2"/>
     </row>
-    <row r="1157" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1157" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1157" s="2"/>
       <c r="N1157" s="2"/>
     </row>
-    <row r="1158" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1158" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1158" s="2"/>
       <c r="N1158" s="2"/>
     </row>
-    <row r="1159" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1159" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1159" s="2"/>
       <c r="N1159" s="2"/>
     </row>
-    <row r="1160" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1160" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1160" s="2"/>
       <c r="N1160" s="2"/>
     </row>
-    <row r="1161" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1161" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1161" s="2"/>
       <c r="N1161" s="2"/>
     </row>
-    <row r="1162" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1162" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1162" s="2"/>
       <c r="N1162" s="2"/>
     </row>
-    <row r="1163" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1163" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1163" s="2"/>
       <c r="N1163" s="2"/>
     </row>
-    <row r="1164" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1164" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1164" s="2"/>
       <c r="N1164" s="2"/>
     </row>
-    <row r="1165" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1165" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1165" s="2"/>
       <c r="N1165" s="2"/>
     </row>
-    <row r="1166" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1166" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1166" s="2"/>
       <c r="N1166" s="2"/>
     </row>
-    <row r="1167" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1167" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1167" s="2"/>
       <c r="N1167" s="2"/>
     </row>
-    <row r="1168" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1168" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1168" s="2"/>
       <c r="N1168" s="2"/>
     </row>
-    <row r="1169" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1169" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1169" s="2"/>
       <c r="N1169" s="2"/>
     </row>
-    <row r="1170" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1170" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1170" s="2"/>
       <c r="N1170" s="2"/>
     </row>
-    <row r="1171" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1171" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1171" s="2"/>
       <c r="N1171" s="2"/>
     </row>
-    <row r="1172" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1172" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1172" s="2"/>
       <c r="N1172" s="2"/>
     </row>
-    <row r="1173" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1173" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1173" s="2"/>
       <c r="N1173" s="2"/>
     </row>
-    <row r="1174" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1174" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1174" s="2"/>
       <c r="N1174" s="2"/>
     </row>
-    <row r="1175" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1175" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1175" s="2"/>
       <c r="N1175" s="2"/>
     </row>
-    <row r="1176" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1176" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1176" s="2"/>
       <c r="N1176" s="2"/>
     </row>
-    <row r="1177" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1177" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1177" s="2"/>
       <c r="N1177" s="2"/>
     </row>
-    <row r="1178" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1178" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1178" s="2"/>
       <c r="N1178" s="2"/>
     </row>
-    <row r="1179" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1179" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1179" s="2"/>
       <c r="N1179" s="2"/>
     </row>
-    <row r="1180" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1180" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1180" s="2"/>
       <c r="N1180" s="2"/>
     </row>
-    <row r="1181" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1181" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1181" s="2"/>
       <c r="N1181" s="2"/>
     </row>
-    <row r="1182" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1182" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1182" s="2"/>
       <c r="N1182" s="2"/>
     </row>
-    <row r="1183" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1183" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1183" s="2"/>
       <c r="N1183" s="2"/>
     </row>
-    <row r="1184" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1184" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1184" s="2"/>
       <c r="N1184" s="2"/>
     </row>
-    <row r="1185" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1185" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1185" s="2"/>
       <c r="N1185" s="2"/>
     </row>
-    <row r="1186" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1186" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1186" s="2"/>
       <c r="N1186" s="2"/>
     </row>
-    <row r="1187" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1187" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1187" s="2"/>
       <c r="N1187" s="2"/>
     </row>
-    <row r="1188" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1188" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1188" s="2"/>
       <c r="N1188" s="2"/>
     </row>
-    <row r="1189" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1189" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1189" s="2"/>
       <c r="N1189" s="2"/>
     </row>
-    <row r="1190" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1190" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1190" s="2"/>
       <c r="N1190" s="2"/>
     </row>
-    <row r="1191" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1191" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1191" s="2"/>
       <c r="N1191" s="2"/>
     </row>
-    <row r="1192" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1192" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1192" s="2"/>
       <c r="N1192" s="2"/>
     </row>
-    <row r="1193" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1193" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1193" s="2"/>
       <c r="N1193" s="2"/>
     </row>
-    <row r="1194" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1194" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1194" s="2"/>
       <c r="N1194" s="2"/>
     </row>
-    <row r="1195" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1195" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1195" s="2"/>
       <c r="N1195" s="2"/>
     </row>
-    <row r="1196" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1196" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1196" s="2"/>
       <c r="N1196" s="2"/>
     </row>
-    <row r="1197" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1197" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1197" s="2"/>
       <c r="N1197" s="2"/>
     </row>
-    <row r="1198" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1198" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1198" s="2"/>
       <c r="N1198" s="2"/>
     </row>
-    <row r="1199" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1199" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1199" s="2"/>
       <c r="N1199" s="2"/>
     </row>
-    <row r="1200" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1200" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1200" s="2"/>
       <c r="N1200" s="2"/>
     </row>
-    <row r="1201" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1201" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1201" s="2"/>
       <c r="N1201" s="2"/>
     </row>
-    <row r="1202" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1202" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1202" s="2"/>
       <c r="N1202" s="2"/>
     </row>
-    <row r="1203" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1203" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1203" s="2"/>
       <c r="N1203" s="2"/>
     </row>
-    <row r="1204" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1204" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1204" s="2"/>
       <c r="N1204" s="2"/>
     </row>
-    <row r="1205" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1205" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1205" s="2"/>
       <c r="N1205" s="2"/>
     </row>
-    <row r="1206" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1206" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1206" s="2"/>
       <c r="N1206" s="2"/>
     </row>
-    <row r="1207" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1207" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1207" s="2"/>
       <c r="N1207" s="2"/>
     </row>
-    <row r="1208" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1208" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1208" s="2"/>
       <c r="N1208" s="2"/>
     </row>
-    <row r="1209" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1209" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1209" s="2"/>
       <c r="N1209" s="2"/>
     </row>
-    <row r="1210" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1210" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1210" s="2"/>
       <c r="N1210" s="2"/>
     </row>
-    <row r="1211" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1211" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1211" s="2"/>
       <c r="N1211" s="2"/>
     </row>
-    <row r="1212" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1212" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1212" s="2"/>
       <c r="N1212" s="2"/>
     </row>
-    <row r="1213" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1213" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1213" s="2"/>
       <c r="N1213" s="2"/>
     </row>
-    <row r="1214" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1214" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1214" s="2"/>
       <c r="N1214" s="2"/>
     </row>
-    <row r="1215" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1215" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1215" s="2"/>
       <c r="N1215" s="2"/>
     </row>
-    <row r="1216" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1216" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1216" s="2"/>
       <c r="N1216" s="2"/>
     </row>
-    <row r="1217" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1217" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1217" s="2"/>
       <c r="N1217" s="2"/>
     </row>
-    <row r="1218" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1218" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1218" s="2"/>
       <c r="N1218" s="2"/>
     </row>
-    <row r="1219" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1219" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1219" s="2"/>
       <c r="N1219" s="2"/>
     </row>
-    <row r="1220" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1220" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1220" s="2"/>
       <c r="N1220" s="2"/>
     </row>
-    <row r="1221" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1221" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1221" s="2"/>
       <c r="N1221" s="2"/>
     </row>
-    <row r="1222" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1222" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1222" s="2"/>
       <c r="N1222" s="2"/>
     </row>
-    <row r="1223" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1223" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1223" s="2"/>
       <c r="N1223" s="2"/>
     </row>
-    <row r="1224" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1224" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1224" s="2"/>
       <c r="N1224" s="2"/>
     </row>
-    <row r="1225" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1225" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1225" s="2"/>
       <c r="N1225" s="2"/>
     </row>
-    <row r="1226" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1226" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1226" s="2"/>
       <c r="N1226" s="2"/>
     </row>
-    <row r="1227" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1227" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1227" s="2"/>
       <c r="N1227" s="2"/>
     </row>
-    <row r="1228" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1228" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1228" s="2"/>
       <c r="N1228" s="2"/>
     </row>
-    <row r="1229" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1229" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1229" s="2"/>
       <c r="N1229" s="2"/>
     </row>
-    <row r="1230" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1230" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1230" s="2"/>
       <c r="N1230" s="2"/>
     </row>
-    <row r="1231" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1231" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1231" s="2"/>
       <c r="N1231" s="2"/>
     </row>
-    <row r="1232" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1232" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1232" s="2"/>
       <c r="N1232" s="2"/>
     </row>
-    <row r="1233" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1233" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1233" s="2"/>
       <c r="N1233" s="2"/>
     </row>
-    <row r="1234" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1234" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1234" s="2"/>
       <c r="N1234" s="2"/>
     </row>
-    <row r="1235" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1235" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1235" s="2"/>
       <c r="N1235" s="2"/>
     </row>
-    <row r="1236" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1236" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1236" s="2"/>
       <c r="N1236" s="2"/>
     </row>
-    <row r="1237" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1237" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1237" s="2"/>
       <c r="N1237" s="2"/>
     </row>
-    <row r="1238" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1238" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1238" s="2"/>
       <c r="N1238" s="2"/>
     </row>
-    <row r="1239" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1239" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1239" s="2"/>
       <c r="N1239" s="2"/>
     </row>
-    <row r="1240" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1240" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1240" s="2"/>
       <c r="N1240" s="2"/>
     </row>
-    <row r="1241" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1241" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1241" s="2"/>
       <c r="N1241" s="2"/>
     </row>
-    <row r="1242" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1242" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1242" s="2"/>
       <c r="N1242" s="2"/>
     </row>
-    <row r="1243" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1243" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1243" s="2"/>
       <c r="N1243" s="2"/>
     </row>
-    <row r="1244" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1244" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1244" s="2"/>
       <c r="N1244" s="2"/>
     </row>
-    <row r="1245" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1245" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1245" s="2"/>
       <c r="N1245" s="2"/>
     </row>
-    <row r="1246" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1246" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1246" s="2"/>
       <c r="N1246" s="2"/>
     </row>
-    <row r="1247" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1247" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1247" s="2"/>
       <c r="N1247" s="2"/>
     </row>
-    <row r="1248" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1248" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1248" s="2"/>
       <c r="N1248" s="2"/>
     </row>
-    <row r="1249" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1249" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1249" s="2"/>
       <c r="N1249" s="2"/>
     </row>
-    <row r="1250" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1250" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1250" s="2"/>
       <c r="N1250" s="2"/>
     </row>
-    <row r="1251" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1251" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1251" s="2"/>
       <c r="N1251" s="2"/>
     </row>
-    <row r="1252" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1252" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1252" s="2"/>
       <c r="N1252" s="2"/>
     </row>
-    <row r="1253" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1253" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1253" s="2"/>
       <c r="N1253" s="2"/>
     </row>
-    <row r="1254" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1254" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1254" s="2"/>
       <c r="N1254" s="2"/>
     </row>
-    <row r="1255" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1255" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1255" s="2"/>
       <c r="N1255" s="2"/>
     </row>
-    <row r="1256" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1256" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1256" s="2"/>
       <c r="N1256" s="2"/>
     </row>
-    <row r="1257" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1257" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1257" s="2"/>
       <c r="N1257" s="2"/>
     </row>
-    <row r="1258" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1258" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1258" s="2"/>
       <c r="N1258" s="2"/>
     </row>
-    <row r="1259" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1259" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1259" s="2"/>
       <c r="N1259" s="2"/>
     </row>
-    <row r="1260" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1260" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1260" s="2"/>
       <c r="N1260" s="2"/>
     </row>
-    <row r="1261" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1261" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1261" s="2"/>
       <c r="N1261" s="2"/>
     </row>
-    <row r="1262" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1262" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1262" s="2"/>
       <c r="N1262" s="2"/>
     </row>
-    <row r="1263" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1263" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1263" s="2"/>
       <c r="N1263" s="2"/>
     </row>
-    <row r="1264" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1264" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1264" s="2"/>
       <c r="N1264" s="2"/>
     </row>
-    <row r="1265" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1265" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1265" s="2"/>
       <c r="N1265" s="2"/>
     </row>
-    <row r="1266" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1266" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1266" s="2"/>
       <c r="N1266" s="2"/>
     </row>
-    <row r="1267" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1267" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1267" s="2"/>
       <c r="N1267" s="2"/>
     </row>
-    <row r="1268" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1268" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1268" s="2"/>
       <c r="N1268" s="2"/>
     </row>
-    <row r="1269" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1269" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1269" s="2"/>
       <c r="N1269" s="2"/>
     </row>
-    <row r="1270" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1270" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1270" s="2"/>
       <c r="N1270" s="2"/>
     </row>
-    <row r="1271" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1271" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1271" s="2"/>
       <c r="N1271" s="2"/>
     </row>
-    <row r="1272" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1272" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1272" s="2"/>
       <c r="N1272" s="2"/>
     </row>
-    <row r="1273" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1273" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1273" s="2"/>
       <c r="N1273" s="2"/>
     </row>
-    <row r="1274" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1274" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1274" s="2"/>
       <c r="N1274" s="2"/>
     </row>
-    <row r="1275" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1275" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1275" s="2"/>
       <c r="N1275" s="2"/>
     </row>
-    <row r="1276" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1276" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1276" s="2"/>
       <c r="N1276" s="2"/>
     </row>
-    <row r="1277" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1277" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1277" s="2"/>
       <c r="N1277" s="2"/>
     </row>
-    <row r="1278" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1278" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1278" s="2"/>
       <c r="N1278" s="2"/>
     </row>
-    <row r="1279" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1279" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1279" s="2"/>
       <c r="N1279" s="2"/>
     </row>
-    <row r="1280" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1280" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1280" s="2"/>
       <c r="N1280" s="2"/>
     </row>
-    <row r="1281" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1281" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1281" s="2"/>
       <c r="N1281" s="2"/>
     </row>
-    <row r="1282" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1282" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1282" s="2"/>
       <c r="N1282" s="2"/>
     </row>
-    <row r="1283" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1283" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1283" s="2"/>
       <c r="N1283" s="2"/>
     </row>
-    <row r="1284" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1284" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1284" s="2"/>
       <c r="N1284" s="2"/>
     </row>
-    <row r="1285" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1285" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1285" s="2"/>
       <c r="N1285" s="2"/>
     </row>
-    <row r="1286" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1286" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1286" s="2"/>
       <c r="N1286" s="2"/>
     </row>
-    <row r="1287" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1287" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1287" s="2"/>
       <c r="N1287" s="2"/>
     </row>
-    <row r="1288" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1288" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1288" s="2"/>
       <c r="N1288" s="2"/>
     </row>
-    <row r="1289" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1289" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1289" s="2"/>
       <c r="N1289" s="2"/>
     </row>
-    <row r="1290" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1290" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1290" s="2"/>
       <c r="N1290" s="2"/>
     </row>
-    <row r="1291" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1291" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1291" s="2"/>
       <c r="N1291" s="2"/>
     </row>
-    <row r="1292" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1292" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1292" s="2"/>
       <c r="N1292" s="2"/>
     </row>
-    <row r="1293" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1293" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1293" s="2"/>
       <c r="N1293" s="2"/>
     </row>
-    <row r="1294" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1294" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1294" s="2"/>
       <c r="N1294" s="2"/>
     </row>
-    <row r="1295" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1295" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1295" s="2"/>
       <c r="N1295" s="2"/>
     </row>
-    <row r="1296" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1296" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1296" s="2"/>
       <c r="N1296" s="2"/>
     </row>
-    <row r="1297" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1297" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1297" s="2"/>
       <c r="N1297" s="2"/>
     </row>
-    <row r="1298" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1298" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1298" s="2"/>
       <c r="N1298" s="2"/>
     </row>
-    <row r="1299" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1299" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1299" s="2"/>
       <c r="N1299" s="2"/>
     </row>
-    <row r="1300" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1300" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1300" s="2"/>
       <c r="N1300" s="2"/>
     </row>
-    <row r="1301" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1301" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1301" s="2"/>
       <c r="N1301" s="2"/>
     </row>
-    <row r="1302" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1302" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1302" s="2"/>
       <c r="N1302" s="2"/>
     </row>
-    <row r="1303" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1303" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1303" s="2"/>
       <c r="N1303" s="2"/>
     </row>
-    <row r="1304" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1304" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1304" s="2"/>
       <c r="N1304" s="2"/>
     </row>
-    <row r="1305" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1305" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1305" s="2"/>
       <c r="N1305" s="2"/>
     </row>
-    <row r="1306" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1306" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1306" s="2"/>
       <c r="N1306" s="2"/>
     </row>
-    <row r="1307" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1307" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1307" s="2"/>
       <c r="N1307" s="2"/>
     </row>
-    <row r="1308" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1308" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1308" s="2"/>
       <c r="N1308" s="2"/>
     </row>
-    <row r="1309" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1309" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H1309" s="2"/>
       <c r="N1309" s="2"/>
     </row>
-    <row r="1310" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1310" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N1310" s="2"/>
     </row>
-    <row r="1311" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1311" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N1311" s="2"/>
     </row>
-    <row r="1312" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="1312" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N1312" s="2"/>
     </row>
-    <row r="1313" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1313" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1313" s="2"/>
     </row>
-    <row r="1314" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1314" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1314" s="2"/>
     </row>
-    <row r="1315" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1315" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1315" s="2"/>
     </row>
-    <row r="1316" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1316" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1316" s="2"/>
     </row>
-    <row r="1317" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1317" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1317" s="2"/>
     </row>
-    <row r="1318" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1318" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1318" s="2"/>
     </row>
-    <row r="1319" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1319" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1319" s="2"/>
     </row>
-    <row r="1320" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1320" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1320" s="2"/>
     </row>
-    <row r="1321" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1321" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1321" s="2"/>
     </row>
-    <row r="1322" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1322" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1322" s="2"/>
     </row>
-    <row r="1323" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1323" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1323" s="2"/>
     </row>
-    <row r="1324" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1324" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1324" s="2"/>
     </row>
-    <row r="1325" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1325" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1325" s="2"/>
     </row>
-    <row r="1326" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1326" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1326" s="2"/>
     </row>
-    <row r="1327" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1327" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1327" s="2"/>
     </row>
-    <row r="1328" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1328" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1328" s="2"/>
     </row>
-    <row r="1329" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1329" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1329" s="2"/>
     </row>
-    <row r="1330" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1330" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1330" s="2"/>
     </row>
-    <row r="1331" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1331" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1331" s="2"/>
     </row>
-    <row r="1332" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1332" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1332" s="2"/>
     </row>
-    <row r="1333" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1333" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1333" s="2"/>
     </row>
-    <row r="1334" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1334" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1334" s="2"/>
     </row>
-    <row r="1335" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1335" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1335" s="2"/>
     </row>
-    <row r="1336" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1336" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1336" s="2"/>
     </row>
-    <row r="1337" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1337" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1337" s="2"/>
     </row>
-    <row r="1338" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1338" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1338" s="2"/>
     </row>
-    <row r="1339" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1339" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1339" s="2"/>
     </row>
-    <row r="1340" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1340" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1340" s="2"/>
     </row>
-    <row r="1341" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1341" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1341" s="2"/>
     </row>
-    <row r="1342" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1342" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1342" s="2"/>
     </row>
-    <row r="1343" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1343" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1343" s="2"/>
     </row>
-    <row r="1344" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1344" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1344" s="2"/>
     </row>
-    <row r="1345" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1345" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1345" s="2"/>
     </row>
-    <row r="1346" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1346" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1346" s="2"/>
     </row>
-    <row r="1347" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1347" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1347" s="2"/>
     </row>
-    <row r="1348" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1348" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1348" s="2"/>
     </row>
-    <row r="1349" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1349" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1349" s="2"/>
     </row>
-    <row r="1350" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1350" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1350" s="2"/>
     </row>
-    <row r="1351" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1351" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1351" s="2"/>
     </row>
-    <row r="1352" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1352" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1352" s="2"/>
     </row>
-    <row r="1353" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1353" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1353" s="2"/>
     </row>
-    <row r="1354" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1354" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1354" s="2"/>
     </row>
-    <row r="1355" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1355" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1355" s="2"/>
     </row>
-    <row r="1356" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1356" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1356" s="2"/>
     </row>
-    <row r="1357" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1357" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1357" s="2"/>
     </row>
-    <row r="1358" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1358" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1358" s="2"/>
     </row>
-    <row r="1359" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1359" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1359" s="2"/>
     </row>
-    <row r="1360" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1360" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1360" s="2"/>
     </row>
-    <row r="1361" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1361" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1361" s="2"/>
     </row>
-    <row r="1362" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1362" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1362" s="2"/>
     </row>
-    <row r="1363" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1363" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1363" s="2"/>
     </row>
-    <row r="1364" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1364" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1364" s="2"/>
     </row>
-    <row r="1365" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1365" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1365" s="2"/>
     </row>
-    <row r="1366" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1366" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1366" s="2"/>
     </row>
-    <row r="1367" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1367" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1367" s="2"/>
     </row>
-    <row r="1368" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1368" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1368" s="2"/>
     </row>
-    <row r="1369" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1369" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1369" s="2"/>
     </row>
-    <row r="1370" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1370" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1370" s="2"/>
     </row>
-    <row r="1371" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1371" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1371" s="2"/>
     </row>
-    <row r="1372" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1372" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1372" s="2"/>
     </row>
-    <row r="1373" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1373" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1373" s="2"/>
     </row>
-    <row r="1374" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1374" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1374" s="2"/>
     </row>
-    <row r="1375" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1375" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1375" s="2"/>
     </row>
-    <row r="1376" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1376" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1376" s="2"/>
     </row>
-    <row r="1377" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1377" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1377" s="2"/>
     </row>
-    <row r="1378" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1378" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1378" s="2"/>
     </row>
-    <row r="1379" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1379" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1379" s="2"/>
     </row>
-    <row r="1380" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1380" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1380" s="2"/>
     </row>
-    <row r="1381" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1381" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1381" s="2"/>
     </row>
-    <row r="1382" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1382" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1382" s="2"/>
     </row>
-    <row r="1383" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1383" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1383" s="2"/>
     </row>
-    <row r="1384" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1384" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1384" s="2"/>
     </row>
-    <row r="1385" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1385" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1385" s="2"/>
     </row>
-    <row r="1386" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1386" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1386" s="2"/>
     </row>
-    <row r="1387" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1387" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1387" s="2"/>
     </row>
-    <row r="1388" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1388" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1388" s="2"/>
     </row>
-    <row r="1389" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1389" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1389" s="2"/>
     </row>
-    <row r="1390" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1390" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1390" s="2"/>
     </row>
-    <row r="1391" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1391" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1391" s="2"/>
     </row>
-    <row r="1392" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1392" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1392" s="2"/>
     </row>
-    <row r="1393" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1393" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1393" s="2"/>
     </row>
-    <row r="1394" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1394" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1394" s="2"/>
     </row>
-    <row r="1395" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1395" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1395" s="2"/>
     </row>
-    <row r="1396" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1396" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1396" s="2"/>
     </row>
-    <row r="1397" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1397" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1397" s="2"/>
     </row>
-    <row r="1398" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1398" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1398" s="2"/>
     </row>
-    <row r="1399" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1399" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1399" s="2"/>
     </row>
-    <row r="1400" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1400" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1400" s="2"/>
     </row>
-    <row r="1401" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1401" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1401" s="2"/>
     </row>
-    <row r="1402" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1402" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1402" s="2"/>
     </row>
-    <row r="1403" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1403" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1403" s="2"/>
     </row>
-    <row r="1404" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1404" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1404" s="2"/>
     </row>
-    <row r="1405" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1405" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1405" s="2"/>
     </row>
-    <row r="1406" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1406" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1406" s="2"/>
     </row>
-    <row r="1407" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1407" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1407" s="2"/>
     </row>
-    <row r="1408" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1408" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1408" s="2"/>
     </row>
-    <row r="1409" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1409" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1409" s="2"/>
     </row>
-    <row r="1410" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1410" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1410" s="2"/>
     </row>
-    <row r="1411" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1411" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1411" s="2"/>
     </row>
-    <row r="1412" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1412" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1412" s="2"/>
     </row>
-    <row r="1413" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1413" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1413" s="2"/>
     </row>
-    <row r="1414" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1414" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1414" s="2"/>
     </row>
-    <row r="1415" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1415" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1415" s="2"/>
     </row>
-    <row r="1416" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1416" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1416" s="2"/>
     </row>
-    <row r="1417" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1417" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1417" s="2"/>
     </row>
-    <row r="1418" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1418" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1418" s="2"/>
     </row>
-    <row r="1419" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1419" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1419" s="2"/>
     </row>
-    <row r="1420" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1420" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1420" s="2"/>
     </row>
-    <row r="1421" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1421" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1421" s="2"/>
     </row>
-    <row r="1422" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1422" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1422" s="2"/>
     </row>
-    <row r="1423" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1423" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1423" s="2"/>
     </row>
-    <row r="1424" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1424" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1424" s="2"/>
     </row>
-    <row r="1425" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1425" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1425" s="2"/>
     </row>
-    <row r="1426" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1426" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1426" s="2"/>
     </row>
-    <row r="1427" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1427" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1427" s="2"/>
     </row>
-    <row r="1428" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1428" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1428" s="2"/>
     </row>
-    <row r="1429" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1429" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1429" s="2"/>
     </row>
-    <row r="1430" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1430" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1430" s="2"/>
     </row>
-    <row r="1431" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1431" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1431" s="2"/>
     </row>
-    <row r="1432" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1432" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1432" s="2"/>
     </row>
-    <row r="1433" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1433" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1433" s="2"/>
     </row>
-    <row r="1434" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1434" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1434" s="2"/>
     </row>
-    <row r="1435" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1435" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1435" s="2"/>
     </row>
-    <row r="1436" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1436" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1436" s="2"/>
     </row>
-    <row r="1437" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1437" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1437" s="2"/>
     </row>
-    <row r="1438" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1438" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1438" s="2"/>
     </row>
-    <row r="1439" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1439" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1439" s="2"/>
     </row>
-    <row r="1440" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1440" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1440" s="2"/>
     </row>
-    <row r="1441" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1441" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1441" s="2"/>
     </row>
-    <row r="1442" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1442" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1442" s="2"/>
     </row>
-    <row r="1443" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1443" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1443" s="2"/>
     </row>
-    <row r="1444" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1444" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1444" s="2"/>
     </row>
-    <row r="1445" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1445" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1445" s="2"/>
     </row>
-    <row r="1446" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1446" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1446" s="2"/>
     </row>
-    <row r="1447" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1447" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1447" s="2"/>
     </row>
-    <row r="1448" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1448" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1448" s="2"/>
     </row>
-    <row r="1449" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1449" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1449" s="2"/>
     </row>
-    <row r="1450" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1450" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1450" s="2"/>
     </row>
-    <row r="1451" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1451" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1451" s="2"/>
     </row>
-    <row r="1452" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1452" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1452" s="2"/>
     </row>
-    <row r="1453" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1453" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1453" s="2"/>
     </row>
-    <row r="1454" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1454" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1454" s="2"/>
     </row>
-    <row r="1455" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1455" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1455" s="2"/>
     </row>
-    <row r="1456" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1456" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1456" s="2"/>
     </row>
-    <row r="1457" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1457" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1457" s="2"/>
     </row>
-    <row r="1458" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1458" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1458" s="2"/>
     </row>
-    <row r="1459" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1459" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1459" s="2"/>
     </row>
-    <row r="1460" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1460" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1460" s="2"/>
     </row>
-    <row r="1461" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1461" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1461" s="2"/>
     </row>
-    <row r="1462" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1462" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1462" s="2"/>
     </row>
-    <row r="1463" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1463" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1463" s="2"/>
     </row>
-    <row r="1464" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1464" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1464" s="2"/>
     </row>
-    <row r="1465" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1465" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1465" s="2"/>
     </row>
-    <row r="1466" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1466" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1466" s="2"/>
     </row>
-    <row r="1467" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1467" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1467" s="2"/>
     </row>
-    <row r="1468" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1468" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1468" s="2"/>
     </row>
-    <row r="1469" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1469" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1469" s="2"/>
     </row>
-    <row r="1470" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1470" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1470" s="2"/>
     </row>
-    <row r="1471" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1471" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1471" s="2"/>
     </row>
-    <row r="1472" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1472" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1472" s="2"/>
     </row>
-    <row r="1473" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1473" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1473" s="2"/>
     </row>
-    <row r="1474" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1474" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1474" s="2"/>
     </row>
-    <row r="1475" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1475" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1475" s="2"/>
     </row>
-    <row r="1476" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1476" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1476" s="2"/>
     </row>
-    <row r="1477" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1477" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1477" s="2"/>
     </row>
-    <row r="1478" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1478" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1478" s="2"/>
     </row>
-    <row r="1479" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1479" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1479" s="2"/>
     </row>
-    <row r="1480" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1480" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1480" s="2"/>
     </row>
-    <row r="1481" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1481" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1481" s="2"/>
     </row>
-    <row r="1482" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1482" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1482" s="2"/>
     </row>
-    <row r="1483" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1483" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1483" s="2"/>
     </row>
-    <row r="1484" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1484" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1484" s="2"/>
     </row>
-    <row r="1485" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1485" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1485" s="2"/>
     </row>
-    <row r="1486" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1486" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1486" s="2"/>
     </row>
-    <row r="1487" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1487" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1487" s="2"/>
     </row>
-    <row r="1488" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1488" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1488" s="2"/>
     </row>
-    <row r="1489" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1489" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1489" s="2"/>
     </row>
-    <row r="1490" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1490" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1490" s="2"/>
     </row>
-    <row r="1491" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1491" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1491" s="2"/>
     </row>
-    <row r="1492" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1492" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1492" s="2"/>
     </row>
-    <row r="1493" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1493" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1493" s="2"/>
     </row>
-    <row r="1494" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1494" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1494" s="2"/>
     </row>
-    <row r="1495" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1495" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1495" s="2"/>
     </row>
-    <row r="1496" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1496" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1496" s="2"/>
     </row>
-    <row r="1497" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1497" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1497" s="2"/>
     </row>
-    <row r="1498" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1498" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1498" s="2"/>
     </row>
-    <row r="1499" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1499" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1499" s="2"/>
     </row>
-    <row r="1500" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1500" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1500" s="2"/>
     </row>
-    <row r="1501" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1501" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1501" s="2"/>
     </row>
-    <row r="1502" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1502" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1502" s="2"/>
     </row>
-    <row r="1503" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1503" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1503" s="2"/>
     </row>
-    <row r="1504" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1504" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1504" s="2"/>
     </row>
-    <row r="1505" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1505" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1505" s="2"/>
     </row>
-    <row r="1506" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1506" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1506" s="2"/>
     </row>
-    <row r="1507" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1507" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1507" s="2"/>
     </row>
-    <row r="1508" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1508" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1508" s="2"/>
     </row>
-    <row r="1509" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1509" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1509" s="2"/>
     </row>
-    <row r="1510" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1510" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1510" s="2"/>
     </row>
-    <row r="1511" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1511" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1511" s="2"/>
     </row>
-    <row r="1512" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1512" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1512" s="2"/>
     </row>
-    <row r="1513" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1513" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1513" s="2"/>
     </row>
-    <row r="1514" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1514" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1514" s="2"/>
     </row>
-    <row r="1515" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1515" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1515" s="2"/>
     </row>
-    <row r="1516" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1516" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1516" s="2"/>
     </row>
-    <row r="1517" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1517" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1517" s="2"/>
     </row>
-    <row r="1518" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1518" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1518" s="2"/>
     </row>
-    <row r="1519" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1519" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1519" s="2"/>
     </row>
-    <row r="1520" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1520" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1520" s="2"/>
     </row>
-    <row r="1521" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1521" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1521" s="2"/>
     </row>
-    <row r="1522" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1522" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1522" s="2"/>
     </row>
-    <row r="1523" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1523" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1523" s="2"/>
     </row>
-    <row r="1524" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1524" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1524" s="2"/>
     </row>
-    <row r="1525" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1525" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1525" s="2"/>
     </row>
-    <row r="1526" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1526" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1526" s="2"/>
     </row>
-    <row r="1527" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1527" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1527" s="2"/>
     </row>
-    <row r="1528" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1528" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1528" s="2"/>
     </row>
-    <row r="1529" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1529" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1529" s="2"/>
     </row>
-    <row r="1530" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1530" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1530" s="2"/>
     </row>
-    <row r="1531" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1531" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1531" s="2"/>
     </row>
-    <row r="1532" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1532" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1532" s="2"/>
     </row>
-    <row r="1533" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1533" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1533" s="2"/>
     </row>
-    <row r="1534" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1534" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1534" s="2"/>
     </row>
-    <row r="1535" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1535" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1535" s="2"/>
     </row>
-    <row r="1536" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1536" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1536" s="2"/>
     </row>
-    <row r="1537" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1537" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1537" s="2"/>
     </row>
-    <row r="1538" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1538" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1538" s="2"/>
     </row>
-    <row r="1539" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1539" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1539" s="2"/>
     </row>
-    <row r="1540" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1540" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1540" s="2"/>
     </row>
-    <row r="1541" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1541" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1541" s="2"/>
     </row>
-    <row r="1542" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1542" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1542" s="2"/>
     </row>
-    <row r="1543" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1543" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1543" s="2"/>
     </row>
-    <row r="1544" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1544" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1544" s="2"/>
     </row>
-    <row r="1545" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1545" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1545" s="2"/>
     </row>
-    <row r="1546" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1546" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1546" s="2"/>
     </row>
-    <row r="1547" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1547" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1547" s="2"/>
     </row>
-    <row r="1548" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1548" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1548" s="2"/>
     </row>
-    <row r="1549" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1549" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1549" s="2"/>
     </row>
-    <row r="1550" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1550" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1550" s="2"/>
     </row>
-    <row r="1551" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1551" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1551" s="2"/>
     </row>
-    <row r="1552" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1552" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1552" s="2"/>
     </row>
-    <row r="1553" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1553" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1553" s="2"/>
     </row>
-    <row r="1554" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1554" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1554" s="2"/>
     </row>
-    <row r="1555" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1555" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1555" s="2"/>
     </row>
-    <row r="1556" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1556" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1556" s="2"/>
     </row>
-    <row r="1557" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1557" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1557" s="2"/>
     </row>
-    <row r="1558" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1558" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1558" s="2"/>
     </row>
-    <row r="1559" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1559" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1559" s="2"/>
     </row>
-    <row r="1560" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1560" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1560" s="2"/>
     </row>
-    <row r="1561" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1561" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1561" s="2"/>
     </row>
-    <row r="1562" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1562" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1562" s="2"/>
     </row>
-    <row r="1563" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1563" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1563" s="2"/>
     </row>
-    <row r="1564" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1564" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1564" s="2"/>
     </row>
-    <row r="1565" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1565" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1565" s="2"/>
     </row>
-    <row r="1566" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1566" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1566" s="2"/>
     </row>
-    <row r="1567" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1567" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1567" s="2"/>
     </row>
-    <row r="1568" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1568" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1568" s="2"/>
     </row>
-    <row r="1569" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1569" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1569" s="2"/>
     </row>
-    <row r="1570" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1570" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1570" s="2"/>
     </row>
-    <row r="1571" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1571" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1571" s="2"/>
     </row>
-    <row r="1572" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1572" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1572" s="2"/>
     </row>
-    <row r="1573" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1573" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1573" s="2"/>
     </row>
-    <row r="1574" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1574" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1574" s="2"/>
     </row>
-    <row r="1575" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1575" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1575" s="2"/>
     </row>
-    <row r="1576" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1576" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1576" s="2"/>
     </row>
-    <row r="1577" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1577" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1577" s="2"/>
     </row>
-    <row r="1578" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1578" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1578" s="2"/>
     </row>
-    <row r="1579" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1579" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1579" s="2"/>
     </row>
-    <row r="1580" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1580" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1580" s="2"/>
     </row>
-    <row r="1581" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1581" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1581" s="2"/>
     </row>
-    <row r="1582" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1582" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1582" s="2"/>
     </row>
-    <row r="1583" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1583" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1583" s="2"/>
     </row>
-    <row r="1584" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1584" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1584" s="2"/>
     </row>
-    <row r="1585" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1585" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1585" s="2"/>
     </row>
-    <row r="1586" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1586" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1586" s="2"/>
     </row>
-    <row r="1587" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1587" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1587" s="2"/>
     </row>
-    <row r="1588" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1588" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1588" s="2"/>
     </row>
-    <row r="1589" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="1589" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N1589" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="יש להזין תעודת זהות בעלת 9 ספרות_x000a_" sqref="A2:A1048576" xr:uid="{D7E8ABDF-3732-4219-88AE-624E4E2608EC}">
       <formula1>9</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בדוק את התאריך שהוזן_x000a_יש להזין בפורמט הבא - _x000a_ 01/01/1999" sqref="E2:E1048576" xr:uid="{590813BC-8088-4D58-9FCA-4768DDF4EDB1}">
-      <formula1>10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בחר מהרשימה_x000a_M עבור זכר _x000a_F עבור נקבה" sqref="F2:F1048576" xr:uid="{70E312DB-D5C5-4CA3-BA8C-F66A5433E60E}">
       <formula1>"F,M"</formula1>
@@ -6578,7 +6589,7 @@
       <formula1>"51,54,55,56,57,58,59,60,61,62,63,64,98"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בחר לקות מהרשימה" sqref="K2:K1048576" xr:uid="{223C43DA-8AED-4ABE-BD98-AAB5244316E5}">
-      <formula1>"51,54,55,56,57,58,59,60,61,62,63,64,98"</formula1>
+      <formula1>"51,55,56,57,58,59,60,61,62,63,64,98"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אורך שם האופוטופרוס יכול להכיל עד 50 תווים" sqref="L2:L1048576" xr:uid="{C9F3847C-0B93-41B4-AC5E-91F5E558D586}">
       <formula1>50</formula1>
@@ -6592,7 +6603,12 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אורך שדה אלרגיות וריגשויות יכול להכיל עד 50 תווים" sqref="O2:O1048576" xr:uid="{6674F343-A98F-48EE-8D6D-EC02071E7E80}">
       <formula1>50</formula1>
     </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נסה שוב" error="אנא בדוק את התאריך שהוזן_x000a_יש להזין בפורמט הבא - _x000a_ 01/01/1999" sqref="E2:E1048576" xr:uid="{18A352DE-A915-4B9E-A362-25AC0F1E5E31}">
+      <formula1>36526</formula1>
+      <formula2>47848</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Digitala/Digitala/File/Template.xlsx
+++ b/Digitala/Digitala/File/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mor_y16bkhc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabin\Documents\לימודים\Digitala\Digitala\Digitala\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D152FC4-D4F5-4600-B62E-27F13995D74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A4110-65E4-458C-9969-41886982FF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,14 +88,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,8 +137,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,27 +425,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1589"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.25" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -449,13 +458,13 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -467,10 +476,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -488,7 +497,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="H2" s="2"/>
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
